--- a/name/vnindex/20221219/VNINDEX_HOSE_5p_20221219.xlsx
+++ b/name/vnindex/20221219/VNINDEX_HOSE_5p_20221219.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2557 +454,6007 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1671441300000</v>
+        <v>1671441240000</v>
       </c>
       <c r="B2">
-        <v>11430800</v>
+        <v>4704300</v>
       </c>
       <c r="C2">
-        <v>12079600</v>
+        <v>5470600</v>
       </c>
       <c r="D2">
-        <v>2397800</v>
+        <v>2311100</v>
       </c>
       <c r="E2">
-        <v>201555222000</v>
+        <v>79825421000</v>
       </c>
       <c r="F2">
-        <v>204924196000</v>
+        <v>94775767000</v>
       </c>
       <c r="G2">
-        <v>44146294000</v>
+        <v>42606503000</v>
       </c>
       <c r="H2">
-        <v>25908200</v>
+        <v>12486000</v>
       </c>
       <c r="I2">
-        <v>450625712000</v>
+        <v>217207691000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-19T09:15:00.000Z</v>
+        <v>2022-12-19T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>450625712000</v>
+        <v>217207691000</v>
       </c>
       <c r="L2">
-        <v>25908200</v>
+        <v>12486000</v>
       </c>
       <c r="M2">
-        <v>648800</v>
+        <v>766300</v>
       </c>
       <c r="N2">
-        <v>3368974000</v>
+        <v>14950346000</v>
       </c>
       <c r="O2">
-        <v>648800</v>
+        <v>766300</v>
       </c>
       <c r="P2">
-        <v>3368974000</v>
+        <v>14950346000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1671441600000</v>
+        <v>1671441360000</v>
       </c>
       <c r="B3">
-        <v>8169700</v>
+        <v>3756100</v>
       </c>
       <c r="C3">
-        <v>5431400</v>
+        <v>3630900</v>
       </c>
       <c r="D3">
-        <v>102900</v>
+        <v>45600</v>
       </c>
       <c r="E3">
-        <v>145461296000</v>
+        <v>70748274000</v>
       </c>
       <c r="F3">
-        <v>90935360000</v>
+        <v>60662003000</v>
       </c>
       <c r="G3">
-        <v>2063166000</v>
+        <v>1005401000</v>
       </c>
       <c r="H3">
-        <v>13704000</v>
+        <v>7432600</v>
       </c>
       <c r="I3">
-        <v>238459822000</v>
+        <v>132415678000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-19T09:20:00.000Z</v>
+        <v>2022-12-19T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>689085534000</v>
+        <v>349623369000</v>
       </c>
       <c r="L3">
-        <v>39612200</v>
+        <v>19918600</v>
       </c>
       <c r="M3">
-        <v>-2738300</v>
+        <v>-125200</v>
       </c>
       <c r="N3">
-        <v>-54525936000</v>
+        <v>-10086271000</v>
       </c>
       <c r="O3">
-        <v>-2089500</v>
+        <v>641100</v>
       </c>
       <c r="P3">
-        <v>-51156962000</v>
+        <v>4864075000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1671441900000</v>
+        <v>1671441480000</v>
       </c>
       <c r="B4">
-        <v>4596900</v>
+        <v>2970400</v>
       </c>
       <c r="C4">
-        <v>8947800</v>
+        <v>2978100</v>
       </c>
       <c r="D4">
-        <v>37300</v>
+        <v>41100</v>
       </c>
       <c r="E4">
-        <v>77132568000</v>
+        <v>50981527000</v>
       </c>
       <c r="F4">
-        <v>146669729000</v>
+        <v>49486426000</v>
       </c>
       <c r="G4">
-        <v>684756000</v>
+        <v>534390000</v>
       </c>
       <c r="H4">
-        <v>13582000</v>
+        <v>5989600</v>
       </c>
       <c r="I4">
-        <v>224487053000</v>
+        <v>101002343000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-19T09:25:00.000Z</v>
+        <v>2022-12-19T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>913572587000</v>
+        <v>450625712000</v>
       </c>
       <c r="L4">
-        <v>53194200</v>
+        <v>25908200</v>
       </c>
       <c r="M4">
-        <v>4350900</v>
+        <v>7700</v>
       </c>
       <c r="N4">
-        <v>69537161000</v>
+        <v>-1495101000</v>
       </c>
       <c r="O4">
-        <v>2261400</v>
+        <v>648800</v>
       </c>
       <c r="P4">
-        <v>18380199000</v>
+        <v>3368974000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1671442200000</v>
+        <v>1671441600000</v>
       </c>
       <c r="B5">
-        <v>7017900</v>
+        <v>3493700</v>
       </c>
       <c r="C5">
-        <v>5395900</v>
+        <v>2226600</v>
       </c>
       <c r="D5">
-        <v>45900</v>
+        <v>47400</v>
       </c>
       <c r="E5">
-        <v>133516729000</v>
+        <v>65466775000</v>
       </c>
       <c r="F5">
-        <v>97940261000</v>
+        <v>34897163000</v>
       </c>
       <c r="G5">
-        <v>991720000</v>
+        <v>889080000</v>
       </c>
       <c r="H5">
-        <v>12459700</v>
+        <v>5767700</v>
       </c>
       <c r="I5">
-        <v>232448710000</v>
+        <v>101253018000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-19T09:30:00.000Z</v>
+        <v>2022-12-19T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1146021297000</v>
+        <v>551878730000</v>
       </c>
       <c r="L5">
-        <v>65653900</v>
+        <v>31675900</v>
       </c>
       <c r="M5">
-        <v>-1622000</v>
+        <v>-1267100</v>
       </c>
       <c r="N5">
-        <v>-35576468000</v>
+        <v>-30569612000</v>
       </c>
       <c r="O5">
-        <v>639400</v>
+        <v>-618300</v>
       </c>
       <c r="P5">
-        <v>-17196269000</v>
+        <v>-27200638000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1671442500000</v>
+        <v>1671441720000</v>
       </c>
       <c r="B6">
-        <v>4496300</v>
+        <v>3069100</v>
       </c>
       <c r="C6">
-        <v>5183200</v>
+        <v>2066100</v>
       </c>
       <c r="D6">
-        <v>42800</v>
+        <v>41500</v>
       </c>
       <c r="E6">
-        <v>80968612000</v>
+        <v>54779143000</v>
       </c>
       <c r="F6">
-        <v>85517151000</v>
+        <v>36373067000</v>
       </c>
       <c r="G6">
-        <v>582060000</v>
+        <v>1019595000</v>
       </c>
       <c r="H6">
-        <v>9722300</v>
+        <v>5176700</v>
       </c>
       <c r="I6">
-        <v>167067823000</v>
+        <v>92171805000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-19T09:35:00.000Z</v>
+        <v>2022-12-19T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1313089120000</v>
+        <v>644050535000</v>
       </c>
       <c r="L6">
-        <v>75376200</v>
+        <v>36852600</v>
       </c>
       <c r="M6">
-        <v>686900</v>
+        <v>-1003000</v>
       </c>
       <c r="N6">
-        <v>4548539000</v>
+        <v>-18406076000</v>
       </c>
       <c r="O6">
-        <v>1326300</v>
+        <v>-1621300</v>
       </c>
       <c r="P6">
-        <v>-12647730000</v>
+        <v>-45606714000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1671442800000</v>
+        <v>1671441840000</v>
       </c>
       <c r="B7">
-        <v>4347900</v>
+        <v>2779200</v>
       </c>
       <c r="C7">
-        <v>7197100</v>
+        <v>2489400</v>
       </c>
       <c r="D7">
-        <v>42400</v>
+        <v>17800</v>
       </c>
       <c r="E7">
-        <v>72212451000</v>
+        <v>43348289000</v>
       </c>
       <c r="F7">
-        <v>124189734000</v>
+        <v>41147935000</v>
       </c>
       <c r="G7">
-        <v>273686000</v>
+        <v>178715000</v>
       </c>
       <c r="H7">
-        <v>11587400</v>
+        <v>5286400</v>
       </c>
       <c r="I7">
-        <v>196675871000</v>
+        <v>84674939000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-19T09:40:00.000Z</v>
+        <v>2022-12-19T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1509764991000</v>
+        <v>728725474000</v>
       </c>
       <c r="L7">
-        <v>86963600</v>
+        <v>42139000</v>
       </c>
       <c r="M7">
-        <v>2849200</v>
+        <v>-289800</v>
       </c>
       <c r="N7">
-        <v>51977283000</v>
+        <v>-2200354000</v>
       </c>
       <c r="O7">
-        <v>4175500</v>
+        <v>-1911100</v>
       </c>
       <c r="P7">
-        <v>39329553000</v>
+        <v>-47807068000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1671443100000</v>
+        <v>1671441960000</v>
       </c>
       <c r="B8">
-        <v>3611700</v>
+        <v>1981900</v>
       </c>
       <c r="C8">
-        <v>15080300</v>
+        <v>3461300</v>
       </c>
       <c r="D8">
-        <v>127100</v>
+        <v>16400</v>
       </c>
       <c r="E8">
-        <v>68302236000</v>
+        <v>31772858000</v>
       </c>
       <c r="F8">
-        <v>250817823000</v>
+        <v>54929846000</v>
       </c>
       <c r="G8">
-        <v>1725010000</v>
+        <v>347934000</v>
       </c>
       <c r="H8">
-        <v>18819100</v>
+        <v>5459600</v>
       </c>
       <c r="I8">
-        <v>320845069000</v>
+        <v>87050638000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-19T09:45:00.000Z</v>
+        <v>2022-12-19T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1830610060000</v>
+        <v>815776112000</v>
       </c>
       <c r="L8">
-        <v>105782700</v>
+        <v>47598600</v>
       </c>
       <c r="M8">
-        <v>11468600</v>
+        <v>1479400</v>
       </c>
       <c r="N8">
-        <v>182515587000</v>
+        <v>23156988000</v>
       </c>
       <c r="O8">
-        <v>15644100</v>
+        <v>-431700</v>
       </c>
       <c r="P8">
-        <v>221845140000</v>
+        <v>-24650080000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1671443400000</v>
+        <v>1671442080000</v>
       </c>
       <c r="B9">
-        <v>6252400</v>
+        <v>1442700</v>
       </c>
       <c r="C9">
-        <v>12879900</v>
+        <v>4135800</v>
       </c>
       <c r="D9">
-        <v>112800</v>
+        <v>17100</v>
       </c>
       <c r="E9">
-        <v>117931143000</v>
+        <v>27226799000</v>
       </c>
       <c r="F9">
-        <v>204961759000</v>
+        <v>70257078000</v>
       </c>
       <c r="G9">
-        <v>1480084000</v>
+        <v>312598000</v>
       </c>
       <c r="H9">
-        <v>19245100</v>
+        <v>5595600</v>
       </c>
       <c r="I9">
-        <v>324372986000</v>
+        <v>97796475000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-19T09:50:00.000Z</v>
+        <v>2022-12-19T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2154983046000</v>
+        <v>913572587000</v>
       </c>
       <c r="L9">
-        <v>125027800</v>
+        <v>53194200</v>
       </c>
       <c r="M9">
-        <v>6627500</v>
+        <v>2693100</v>
       </c>
       <c r="N9">
-        <v>87030616000</v>
+        <v>43030279000</v>
       </c>
       <c r="O9">
-        <v>22271600</v>
+        <v>2261400</v>
       </c>
       <c r="P9">
-        <v>308875756000</v>
+        <v>18380199000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1671443700000</v>
+        <v>1671442200000</v>
       </c>
       <c r="B10">
-        <v>6741600</v>
+        <v>3157600</v>
       </c>
       <c r="C10">
-        <v>6106500</v>
+        <v>2155700</v>
       </c>
       <c r="D10">
-        <v>60500</v>
+        <v>16500</v>
       </c>
       <c r="E10">
-        <v>113534674000</v>
+        <v>58610907000</v>
       </c>
       <c r="F10">
-        <v>97793876000</v>
+        <v>36767456000</v>
       </c>
       <c r="G10">
-        <v>933197000</v>
+        <v>188534000</v>
       </c>
       <c r="H10">
-        <v>12908600</v>
+        <v>5329800</v>
       </c>
       <c r="I10">
-        <v>212261747000</v>
+        <v>95566897000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-19T09:55:00.000Z</v>
+        <v>2022-12-19T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2367244793000</v>
+        <v>1009139484000</v>
       </c>
       <c r="L10">
-        <v>137936400</v>
+        <v>58524000</v>
       </c>
       <c r="M10">
-        <v>-635100</v>
+        <v>-1001900</v>
       </c>
       <c r="N10">
-        <v>-15740798000</v>
+        <v>-21843451000</v>
       </c>
       <c r="O10">
-        <v>21636500</v>
+        <v>1259500</v>
       </c>
       <c r="P10">
-        <v>293134958000</v>
+        <v>-3463252000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1671444000000</v>
+        <v>1671442320000</v>
       </c>
       <c r="B11">
-        <v>6886200</v>
+        <v>2656000</v>
       </c>
       <c r="C11">
-        <v>4640900</v>
+        <v>2188300</v>
       </c>
       <c r="D11">
-        <v>37400</v>
+        <v>10800</v>
       </c>
       <c r="E11">
-        <v>119289094000</v>
+        <v>50877096000</v>
       </c>
       <c r="F11">
-        <v>70426719000</v>
+        <v>40468670000</v>
       </c>
       <c r="G11">
-        <v>954832000</v>
+        <v>188995000</v>
       </c>
       <c r="H11">
-        <v>11564500</v>
+        <v>4855100</v>
       </c>
       <c r="I11">
-        <v>190670645000</v>
+        <v>91534761000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-19T10:00:00.000Z</v>
+        <v>2022-12-19T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2557915438000</v>
+        <v>1100674245000</v>
       </c>
       <c r="L11">
-        <v>149500900</v>
+        <v>63379100</v>
       </c>
       <c r="M11">
-        <v>-2245300</v>
+        <v>-467700</v>
       </c>
       <c r="N11">
-        <v>-48862375000</v>
+        <v>-10408426000</v>
       </c>
       <c r="O11">
-        <v>19391200</v>
+        <v>791800</v>
       </c>
       <c r="P11">
-        <v>244272583000</v>
+        <v>-13871678000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1671444300000</v>
+        <v>1671442440000</v>
       </c>
       <c r="B12">
-        <v>5718500</v>
+        <v>2040700</v>
       </c>
       <c r="C12">
-        <v>3959300</v>
+        <v>2013000</v>
       </c>
       <c r="D12">
-        <v>49500</v>
+        <v>19300</v>
       </c>
       <c r="E12">
-        <v>104105662000</v>
+        <v>39223470000</v>
       </c>
       <c r="F12">
-        <v>69308648000</v>
+        <v>36956748000</v>
       </c>
       <c r="G12">
-        <v>1024838000</v>
+        <v>625781000</v>
       </c>
       <c r="H12">
-        <v>9727300</v>
+        <v>4073000</v>
       </c>
       <c r="I12">
-        <v>174439148000</v>
+        <v>76805999000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-19T10:05:00.000Z</v>
+        <v>2022-12-19T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2732354586000</v>
+        <v>1177480244000</v>
       </c>
       <c r="L12">
-        <v>159228200</v>
+        <v>67452100</v>
       </c>
       <c r="M12">
-        <v>-1759200</v>
+        <v>-27700</v>
       </c>
       <c r="N12">
-        <v>-34797014000</v>
+        <v>-2266722000</v>
       </c>
       <c r="O12">
-        <v>17632000</v>
+        <v>764100</v>
       </c>
       <c r="P12">
-        <v>209475569000</v>
+        <v>-16138400000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1671444600000</v>
+        <v>1671442560000</v>
       </c>
       <c r="B13">
-        <v>4112300</v>
+        <v>2092400</v>
       </c>
       <c r="C13">
-        <v>4171100</v>
+        <v>2240900</v>
       </c>
       <c r="D13">
-        <v>34600</v>
+        <v>31000</v>
       </c>
       <c r="E13">
-        <v>78087261000</v>
+        <v>34738967000</v>
       </c>
       <c r="F13">
-        <v>74720693000</v>
+        <v>35437281000</v>
       </c>
       <c r="G13">
-        <v>522324000</v>
+        <v>273729000</v>
       </c>
       <c r="H13">
-        <v>8318000</v>
+        <v>4364300</v>
       </c>
       <c r="I13">
-        <v>153330278000</v>
+        <v>70449977000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-19T10:10:00.000Z</v>
+        <v>2022-12-19T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2885684864000</v>
+        <v>1247930221000</v>
       </c>
       <c r="L13">
-        <v>167546200</v>
+        <v>71816400</v>
       </c>
       <c r="M13">
-        <v>58800</v>
+        <v>148500</v>
       </c>
       <c r="N13">
-        <v>-3366568000</v>
+        <v>698314000</v>
       </c>
       <c r="O13">
-        <v>17690800</v>
+        <v>912600</v>
       </c>
       <c r="P13">
-        <v>206109001000</v>
+        <v>-15440086000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1671444900000</v>
+        <v>1671442680000</v>
       </c>
       <c r="B14">
-        <v>3217800</v>
+        <v>1567500</v>
       </c>
       <c r="C14">
-        <v>16150500</v>
+        <v>1981200</v>
       </c>
       <c r="D14">
-        <v>73600</v>
+        <v>11100</v>
       </c>
       <c r="E14">
-        <v>53836027000</v>
+        <v>31034901000</v>
       </c>
       <c r="F14">
-        <v>281846794000</v>
+        <v>33827257000</v>
       </c>
       <c r="G14">
-        <v>813732000</v>
+        <v>296741000</v>
       </c>
       <c r="H14">
-        <v>19441900</v>
+        <v>3559800</v>
       </c>
       <c r="I14">
-        <v>336496553000</v>
+        <v>65158899000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-19T10:15:00.000Z</v>
+        <v>2022-12-19T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3222181417000</v>
+        <v>1313089120000</v>
       </c>
       <c r="L14">
-        <v>186988100</v>
+        <v>75376200</v>
       </c>
       <c r="M14">
-        <v>12932700</v>
+        <v>413700</v>
       </c>
       <c r="N14">
-        <v>228010767000</v>
+        <v>2792356000</v>
       </c>
       <c r="O14">
-        <v>30623500</v>
+        <v>1326300</v>
       </c>
       <c r="P14">
-        <v>434119768000</v>
+        <v>-12647730000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1671445200000</v>
+        <v>1671442800000</v>
       </c>
       <c r="B15">
-        <v>6230300</v>
+        <v>1943500</v>
       </c>
       <c r="C15">
-        <v>11714200</v>
+        <v>1929100</v>
       </c>
       <c r="D15">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="E15">
-        <v>104507515000</v>
+        <v>32621797000</v>
       </c>
       <c r="F15">
-        <v>193389023000</v>
+        <v>32559228000</v>
       </c>
       <c r="G15">
-        <v>508664000</v>
+        <v>227192000</v>
       </c>
       <c r="H15">
-        <v>17978100</v>
+        <v>3906300</v>
       </c>
       <c r="I15">
-        <v>298405202000</v>
+        <v>65408217000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-19T10:20:00.000Z</v>
+        <v>2022-12-19T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3520586619000</v>
+        <v>1378497337000</v>
       </c>
       <c r="L15">
-        <v>204966200</v>
+        <v>79282500</v>
       </c>
       <c r="M15">
-        <v>5483900</v>
+        <v>-14400</v>
       </c>
       <c r="N15">
-        <v>88881508000</v>
+        <v>-62569000</v>
       </c>
       <c r="O15">
-        <v>36107400</v>
+        <v>1311900</v>
       </c>
       <c r="P15">
-        <v>523001276000</v>
+        <v>-12710299000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1671445500000</v>
+        <v>1671442920000</v>
       </c>
       <c r="B16">
-        <v>6936800</v>
+        <v>1707100</v>
       </c>
       <c r="C16">
-        <v>5923100</v>
+        <v>3262700</v>
       </c>
       <c r="D16">
-        <v>26300</v>
+        <v>8400</v>
       </c>
       <c r="E16">
-        <v>123219445000</v>
+        <v>28119568000</v>
       </c>
       <c r="F16">
-        <v>100475093000</v>
+        <v>60538292000</v>
       </c>
       <c r="G16">
-        <v>755394000</v>
+        <v>42209000</v>
       </c>
       <c r="H16">
-        <v>12886200</v>
+        <v>4978200</v>
       </c>
       <c r="I16">
-        <v>224449932000</v>
+        <v>88700069000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-19T10:25:00.000Z</v>
+        <v>2022-12-19T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3745036551000</v>
+        <v>1467197406000</v>
       </c>
       <c r="L16">
-        <v>217852400</v>
+        <v>84260700</v>
       </c>
       <c r="M16">
-        <v>-1013700</v>
+        <v>1555600</v>
       </c>
       <c r="N16">
-        <v>-22744352000</v>
+        <v>32418724000</v>
       </c>
       <c r="O16">
-        <v>35093700</v>
+        <v>2867500</v>
       </c>
       <c r="P16">
-        <v>500256924000</v>
+        <v>19708425000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1671445800000</v>
+        <v>1671443040000</v>
       </c>
       <c r="B17">
-        <v>4451000</v>
+        <v>1327800</v>
       </c>
       <c r="C17">
-        <v>5003000</v>
+        <v>4484100</v>
       </c>
       <c r="D17">
-        <v>22200</v>
+        <v>58600</v>
       </c>
       <c r="E17">
-        <v>82758254000</v>
+        <v>22504691000</v>
       </c>
       <c r="F17">
-        <v>90897768000</v>
+        <v>72160191000</v>
       </c>
       <c r="G17">
-        <v>538105000</v>
+        <v>858129000</v>
       </c>
       <c r="H17">
-        <v>9476200</v>
+        <v>5870500</v>
       </c>
       <c r="I17">
-        <v>174194127000</v>
+        <v>95523011000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-19T10:30:00.000Z</v>
+        <v>2022-12-19T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3919230678000</v>
+        <v>1562720417000</v>
       </c>
       <c r="L17">
-        <v>227328600</v>
+        <v>90131200</v>
       </c>
       <c r="M17">
-        <v>552000</v>
+        <v>3156300</v>
       </c>
       <c r="N17">
-        <v>8139514000</v>
+        <v>49655500000</v>
       </c>
       <c r="O17">
-        <v>35645700</v>
+        <v>6023800</v>
       </c>
       <c r="P17">
-        <v>508396438000</v>
+        <v>69363925000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1671446100000</v>
+        <v>1671443160000</v>
       </c>
       <c r="B18">
-        <v>5797500</v>
+        <v>1397500</v>
       </c>
       <c r="C18">
-        <v>4217700</v>
+        <v>5522900</v>
       </c>
       <c r="D18">
-        <v>97100</v>
+        <v>5600</v>
       </c>
       <c r="E18">
-        <v>126634986000</v>
+        <v>28088407000</v>
       </c>
       <c r="F18">
-        <v>73641654000</v>
+        <v>92642353000</v>
       </c>
       <c r="G18">
-        <v>2080726000</v>
+        <v>78290000</v>
       </c>
       <c r="H18">
-        <v>10112300</v>
+        <v>6926000</v>
       </c>
       <c r="I18">
-        <v>202357366000</v>
+        <v>120809050000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-19T10:35:00.000Z</v>
+        <v>2022-12-19T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>4121588044000</v>
+        <v>1683529467000</v>
       </c>
       <c r="L18">
-        <v>237440900</v>
+        <v>97057200</v>
       </c>
       <c r="M18">
-        <v>-1579800</v>
+        <v>4125400</v>
       </c>
       <c r="N18">
-        <v>-52993332000</v>
+        <v>64553946000</v>
       </c>
       <c r="O18">
-        <v>34065900</v>
+        <v>10149200</v>
       </c>
       <c r="P18">
-        <v>455403106000</v>
+        <v>133917871000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1671446400000</v>
+        <v>1671443280000</v>
       </c>
       <c r="B19">
-        <v>3832100</v>
+        <v>1583700</v>
       </c>
       <c r="C19">
-        <v>5792500</v>
+        <v>7078600</v>
       </c>
       <c r="D19">
-        <v>26800</v>
+        <v>63200</v>
       </c>
       <c r="E19">
-        <v>66166550000</v>
+        <v>29180224000</v>
       </c>
       <c r="F19">
-        <v>120938653000</v>
+        <v>117107493000</v>
       </c>
       <c r="G19">
-        <v>329551000</v>
+        <v>792876000</v>
       </c>
       <c r="H19">
-        <v>9651400</v>
+        <v>8725500</v>
       </c>
       <c r="I19">
-        <v>187434754000</v>
+        <v>147080593000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-19T10:40:00.000Z</v>
+        <v>2022-12-19T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>4309022798000</v>
+        <v>1830610060000</v>
       </c>
       <c r="L19">
-        <v>247092300</v>
+        <v>105782700</v>
       </c>
       <c r="M19">
-        <v>1960400</v>
+        <v>5494900</v>
       </c>
       <c r="N19">
-        <v>54772103000</v>
+        <v>87927269000</v>
       </c>
       <c r="O19">
-        <v>36026300</v>
+        <v>15644100</v>
       </c>
       <c r="P19">
-        <v>510175209000</v>
+        <v>221845140000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1671446700000</v>
+        <v>1671443400000</v>
       </c>
       <c r="B20">
-        <v>3510300</v>
+        <v>1682400</v>
       </c>
       <c r="C20">
-        <v>19113800</v>
+        <v>5345100</v>
       </c>
       <c r="D20">
-        <v>394600</v>
+        <v>21900</v>
       </c>
       <c r="E20">
-        <v>67318597000</v>
+        <v>29865890000</v>
       </c>
       <c r="F20">
-        <v>359414298000</v>
+        <v>95179530000</v>
       </c>
       <c r="G20">
-        <v>7976700000</v>
+        <v>414972000</v>
       </c>
       <c r="H20">
-        <v>23018700</v>
+        <v>7049400</v>
       </c>
       <c r="I20">
-        <v>434709595000</v>
+        <v>125460392000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-19T10:45:00.000Z</v>
+        <v>2022-12-19T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4743732393000</v>
+        <v>1956070452000</v>
       </c>
       <c r="L20">
-        <v>270111000</v>
+        <v>112832100</v>
       </c>
       <c r="M20">
-        <v>15603500</v>
+        <v>3662700</v>
       </c>
       <c r="N20">
-        <v>292095701000</v>
+        <v>65313640000</v>
       </c>
       <c r="O20">
-        <v>51629800</v>
+        <v>19306800</v>
       </c>
       <c r="P20">
-        <v>802270910000</v>
+        <v>287158780000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1671447000000</v>
+        <v>1671443520000</v>
       </c>
       <c r="B21">
-        <v>6890500</v>
+        <v>2805100</v>
       </c>
       <c r="C21">
-        <v>17369500</v>
+        <v>5964700</v>
       </c>
       <c r="D21">
-        <v>185000</v>
+        <v>65600</v>
       </c>
       <c r="E21">
-        <v>126766943000</v>
+        <v>55974734000</v>
       </c>
       <c r="F21">
-        <v>300527619000</v>
+        <v>86425506000</v>
       </c>
       <c r="G21">
-        <v>4238997000</v>
+        <v>657213000</v>
       </c>
       <c r="H21">
-        <v>24445000</v>
+        <v>8835400</v>
       </c>
       <c r="I21">
-        <v>431533559000</v>
+        <v>143057453000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-19T10:50:00.000Z</v>
+        <v>2022-12-19T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>5175265952000</v>
+        <v>2099127905000</v>
       </c>
       <c r="L21">
-        <v>294556000</v>
+        <v>121667500</v>
       </c>
       <c r="M21">
-        <v>10479000</v>
+        <v>3159600</v>
       </c>
       <c r="N21">
-        <v>173760676000</v>
+        <v>30450772000</v>
       </c>
       <c r="O21">
-        <v>62108800</v>
+        <v>22466400</v>
       </c>
       <c r="P21">
-        <v>976031586000</v>
+        <v>317609552000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1671447300000</v>
+        <v>1671443640000</v>
       </c>
       <c r="B22">
-        <v>8473000</v>
+        <v>2933400</v>
       </c>
       <c r="C22">
-        <v>6127300</v>
+        <v>2578500</v>
       </c>
       <c r="D22">
-        <v>80400</v>
+        <v>32900</v>
       </c>
       <c r="E22">
-        <v>148669267000</v>
+        <v>51602157000</v>
       </c>
       <c r="F22">
-        <v>101288842000</v>
+        <v>40264239000</v>
       </c>
       <c r="G22">
-        <v>1193706000</v>
+        <v>481176000</v>
       </c>
       <c r="H22">
-        <v>14680700</v>
+        <v>5544800</v>
       </c>
       <c r="I22">
-        <v>251151815000</v>
+        <v>92347572000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-19T10:55:00.000Z</v>
+        <v>2022-12-19T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>5426417767000</v>
+        <v>2191475477000</v>
       </c>
       <c r="L22">
-        <v>309236700</v>
+        <v>127212300</v>
       </c>
       <c r="M22">
-        <v>-2345700</v>
+        <v>-354900</v>
       </c>
       <c r="N22">
-        <v>-47380425000</v>
+        <v>-11337918000</v>
       </c>
       <c r="O22">
-        <v>59763100</v>
+        <v>22111500</v>
       </c>
       <c r="P22">
-        <v>928651161000</v>
+        <v>306271634000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1671447600000</v>
+        <v>1671443760000</v>
       </c>
       <c r="B23">
-        <v>5206700</v>
+        <v>2831000</v>
       </c>
       <c r="C23">
-        <v>5687000</v>
+        <v>2688600</v>
       </c>
       <c r="D23">
-        <v>35700</v>
+        <v>12500</v>
       </c>
       <c r="E23">
-        <v>95283569000</v>
+        <v>47852925000</v>
       </c>
       <c r="F23">
-        <v>101776603000</v>
+        <v>44616883000</v>
       </c>
       <c r="G23">
-        <v>924109000</v>
+        <v>165925000</v>
       </c>
       <c r="H23">
-        <v>10929400</v>
+        <v>5532100</v>
       </c>
       <c r="I23">
-        <v>197984281000</v>
+        <v>92635733000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-19T11:00:00.000Z</v>
+        <v>2022-12-19T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>5624402048000</v>
+        <v>2284111210000</v>
       </c>
       <c r="L23">
-        <v>320166100</v>
+        <v>132744400</v>
       </c>
       <c r="M23">
-        <v>480300</v>
+        <v>-142400</v>
       </c>
       <c r="N23">
-        <v>6493034000</v>
+        <v>-3236042000</v>
       </c>
       <c r="O23">
-        <v>60243400</v>
+        <v>21969100</v>
       </c>
       <c r="P23">
-        <v>935144195000</v>
+        <v>303035592000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1671447900000</v>
+        <v>1671443880000</v>
       </c>
       <c r="B24">
-        <v>5610600</v>
+        <v>2742100</v>
       </c>
       <c r="C24">
-        <v>3858200</v>
+        <v>2409500</v>
       </c>
       <c r="D24">
-        <v>19200</v>
+        <v>40400</v>
       </c>
       <c r="E24">
-        <v>98846476000</v>
+        <v>46170111000</v>
       </c>
       <c r="F24">
-        <v>64688129000</v>
+        <v>36269477000</v>
       </c>
       <c r="G24">
-        <v>185104000</v>
+        <v>693995000</v>
       </c>
       <c r="H24">
-        <v>9488000</v>
+        <v>5192000</v>
       </c>
       <c r="I24">
-        <v>163719709000</v>
+        <v>83133583000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-19T11:05:00.000Z</v>
+        <v>2022-12-19T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>5788121757000</v>
+        <v>2367244793000</v>
       </c>
       <c r="L24">
-        <v>329654100</v>
+        <v>137936400</v>
       </c>
       <c r="M24">
-        <v>-1752400</v>
+        <v>-332600</v>
       </c>
       <c r="N24">
-        <v>-34158347000</v>
+        <v>-9900634000</v>
       </c>
       <c r="O24">
-        <v>58491000</v>
+        <v>21636500</v>
       </c>
       <c r="P24">
-        <v>900985848000</v>
+        <v>293134958000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1671448200000</v>
+        <v>1671444000000</v>
       </c>
       <c r="B25">
-        <v>6083000</v>
+        <v>2859900</v>
       </c>
       <c r="C25">
-        <v>2502000</v>
+        <v>2219500</v>
       </c>
       <c r="D25">
-        <v>12800</v>
+        <v>36600</v>
       </c>
       <c r="E25">
-        <v>112404521000</v>
+        <v>51542427000</v>
       </c>
       <c r="F25">
-        <v>47995711000</v>
+        <v>31844530000</v>
       </c>
       <c r="G25">
-        <v>293798000</v>
+        <v>940495000</v>
       </c>
       <c r="H25">
-        <v>8597800</v>
+        <v>5116000</v>
       </c>
       <c r="I25">
-        <v>160694030000</v>
+        <v>84327452000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-19T11:10:00.000Z</v>
+        <v>2022-12-19T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>5948815787000</v>
+        <v>2451572245000</v>
       </c>
       <c r="L25">
-        <v>338251900</v>
+        <v>143052400</v>
       </c>
       <c r="M25">
-        <v>-3581000</v>
+        <v>-640400</v>
       </c>
       <c r="N25">
-        <v>-64408810000</v>
+        <v>-19697897000</v>
       </c>
       <c r="O25">
-        <v>54910000</v>
+        <v>20996100</v>
       </c>
       <c r="P25">
-        <v>836577038000</v>
+        <v>273437061000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1671448500000</v>
+        <v>1671444120000</v>
       </c>
       <c r="B26">
-        <v>6959900</v>
+        <v>2913100</v>
       </c>
       <c r="C26">
-        <v>2313300</v>
+        <v>1783300</v>
       </c>
       <c r="D26">
-        <v>29000</v>
+        <v>500</v>
       </c>
       <c r="E26">
-        <v>121648080000</v>
+        <v>50644893000</v>
       </c>
       <c r="F26">
-        <v>43292765000</v>
+        <v>26983198000</v>
       </c>
       <c r="G26">
-        <v>382605000</v>
+        <v>10500000</v>
       </c>
       <c r="H26">
-        <v>9302200</v>
+        <v>4696900</v>
       </c>
       <c r="I26">
-        <v>165323450000</v>
+        <v>77638591000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-19T11:15:00.000Z</v>
+        <v>2022-12-19T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>6114139237000</v>
+        <v>2529210836000</v>
       </c>
       <c r="L26">
-        <v>347554100</v>
+        <v>147749300</v>
       </c>
       <c r="M26">
-        <v>-4646600</v>
+        <v>-1129800</v>
       </c>
       <c r="N26">
-        <v>-78355315000</v>
+        <v>-23661695000</v>
       </c>
       <c r="O26">
-        <v>50263400</v>
+        <v>19866300</v>
       </c>
       <c r="P26">
-        <v>758221723000</v>
+        <v>249775366000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1671448800000</v>
+        <v>1671444240000</v>
       </c>
       <c r="B27">
-        <v>5829800</v>
+        <v>2560400</v>
       </c>
       <c r="C27">
-        <v>4247100</v>
+        <v>1999100</v>
       </c>
       <c r="D27">
-        <v>29800</v>
+        <v>3000</v>
       </c>
       <c r="E27">
-        <v>100623523000</v>
+        <v>38270751000</v>
       </c>
       <c r="F27">
-        <v>82520119000</v>
+        <v>32733238000</v>
       </c>
       <c r="G27">
-        <v>427968000</v>
+        <v>43282000</v>
       </c>
       <c r="H27">
-        <v>10106700</v>
+        <v>4562500</v>
       </c>
       <c r="I27">
-        <v>183571610000</v>
+        <v>71047271000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-19T11:20:00.000Z</v>
+        <v>2022-12-19T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>6297710847000</v>
+        <v>2600258107000</v>
       </c>
       <c r="L27">
-        <v>357660800</v>
+        <v>152311800</v>
       </c>
       <c r="M27">
-        <v>-1582700</v>
+        <v>-561300</v>
       </c>
       <c r="N27">
-        <v>-18103404000</v>
+        <v>-5537513000</v>
       </c>
       <c r="O27">
-        <v>48680700</v>
+        <v>19305000</v>
       </c>
       <c r="P27">
-        <v>740118319000</v>
+        <v>244237853000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1671449100000</v>
+        <v>1671444360000</v>
       </c>
       <c r="B28">
-        <v>4245900</v>
+        <v>2340300</v>
       </c>
       <c r="C28">
-        <v>2844400</v>
+        <v>1324900</v>
       </c>
       <c r="D28">
-        <v>27700</v>
+        <v>46700</v>
       </c>
       <c r="E28">
-        <v>78135896000</v>
+        <v>41793141000</v>
       </c>
       <c r="F28">
-        <v>57406580000</v>
+        <v>22704509000</v>
       </c>
       <c r="G28">
-        <v>631043000</v>
+        <v>984605000</v>
       </c>
       <c r="H28">
-        <v>7118000</v>
+        <v>3711900</v>
       </c>
       <c r="I28">
-        <v>136173519000</v>
+        <v>65482255000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-19T11:25:00.000Z</v>
+        <v>2022-12-19T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>6433884366000</v>
+        <v>2665740362000</v>
       </c>
       <c r="L28">
-        <v>364778800</v>
+        <v>156023700</v>
       </c>
       <c r="M28">
-        <v>-1401500</v>
+        <v>-1015400</v>
       </c>
       <c r="N28">
-        <v>-20729316000</v>
+        <v>-19088632000</v>
       </c>
       <c r="O28">
-        <v>47279200</v>
+        <v>18289600</v>
       </c>
       <c r="P28">
-        <v>719389003000</v>
+        <v>225149221000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1671449400000</v>
+        <v>1671444480000</v>
       </c>
       <c r="B29">
-        <v>11400</v>
+        <v>1931000</v>
       </c>
       <c r="C29">
-        <v>21600</v>
+        <v>1273400</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>170070000</v>
+        <v>41143544000</v>
       </c>
       <c r="F29">
-        <v>426440000</v>
+        <v>25469892000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>788000</v>
       </c>
       <c r="H29">
-        <v>33000</v>
+        <v>3204500</v>
       </c>
       <c r="I29">
-        <v>596510000</v>
+        <v>66614224000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-19T11:30:00.000Z</v>
+        <v>2022-12-19T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>6434480876000</v>
+        <v>2732354586000</v>
       </c>
       <c r="L29">
-        <v>364811800</v>
+        <v>159228200</v>
       </c>
       <c r="M29">
-        <v>10200</v>
+        <v>-657600</v>
       </c>
       <c r="N29">
-        <v>256370000</v>
+        <v>-15673652000</v>
       </c>
       <c r="O29">
-        <v>47289400</v>
+        <v>17632000</v>
       </c>
       <c r="P29">
-        <v>719645373000</v>
+        <v>209475569000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1671454800000</v>
+        <v>1671444600000</v>
       </c>
       <c r="B30">
-        <v>17951200</v>
+        <v>1873000</v>
       </c>
       <c r="C30">
-        <v>7156000</v>
+        <v>1640500</v>
       </c>
       <c r="D30">
-        <v>800200</v>
+        <v>19700</v>
       </c>
       <c r="E30">
-        <v>327953656000</v>
+        <v>35025778000</v>
       </c>
       <c r="F30">
-        <v>121236587000</v>
+        <v>29128845000</v>
       </c>
       <c r="G30">
-        <v>8606927000</v>
+        <v>256074000</v>
       </c>
       <c r="H30">
-        <v>25907400</v>
+        <v>3533200</v>
       </c>
       <c r="I30">
-        <v>457797170000</v>
+        <v>64410697000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-19T13:00:00.000Z</v>
+        <v>2022-12-19T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>6892278046000</v>
+        <v>2796765283000</v>
       </c>
       <c r="L30">
-        <v>390719200</v>
+        <v>162761400</v>
       </c>
       <c r="M30">
-        <v>-10795200</v>
+        <v>-232500</v>
       </c>
       <c r="N30">
-        <v>-206717069000</v>
+        <v>-5896933000</v>
       </c>
       <c r="O30">
-        <v>36494200</v>
+        <v>17399500</v>
       </c>
       <c r="P30">
-        <v>512928304000</v>
+        <v>203578636000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1671455100000</v>
+        <v>1671444720000</v>
       </c>
       <c r="B31">
-        <v>14499800</v>
+        <v>1658100</v>
       </c>
       <c r="C31">
-        <v>5621800</v>
+        <v>1657700</v>
       </c>
       <c r="D31">
-        <v>118900</v>
+        <v>14600</v>
       </c>
       <c r="E31">
-        <v>264931074000</v>
+        <v>28894274000</v>
       </c>
       <c r="F31">
-        <v>97750594000</v>
+        <v>32806775000</v>
       </c>
       <c r="G31">
-        <v>1607867000</v>
+        <v>247410000.00000003</v>
       </c>
       <c r="H31">
-        <v>20240500</v>
+        <v>3330400</v>
       </c>
       <c r="I31">
-        <v>364289535000</v>
+        <v>61948459000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-19T13:05:00.000Z</v>
+        <v>2022-12-19T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>7256567581000</v>
+        <v>2858713742000</v>
       </c>
       <c r="L31">
-        <v>410959700</v>
+        <v>166091800</v>
       </c>
       <c r="M31">
-        <v>-8878000</v>
+        <v>-400</v>
       </c>
       <c r="N31">
-        <v>-167180480000</v>
+        <v>3912501000</v>
       </c>
       <c r="O31">
-        <v>27616200</v>
+        <v>17399100</v>
       </c>
       <c r="P31">
-        <v>345747824000</v>
+        <v>207491137000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1671455400000</v>
+        <v>1671444840000</v>
       </c>
       <c r="B32">
-        <v>11603200</v>
+        <v>1258800</v>
       </c>
       <c r="C32">
-        <v>6788000</v>
+        <v>2637200</v>
       </c>
       <c r="D32">
-        <v>49200</v>
+        <v>2300</v>
       </c>
       <c r="E32">
-        <v>209166594000</v>
+        <v>24456666000</v>
       </c>
       <c r="F32">
-        <v>112383071000</v>
+        <v>47522250000</v>
       </c>
       <c r="G32">
-        <v>637104000</v>
+        <v>48480000</v>
       </c>
       <c r="H32">
-        <v>18440400</v>
+        <v>3898300</v>
       </c>
       <c r="I32">
-        <v>322186769000</v>
+        <v>72027396000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-19T13:10:00.000Z</v>
+        <v>2022-12-19T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>7578754350000</v>
+        <v>2930741138000</v>
       </c>
       <c r="L32">
-        <v>429400100</v>
+        <v>169990100</v>
       </c>
       <c r="M32">
-        <v>-4815200</v>
+        <v>1378400</v>
       </c>
       <c r="N32">
-        <v>-96783523000</v>
+        <v>23065584000</v>
       </c>
       <c r="O32">
-        <v>22801000</v>
+        <v>18777500</v>
       </c>
       <c r="P32">
-        <v>248964301000</v>
+        <v>230556721000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1671455700000</v>
+        <v>1671444960000</v>
       </c>
       <c r="B33">
-        <v>5074500</v>
+        <v>1230300</v>
       </c>
       <c r="C33">
-        <v>10027100</v>
+        <v>4890300</v>
       </c>
       <c r="D33">
-        <v>75000</v>
+        <v>4100</v>
       </c>
       <c r="E33">
-        <v>84771960000</v>
+        <v>19621772000</v>
       </c>
       <c r="F33">
-        <v>166230515000</v>
+        <v>91224730000</v>
       </c>
       <c r="G33">
-        <v>980174000</v>
+        <v>104983000</v>
       </c>
       <c r="H33">
-        <v>15176600</v>
+        <v>6124700</v>
       </c>
       <c r="I33">
-        <v>251982649000</v>
+        <v>110951485000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-19T13:15:00.000Z</v>
+        <v>2022-12-19T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>7830736999000</v>
+        <v>3041692623000</v>
       </c>
       <c r="L33">
-        <v>444576700</v>
+        <v>176114800</v>
       </c>
       <c r="M33">
-        <v>4952600</v>
+        <v>3660000</v>
       </c>
       <c r="N33">
-        <v>81458555000</v>
+        <v>71602958000</v>
       </c>
       <c r="O33">
-        <v>27753600</v>
+        <v>22437500</v>
       </c>
       <c r="P33">
-        <v>330422856000</v>
+        <v>302159679000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1671456000000</v>
+        <v>1671445080000</v>
       </c>
       <c r="B34">
-        <v>8231800</v>
+        <v>1309900</v>
       </c>
       <c r="C34">
-        <v>4105600</v>
+        <v>9495900</v>
       </c>
       <c r="D34">
-        <v>38400</v>
+        <v>67500</v>
       </c>
       <c r="E34">
-        <v>152089708000</v>
+        <v>23924798000</v>
       </c>
       <c r="F34">
-        <v>65119291000</v>
+        <v>155884887000</v>
       </c>
       <c r="G34">
-        <v>634481000</v>
+        <v>679109000</v>
       </c>
       <c r="H34">
-        <v>12375800</v>
+        <v>10873300</v>
       </c>
       <c r="I34">
-        <v>217843480000</v>
+        <v>180488794000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-19T13:20:00.000Z</v>
+        <v>2022-12-19T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>8048580479000</v>
+        <v>3222181417000</v>
       </c>
       <c r="L34">
-        <v>456952500</v>
+        <v>186988100</v>
       </c>
       <c r="M34">
-        <v>-4126200</v>
+        <v>8186000</v>
       </c>
       <c r="N34">
-        <v>-86970417000</v>
+        <v>131960089000</v>
       </c>
       <c r="O34">
-        <v>23627400</v>
+        <v>30623500</v>
       </c>
       <c r="P34">
-        <v>243452439000</v>
+        <v>434119768000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1671456300000</v>
+        <v>1671445200000</v>
       </c>
       <c r="B35">
-        <v>8165800</v>
+        <v>2789000</v>
       </c>
       <c r="C35">
-        <v>3415400</v>
+        <v>6544500</v>
       </c>
       <c r="D35">
-        <v>28200</v>
+        <v>3600</v>
       </c>
       <c r="E35">
-        <v>133139020000</v>
+        <v>45854363000</v>
       </c>
       <c r="F35">
-        <v>60372640000</v>
+        <v>106150390000</v>
       </c>
       <c r="G35">
-        <v>551038000</v>
+        <v>156588000</v>
       </c>
       <c r="H35">
-        <v>11609400</v>
+        <v>9337100</v>
       </c>
       <c r="I35">
-        <v>194062698000</v>
+        <v>152161341000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-19T13:25:00.000Z</v>
+        <v>2022-12-19T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>8242643177000</v>
+        <v>3374342758000</v>
       </c>
       <c r="L35">
-        <v>468561900</v>
+        <v>196325200</v>
       </c>
       <c r="M35">
-        <v>-4750400</v>
+        <v>3755500</v>
       </c>
       <c r="N35">
-        <v>-72766380000</v>
+        <v>60296027000</v>
       </c>
       <c r="O35">
-        <v>18877000</v>
+        <v>34379000</v>
       </c>
       <c r="P35">
-        <v>170686059000</v>
+        <v>494415795000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1671456600000</v>
+        <v>1671445320000</v>
       </c>
       <c r="B36">
-        <v>6019500</v>
+        <v>2184600</v>
       </c>
       <c r="C36">
-        <v>5482200</v>
+        <v>3818900</v>
       </c>
       <c r="D36">
-        <v>94100</v>
+        <v>27600</v>
       </c>
       <c r="E36">
-        <v>94742207000</v>
+        <v>38711429000</v>
       </c>
       <c r="F36">
-        <v>104642348000</v>
+        <v>63967991000</v>
       </c>
       <c r="G36">
-        <v>1160765000</v>
+        <v>326126000</v>
       </c>
       <c r="H36">
-        <v>11595800</v>
+        <v>6031100</v>
       </c>
       <c r="I36">
-        <v>200545320000</v>
+        <v>103005546000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-19T13:30:00.000Z</v>
+        <v>2022-12-19T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>8443188497000</v>
+        <v>3477348304000</v>
       </c>
       <c r="L36">
-        <v>480157700</v>
+        <v>202356300</v>
       </c>
       <c r="M36">
-        <v>-537300</v>
+        <v>1634300</v>
       </c>
       <c r="N36">
-        <v>9900141000</v>
+        <v>25256562000</v>
       </c>
       <c r="O36">
-        <v>18339700</v>
+        <v>36013300</v>
       </c>
       <c r="P36">
-        <v>180586200000</v>
+        <v>519672357000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1671456900000</v>
+        <v>1671445440000</v>
       </c>
       <c r="B37">
-        <v>3574600</v>
+        <v>2178300</v>
       </c>
       <c r="C37">
-        <v>7750600</v>
+        <v>2543700</v>
       </c>
       <c r="D37">
-        <v>16500</v>
+        <v>2500</v>
       </c>
       <c r="E37">
-        <v>65514190000</v>
+        <v>35163025000</v>
       </c>
       <c r="F37">
-        <v>140841175000</v>
+        <v>41258238000</v>
       </c>
       <c r="G37">
-        <v>250507000</v>
+        <v>27760000</v>
       </c>
       <c r="H37">
-        <v>11341700</v>
+        <v>4724500</v>
       </c>
       <c r="I37">
-        <v>206605872000</v>
+        <v>76449023000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-19T13:35:00.000Z</v>
+        <v>2022-12-19T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>8649794369000</v>
+        <v>3553797327000</v>
       </c>
       <c r="L37">
-        <v>491499400</v>
+        <v>207080800</v>
       </c>
       <c r="M37">
-        <v>4176000</v>
+        <v>365400</v>
       </c>
       <c r="N37">
-        <v>75326985000</v>
+        <v>6095213000</v>
       </c>
       <c r="O37">
-        <v>22515700</v>
+        <v>36378700</v>
       </c>
       <c r="P37">
-        <v>255913185000</v>
+        <v>525767570000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1671457200000</v>
+        <v>1671445560000</v>
       </c>
       <c r="B38">
-        <v>7472600</v>
+        <v>3118900</v>
       </c>
       <c r="C38">
-        <v>7100100</v>
+        <v>2239700</v>
       </c>
       <c r="D38">
-        <v>39500</v>
+        <v>9800</v>
       </c>
       <c r="E38">
-        <v>129206218000</v>
+        <v>56570685000</v>
       </c>
       <c r="F38">
-        <v>108134818000</v>
+        <v>39691677000</v>
       </c>
       <c r="G38">
-        <v>759862000</v>
+        <v>170085000</v>
       </c>
       <c r="H38">
-        <v>14612200</v>
+        <v>5368400</v>
       </c>
       <c r="I38">
-        <v>238100898000</v>
+        <v>96432447000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-19T13:40:00.000Z</v>
+        <v>2022-12-19T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>8887895267000</v>
+        <v>3650229774000</v>
       </c>
       <c r="L38">
-        <v>506111600</v>
+        <v>212449200</v>
       </c>
       <c r="M38">
-        <v>-372500</v>
+        <v>-879200</v>
       </c>
       <c r="N38">
-        <v>-21071400000</v>
+        <v>-16879008000</v>
       </c>
       <c r="O38">
-        <v>22143200</v>
+        <v>35499500</v>
       </c>
       <c r="P38">
-        <v>234841785000</v>
+        <v>508888562000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1671457500000</v>
+        <v>1671445680000</v>
       </c>
       <c r="B39">
-        <v>12353000</v>
+        <v>2896300</v>
       </c>
       <c r="C39">
-        <v>4753300</v>
+        <v>2490500</v>
       </c>
       <c r="D39">
-        <v>170100</v>
+        <v>16400</v>
       </c>
       <c r="E39">
-        <v>214174145000</v>
+        <v>51427458000</v>
       </c>
       <c r="F39">
-        <v>76939564000</v>
+        <v>42795820000</v>
       </c>
       <c r="G39">
-        <v>814784000</v>
+        <v>583499000</v>
       </c>
       <c r="H39">
-        <v>17276400</v>
+        <v>5403200</v>
       </c>
       <c r="I39">
-        <v>291928493000</v>
+        <v>94806777000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-19T13:45:00.000Z</v>
+        <v>2022-12-19T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>9179823760000</v>
+        <v>3745036551000</v>
       </c>
       <c r="L39">
-        <v>523388000</v>
+        <v>217852400</v>
       </c>
       <c r="M39">
-        <v>-7599700</v>
+        <v>-405800</v>
       </c>
       <c r="N39">
-        <v>-137234581000</v>
+        <v>-8631638000</v>
       </c>
       <c r="O39">
-        <v>14543500</v>
+        <v>35093700</v>
       </c>
       <c r="P39">
-        <v>97607204000</v>
+        <v>500256924000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671457800000</v>
+        <v>1671445800000</v>
       </c>
       <c r="B40">
-        <v>24926300</v>
+        <v>2079000</v>
       </c>
       <c r="C40">
-        <v>4375800</v>
+        <v>1850500</v>
       </c>
       <c r="D40">
-        <v>100900</v>
+        <v>2500</v>
       </c>
       <c r="E40">
-        <v>410997521000</v>
+        <v>40058915000</v>
       </c>
       <c r="F40">
-        <v>77069559000</v>
+        <v>26689130000</v>
       </c>
       <c r="G40">
-        <v>1859234000</v>
+        <v>85903000</v>
       </c>
       <c r="H40">
-        <v>29403000</v>
+        <v>3932000</v>
       </c>
       <c r="I40">
-        <v>489926314000</v>
+        <v>66833948000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-19T13:50:00.000Z</v>
+        <v>2022-12-19T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>9669750074000</v>
+        <v>3811870499000</v>
       </c>
       <c r="L40">
-        <v>552791000</v>
+        <v>221784400</v>
       </c>
       <c r="M40">
-        <v>-20550500</v>
+        <v>-228500</v>
       </c>
       <c r="N40">
-        <v>-333927962000</v>
+        <v>-13369785000</v>
       </c>
       <c r="O40">
-        <v>-6007000</v>
+        <v>34865200</v>
       </c>
       <c r="P40">
-        <v>-236320758000</v>
+        <v>486887139000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1671458100000</v>
+        <v>1671445920000</v>
       </c>
       <c r="B41">
-        <v>12418000</v>
+        <v>1822200</v>
       </c>
       <c r="C41">
-        <v>6563000</v>
+        <v>2248500</v>
       </c>
       <c r="D41">
-        <v>165200</v>
+        <v>7600</v>
       </c>
       <c r="E41">
-        <v>212161054000</v>
+        <v>32542490000</v>
       </c>
       <c r="F41">
-        <v>108785547000</v>
+        <v>45302779000</v>
       </c>
       <c r="G41">
-        <v>2440918000</v>
+        <v>82108000</v>
       </c>
       <c r="H41">
-        <v>19146200</v>
+        <v>4078300</v>
       </c>
       <c r="I41">
-        <v>323387519000</v>
+        <v>77927377000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-19T13:55:00.000Z</v>
+        <v>2022-12-19T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>9993137593000</v>
+        <v>3889797876000</v>
       </c>
       <c r="L41">
-        <v>571937200</v>
+        <v>225862700</v>
       </c>
       <c r="M41">
-        <v>-5855000</v>
+        <v>426300</v>
       </c>
       <c r="N41">
-        <v>-103375507000</v>
+        <v>12760289000</v>
       </c>
       <c r="O41">
-        <v>-11862000</v>
+        <v>35291500</v>
       </c>
       <c r="P41">
-        <v>-339696265000</v>
+        <v>499647428000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1671458400000</v>
+        <v>1671446040000</v>
       </c>
       <c r="B42">
-        <v>5093900</v>
+        <v>1901100</v>
       </c>
       <c r="C42">
-        <v>7862000</v>
+        <v>1651800</v>
       </c>
       <c r="D42">
-        <v>42700</v>
+        <v>15000</v>
       </c>
       <c r="E42">
-        <v>96724624000</v>
+        <v>43581785000</v>
       </c>
       <c r="F42">
-        <v>133871545000</v>
+        <v>31072001000</v>
       </c>
       <c r="G42">
-        <v>757448000</v>
+        <v>456504000</v>
       </c>
       <c r="H42">
-        <v>12998600</v>
+        <v>3567900</v>
       </c>
       <c r="I42">
-        <v>231353617000</v>
+        <v>75110290000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-19T14:00:00.000Z</v>
+        <v>2022-12-19T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>10224491210000</v>
+        <v>3964908166000</v>
       </c>
       <c r="L42">
-        <v>584935800</v>
+        <v>229430600</v>
       </c>
       <c r="M42">
-        <v>2768100</v>
+        <v>-249300</v>
       </c>
       <c r="N42">
-        <v>37146921000</v>
+        <v>-12509784000</v>
       </c>
       <c r="O42">
-        <v>-9093900</v>
+        <v>35042200</v>
       </c>
       <c r="P42">
-        <v>-302549344000</v>
+        <v>487137644000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1671458700000</v>
+        <v>1671446160000</v>
       </c>
       <c r="B43">
-        <v>21345300</v>
+        <v>2564400</v>
       </c>
       <c r="C43">
-        <v>3519700</v>
+        <v>1430800</v>
       </c>
       <c r="D43">
-        <v>119400</v>
+        <v>38900</v>
       </c>
       <c r="E43">
-        <v>373297917000</v>
+        <v>54353413000</v>
       </c>
       <c r="F43">
-        <v>64070947000</v>
+        <v>23580398000</v>
       </c>
       <c r="G43">
-        <v>2438252000</v>
+        <v>968390000</v>
       </c>
       <c r="H43">
-        <v>24984400</v>
+        <v>4034100</v>
       </c>
       <c r="I43">
-        <v>439807116000</v>
+        <v>78902201000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-19T14:05:00.000Z</v>
+        <v>2022-12-19T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>10664298326000</v>
+        <v>4043810367000</v>
       </c>
       <c r="L43">
-        <v>609920200</v>
+        <v>233464700</v>
       </c>
       <c r="M43">
-        <v>-17825600</v>
+        <v>-1133600</v>
       </c>
       <c r="N43">
-        <v>-309226970000</v>
+        <v>-30773015000</v>
       </c>
       <c r="O43">
-        <v>-26919500</v>
+        <v>33908600</v>
       </c>
       <c r="P43">
-        <v>-611776314000</v>
+        <v>456364629000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1671459000000</v>
+        <v>1671446280000</v>
       </c>
       <c r="B44">
-        <v>12923800</v>
+        <v>1881800</v>
       </c>
       <c r="C44">
-        <v>10945100</v>
+        <v>2039100</v>
       </c>
       <c r="D44">
-        <v>293100</v>
+        <v>55300</v>
       </c>
       <c r="E44">
-        <v>205399714000</v>
+        <v>38856637000</v>
       </c>
       <c r="F44">
-        <v>192483506000</v>
+        <v>37895114000</v>
       </c>
       <c r="G44">
-        <v>3810788000</v>
+        <v>1025926000</v>
       </c>
       <c r="H44">
-        <v>24162000</v>
+        <v>3976200</v>
       </c>
       <c r="I44">
-        <v>401694008000</v>
+        <v>77777677000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-19T14:10:00.000Z</v>
+        <v>2022-12-19T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>11065992334000</v>
+        <v>4121588044000</v>
       </c>
       <c r="L44">
-        <v>634082200</v>
+        <v>237440900</v>
       </c>
       <c r="M44">
-        <v>-1978700</v>
+        <v>157300</v>
       </c>
       <c r="N44">
-        <v>-12916208000</v>
+        <v>-961523000</v>
       </c>
       <c r="O44">
-        <v>-28898200</v>
+        <v>34065900</v>
       </c>
       <c r="P44">
-        <v>-624692522000</v>
+        <v>455403106000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1671459300000</v>
+        <v>1671446400000</v>
       </c>
       <c r="B45">
-        <v>8447000</v>
+        <v>1830000</v>
       </c>
       <c r="C45">
-        <v>6139600</v>
+        <v>1411100</v>
       </c>
       <c r="D45">
-        <v>40000</v>
+        <v>5900</v>
       </c>
       <c r="E45">
-        <v>145476449000</v>
+        <v>30521060000</v>
       </c>
       <c r="F45">
-        <v>107940932000</v>
+        <v>24198722000</v>
       </c>
       <c r="G45">
-        <v>1005088000</v>
+        <v>124986000</v>
       </c>
       <c r="H45">
-        <v>14626600</v>
+        <v>3247000</v>
       </c>
       <c r="I45">
-        <v>254422469000</v>
+        <v>54844768000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-19T14:15:00.000Z</v>
+        <v>2022-12-19T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>11320414803000</v>
+        <v>4176432812000</v>
       </c>
       <c r="L45">
-        <v>648708800</v>
+        <v>240687900</v>
       </c>
       <c r="M45">
-        <v>-2307400</v>
+        <v>-418900</v>
       </c>
       <c r="N45">
-        <v>-37535517000</v>
+        <v>-6322338000</v>
       </c>
       <c r="O45">
-        <v>-31205600</v>
+        <v>33647000</v>
       </c>
       <c r="P45">
-        <v>-662228039000</v>
+        <v>449080768000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1671459600000</v>
+        <v>1671446520000</v>
       </c>
       <c r="B46">
-        <v>23018100</v>
+        <v>1505900</v>
       </c>
       <c r="C46">
-        <v>5856700</v>
+        <v>2932400</v>
       </c>
       <c r="D46">
-        <v>238200</v>
+        <v>18800</v>
       </c>
       <c r="E46">
-        <v>388182242000</v>
+        <v>25933973000</v>
       </c>
       <c r="F46">
-        <v>105753499000</v>
+        <v>67149348000</v>
       </c>
       <c r="G46">
-        <v>4553012000</v>
+        <v>185025000</v>
       </c>
       <c r="H46">
-        <v>29113000</v>
+        <v>4457100</v>
       </c>
       <c r="I46">
-        <v>498488753000</v>
+        <v>93268346000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-19T14:20:00.000Z</v>
+        <v>2022-12-19T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>11818903556000</v>
+        <v>4269701158000</v>
       </c>
       <c r="L46">
-        <v>677821800</v>
+        <v>245145000</v>
       </c>
       <c r="M46">
-        <v>-17161400</v>
+        <v>1426500</v>
       </c>
       <c r="N46">
-        <v>-282428743000</v>
+        <v>41215375000</v>
       </c>
       <c r="O46">
-        <v>-48367000</v>
+        <v>35073500</v>
       </c>
       <c r="P46">
-        <v>-944656782000</v>
+        <v>490296143000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1671459900000</v>
+        <v>1671446640000</v>
       </c>
       <c r="B47">
-        <v>37852100</v>
+        <v>1128600</v>
       </c>
       <c r="C47">
-        <v>15093300</v>
+        <v>3172500</v>
       </c>
       <c r="D47">
-        <v>585600</v>
+        <v>6300</v>
       </c>
       <c r="E47">
-        <v>621260054000</v>
+        <v>21639353000</v>
       </c>
       <c r="F47">
-        <v>250559276000</v>
+        <v>62478632000</v>
       </c>
       <c r="G47">
-        <v>8974789000</v>
+        <v>67816000</v>
       </c>
       <c r="H47">
-        <v>53531000</v>
+        <v>4307400</v>
       </c>
       <c r="I47">
-        <v>880794119000</v>
+        <v>84185801000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-19T14:25:00.000Z</v>
+        <v>2022-12-19T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>12699697675000</v>
+        <v>4353886959000</v>
       </c>
       <c r="L47">
-        <v>731352800</v>
+        <v>249452400</v>
       </c>
       <c r="M47">
-        <v>-22758800</v>
+        <v>2043900</v>
       </c>
       <c r="N47">
-        <v>-370700778000</v>
+        <v>40839279000</v>
       </c>
       <c r="O47">
-        <v>-71125800</v>
+        <v>37117400</v>
       </c>
       <c r="P47">
-        <v>-1315357560000</v>
+        <v>531135422000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1671460200000</v>
+        <v>1671446760000</v>
       </c>
       <c r="B48">
-        <v>17400</v>
+        <v>1162900</v>
       </c>
       <c r="C48">
-        <v>42300</v>
+        <v>8249500</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>96300</v>
       </c>
       <c r="E48">
-        <v>214820000</v>
+        <v>21451919000</v>
       </c>
       <c r="F48">
-        <v>516018000</v>
+        <v>151289621000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1801775000</v>
       </c>
       <c r="H48">
-        <v>59700</v>
+        <v>9508700</v>
       </c>
       <c r="I48">
-        <v>730838000</v>
+        <v>174543315000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-19T14:30:00.000Z</v>
+        <v>2022-12-19T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>12700428513000</v>
+        <v>4528430274000</v>
       </c>
       <c r="L48">
-        <v>731412500</v>
+        <v>258961100</v>
       </c>
       <c r="M48">
-        <v>24900</v>
+        <v>7086600</v>
       </c>
       <c r="N48">
-        <v>301198000</v>
+        <v>129837702000</v>
       </c>
       <c r="O48">
-        <v>-71100900</v>
+        <v>44204000</v>
       </c>
       <c r="P48">
-        <v>-1315056362000</v>
+        <v>660973124000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1671460500000</v>
+        <v>1671446880000</v>
       </c>
       <c r="B49">
-        <v>900</v>
+        <v>1715000</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>9140800</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>294100</v>
       </c>
       <c r="E49">
-        <v>9090000</v>
+        <v>33938842000</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>175236628000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>6126649000</v>
       </c>
       <c r="H49">
-        <v>900</v>
+        <v>11149900</v>
       </c>
       <c r="I49">
-        <v>9090000</v>
+        <v>215302119000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-19T14:35:00.000Z</v>
+        <v>2022-12-19T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>12700437603000</v>
+        <v>4743732393000</v>
       </c>
       <c r="L49">
-        <v>731413400</v>
+        <v>270111000</v>
       </c>
       <c r="M49">
-        <v>-900</v>
+        <v>7425800</v>
       </c>
       <c r="N49">
-        <v>-9090000</v>
+        <v>141297786000</v>
       </c>
       <c r="O49">
-        <v>-71101800</v>
+        <v>51629800</v>
       </c>
       <c r="P49">
-        <v>-1315065452000</v>
+        <v>802270910000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1671461100000</v>
+        <v>1671447000000</v>
       </c>
       <c r="B50">
-        <v>23677000</v>
+        <v>2043000</v>
       </c>
       <c r="C50">
-        <v>17127100</v>
+        <v>8910500</v>
       </c>
       <c r="D50">
-        <v>32330600</v>
+        <v>59100</v>
       </c>
       <c r="E50">
-        <v>424093014000</v>
+        <v>33331341000</v>
       </c>
       <c r="F50">
-        <v>302783019000</v>
+        <v>161267344000</v>
       </c>
       <c r="G50">
-        <v>542408630000</v>
+        <v>1943193000</v>
       </c>
       <c r="H50">
-        <v>73134700</v>
+        <v>11012600</v>
       </c>
       <c r="I50">
-        <v>1269284663000</v>
+        <v>196541878000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-19T14:45:00.000Z</v>
+        <v>2022-12-19T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>13969722266000</v>
+        <v>4940274271000</v>
       </c>
       <c r="L50">
-        <v>804548100</v>
+        <v>281123600</v>
       </c>
       <c r="M50">
-        <v>-6549900</v>
+        <v>6867500</v>
       </c>
       <c r="N50">
-        <v>-121309995000</v>
+        <v>127936003000</v>
       </c>
       <c r="O50">
-        <v>-77651700</v>
+        <v>58497300</v>
       </c>
       <c r="P50">
-        <v>-1436375447000</v>
+        <v>930206913000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1671461400000</v>
+        <v>1671447120000</v>
       </c>
       <c r="B51">
-        <v>1000</v>
+        <v>2888900</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>6509700</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>42900</v>
       </c>
       <c r="E51">
-        <v>10100000</v>
+        <v>56549254000</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>107340231000</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>677695000</v>
       </c>
       <c r="H51">
-        <v>1000</v>
+        <v>9441500</v>
       </c>
       <c r="I51">
-        <v>10100000</v>
+        <v>164567180000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-19T14:50:00.000Z</v>
+        <v>2022-12-19T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>13969732366000</v>
+        <v>5104841451000</v>
       </c>
       <c r="L51">
-        <v>804549100</v>
+        <v>290565100</v>
       </c>
       <c r="M51">
-        <v>-1000</v>
+        <v>3620800</v>
       </c>
       <c r="N51">
-        <v>-10100000</v>
+        <v>50790977000</v>
       </c>
       <c r="O51">
-        <v>-77652700</v>
+        <v>62118100</v>
       </c>
       <c r="P51">
-        <v>-1436385547000</v>
+        <v>980997890000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1671461700000</v>
+        <v>1671447240000</v>
       </c>
       <c r="B52">
+        <v>3815900</v>
+      </c>
+      <c r="C52">
+        <v>3509600</v>
+      </c>
+      <c r="D52">
+        <v>118600</v>
+      </c>
+      <c r="E52">
+        <v>69732634000</v>
+      </c>
+      <c r="F52">
+        <v>57072864000</v>
+      </c>
+      <c r="G52">
+        <v>2215265000</v>
+      </c>
+      <c r="H52">
+        <v>7444100</v>
+      </c>
+      <c r="I52">
+        <v>129020763000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2022-12-19T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>5233862214000</v>
+      </c>
+      <c r="L52">
+        <v>298009200</v>
+      </c>
+      <c r="M52">
+        <v>-306300</v>
+      </c>
+      <c r="N52">
+        <v>-12659770000</v>
+      </c>
+      <c r="O52">
+        <v>61811800</v>
+      </c>
+      <c r="P52">
+        <v>968338120000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1671447360000</v>
+      </c>
+      <c r="B53">
+        <v>3503600</v>
+      </c>
+      <c r="C53">
+        <v>2400100</v>
+      </c>
+      <c r="D53">
+        <v>6900</v>
+      </c>
+      <c r="E53">
+        <v>61815322000</v>
+      </c>
+      <c r="F53">
+        <v>39573633000</v>
+      </c>
+      <c r="G53">
+        <v>226120000</v>
+      </c>
+      <c r="H53">
+        <v>5910600</v>
+      </c>
+      <c r="I53">
+        <v>101615075000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-19T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>5335477289000</v>
+      </c>
+      <c r="L53">
+        <v>303919800</v>
+      </c>
+      <c r="M53">
+        <v>-1103500</v>
+      </c>
+      <c r="N53">
+        <v>-22241689000</v>
+      </c>
+      <c r="O53">
+        <v>60708300</v>
+      </c>
+      <c r="P53">
+        <v>946096431000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1671447480000</v>
+      </c>
+      <c r="B54">
+        <v>3112100</v>
+      </c>
+      <c r="C54">
+        <v>2166900</v>
+      </c>
+      <c r="D54">
+        <v>37900</v>
+      </c>
+      <c r="E54">
+        <v>54007659000</v>
+      </c>
+      <c r="F54">
+        <v>36562389000</v>
+      </c>
+      <c r="G54">
+        <v>370430000</v>
+      </c>
+      <c r="H54">
+        <v>5316900</v>
+      </c>
+      <c r="I54">
+        <v>90940478000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-19T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>5426417767000</v>
+      </c>
+      <c r="L54">
+        <v>309236700</v>
+      </c>
+      <c r="M54">
+        <v>-945200</v>
+      </c>
+      <c r="N54">
+        <v>-17445270000</v>
+      </c>
+      <c r="O54">
+        <v>59763100</v>
+      </c>
+      <c r="P54">
+        <v>928651161000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1671447600000</v>
+      </c>
+      <c r="B55">
+        <v>2320500</v>
+      </c>
+      <c r="C55">
+        <v>1886600</v>
+      </c>
+      <c r="D55">
+        <v>21500</v>
+      </c>
+      <c r="E55">
+        <v>40972728000</v>
+      </c>
+      <c r="F55">
+        <v>32647295000</v>
+      </c>
+      <c r="G55">
+        <v>573801000</v>
+      </c>
+      <c r="H55">
+        <v>4228600</v>
+      </c>
+      <c r="I55">
+        <v>74193824000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-19T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>5500611591000</v>
+      </c>
+      <c r="L55">
+        <v>313465300</v>
+      </c>
+      <c r="M55">
+        <v>-433900</v>
+      </c>
+      <c r="N55">
+        <v>-8325433000</v>
+      </c>
+      <c r="O55">
+        <v>59329200</v>
+      </c>
+      <c r="P55">
+        <v>920325728000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1671447720000</v>
+      </c>
+      <c r="B56">
+        <v>2116800</v>
+      </c>
+      <c r="C56">
+        <v>2450700</v>
+      </c>
+      <c r="D56">
+        <v>13700</v>
+      </c>
+      <c r="E56">
+        <v>38843481000</v>
+      </c>
+      <c r="F56">
+        <v>48213019000</v>
+      </c>
+      <c r="G56">
+        <v>338558000</v>
+      </c>
+      <c r="H56">
+        <v>4581200</v>
+      </c>
+      <c r="I56">
+        <v>87395058000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-19T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>5588006649000</v>
+      </c>
+      <c r="L56">
+        <v>318046500</v>
+      </c>
+      <c r="M56">
+        <v>333900</v>
+      </c>
+      <c r="N56">
+        <v>9369538000</v>
+      </c>
+      <c r="O56">
+        <v>59663100</v>
+      </c>
+      <c r="P56">
+        <v>929695266000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1671447840000</v>
+      </c>
+      <c r="B57">
+        <v>1475300</v>
+      </c>
+      <c r="C57">
+        <v>2102800</v>
+      </c>
+      <c r="D57">
+        <v>1000</v>
+      </c>
+      <c r="E57">
+        <v>29181479000</v>
+      </c>
+      <c r="F57">
+        <v>33189084000</v>
+      </c>
+      <c r="G57">
+        <v>19250000</v>
+      </c>
+      <c r="H57">
+        <v>3579100</v>
+      </c>
+      <c r="I57">
+        <v>62389813000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-19T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>5650396462000</v>
+      </c>
+      <c r="L57">
+        <v>321625600</v>
+      </c>
+      <c r="M57">
+        <v>627500</v>
+      </c>
+      <c r="N57">
+        <v>4007605000</v>
+      </c>
+      <c r="O57">
+        <v>60290600</v>
+      </c>
+      <c r="P57">
+        <v>933702871000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1671447960000</v>
+      </c>
+      <c r="B58">
+        <v>1774000</v>
+      </c>
+      <c r="C58">
+        <v>1735900</v>
+      </c>
+      <c r="D58">
+        <v>16200</v>
+      </c>
+      <c r="E58">
+        <v>33324306000</v>
+      </c>
+      <c r="F58">
+        <v>28246201000</v>
+      </c>
+      <c r="G58">
+        <v>150770000</v>
+      </c>
+      <c r="H58">
+        <v>3526100</v>
+      </c>
+      <c r="I58">
+        <v>61721277000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-19T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>5712117739000</v>
+      </c>
+      <c r="L58">
+        <v>325151700</v>
+      </c>
+      <c r="M58">
+        <v>-38100</v>
+      </c>
+      <c r="N58">
+        <v>-5078105000</v>
+      </c>
+      <c r="O58">
+        <v>60252500</v>
+      </c>
+      <c r="P58">
+        <v>928624766000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1671448080000</v>
+      </c>
+      <c r="B59">
+        <v>3130700</v>
+      </c>
+      <c r="C59">
+        <v>1369200</v>
+      </c>
+      <c r="D59">
+        <v>2500</v>
+      </c>
+      <c r="E59">
+        <v>51808051000</v>
+      </c>
+      <c r="F59">
+        <v>24169133000</v>
+      </c>
+      <c r="G59">
+        <v>26834000</v>
+      </c>
+      <c r="H59">
+        <v>4502400</v>
+      </c>
+      <c r="I59">
+        <v>76004018000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-19T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>5788121757000</v>
+      </c>
+      <c r="L59">
+        <v>329654100</v>
+      </c>
+      <c r="M59">
+        <v>-1761500</v>
+      </c>
+      <c r="N59">
+        <v>-27638918000</v>
+      </c>
+      <c r="O59">
+        <v>58491000</v>
+      </c>
+      <c r="P59">
+        <v>900985848000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1671448200000</v>
+      </c>
+      <c r="B60">
+        <v>2625800</v>
+      </c>
+      <c r="C60">
+        <v>980800</v>
+      </c>
+      <c r="D60">
+        <v>11100</v>
+      </c>
+      <c r="E60">
+        <v>45612376000</v>
+      </c>
+      <c r="F60">
+        <v>18611561000</v>
+      </c>
+      <c r="G60">
+        <v>217578000</v>
+      </c>
+      <c r="H60">
+        <v>3617700</v>
+      </c>
+      <c r="I60">
+        <v>64441515000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-19T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>5852563272000</v>
+      </c>
+      <c r="L60">
+        <v>333271800</v>
+      </c>
+      <c r="M60">
+        <v>-1645000</v>
+      </c>
+      <c r="N60">
+        <v>-27000815000</v>
+      </c>
+      <c r="O60">
+        <v>56846000</v>
+      </c>
+      <c r="P60">
+        <v>873985033000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1671448320000</v>
+      </c>
+      <c r="B61">
+        <v>2450300</v>
+      </c>
+      <c r="C61">
+        <v>912600</v>
+      </c>
+      <c r="D61">
+        <v>1200</v>
+      </c>
+      <c r="E61">
+        <v>49546388000</v>
+      </c>
+      <c r="F61">
+        <v>19710185000</v>
+      </c>
+      <c r="G61">
+        <v>40420000</v>
+      </c>
+      <c r="H61">
+        <v>3364100</v>
+      </c>
+      <c r="I61">
+        <v>69296993000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-19T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>5921860265000</v>
+      </c>
+      <c r="L61">
+        <v>336635900</v>
+      </c>
+      <c r="M61">
+        <v>-1537700</v>
+      </c>
+      <c r="N61">
+        <v>-29836203000</v>
+      </c>
+      <c r="O61">
+        <v>55308300</v>
+      </c>
+      <c r="P61">
+        <v>844148830000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1671448440000</v>
+      </c>
+      <c r="B62">
+        <v>2169100</v>
+      </c>
+      <c r="C62">
+        <v>1101800</v>
+      </c>
+      <c r="D62">
+        <v>4200</v>
+      </c>
+      <c r="E62">
+        <v>38846201000</v>
+      </c>
+      <c r="F62">
+        <v>19452511000</v>
+      </c>
+      <c r="G62">
+        <v>102175000</v>
+      </c>
+      <c r="H62">
+        <v>3275100</v>
+      </c>
+      <c r="I62">
+        <v>58400887000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-19T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>5980261152000</v>
+      </c>
+      <c r="L62">
+        <v>339911000</v>
+      </c>
+      <c r="M62">
+        <v>-1067300</v>
+      </c>
+      <c r="N62">
+        <v>-19393690000</v>
+      </c>
+      <c r="O62">
+        <v>54241000</v>
+      </c>
+      <c r="P62">
+        <v>824755140000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1671448560000</v>
+      </c>
+      <c r="B63">
+        <v>2467900</v>
+      </c>
+      <c r="C63">
+        <v>938200</v>
+      </c>
+      <c r="D63">
+        <v>21400</v>
+      </c>
+      <c r="E63">
+        <v>44026479000</v>
+      </c>
+      <c r="F63">
+        <v>18033280000</v>
+      </c>
+      <c r="G63">
+        <v>148530000</v>
+      </c>
+      <c r="H63">
+        <v>3427500</v>
+      </c>
+      <c r="I63">
+        <v>62208289000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-19T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>6042469441000</v>
+      </c>
+      <c r="L63">
+        <v>343338500</v>
+      </c>
+      <c r="M63">
+        <v>-1529700</v>
+      </c>
+      <c r="N63">
+        <v>-25993199000</v>
+      </c>
+      <c r="O63">
+        <v>52711300</v>
+      </c>
+      <c r="P63">
+        <v>798761941000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1671448680000</v>
+      </c>
+      <c r="B64">
+        <v>3329800</v>
+      </c>
+      <c r="C64">
+        <v>881900</v>
+      </c>
+      <c r="D64">
+        <v>3900</v>
+      </c>
+      <c r="E64">
+        <v>56021157000</v>
+      </c>
+      <c r="F64">
+        <v>15480939000</v>
+      </c>
+      <c r="G64">
+        <v>167700000</v>
+      </c>
+      <c r="H64">
+        <v>4215600</v>
+      </c>
+      <c r="I64">
+        <v>71669796000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-19T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>6114139237000</v>
+      </c>
+      <c r="L64">
+        <v>347554100</v>
+      </c>
+      <c r="M64">
+        <v>-2447900</v>
+      </c>
+      <c r="N64">
+        <v>-40540218000</v>
+      </c>
+      <c r="O64">
+        <v>50263400</v>
+      </c>
+      <c r="P64">
+        <v>758221723000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1671448800000</v>
+      </c>
+      <c r="B65">
+        <v>3038000</v>
+      </c>
+      <c r="C65">
+        <v>1335300</v>
+      </c>
+      <c r="D65">
+        <v>6400</v>
+      </c>
+      <c r="E65">
+        <v>50556284000</v>
+      </c>
+      <c r="F65">
+        <v>27201449000</v>
+      </c>
+      <c r="G65">
+        <v>68623000</v>
+      </c>
+      <c r="H65">
+        <v>4379700</v>
+      </c>
+      <c r="I65">
+        <v>77826356000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-19T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>6191965593000</v>
+      </c>
+      <c r="L65">
+        <v>351933800</v>
+      </c>
+      <c r="M65">
+        <v>-1702700</v>
+      </c>
+      <c r="N65">
+        <v>-23354835000</v>
+      </c>
+      <c r="O65">
+        <v>48560700</v>
+      </c>
+      <c r="P65">
+        <v>734866888000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1671448920000</v>
+      </c>
+      <c r="B66">
+        <v>2064200</v>
+      </c>
+      <c r="C66">
+        <v>1750500</v>
+      </c>
+      <c r="D66">
+        <v>18000</v>
+      </c>
+      <c r="E66">
+        <v>36386302000</v>
+      </c>
+      <c r="F66">
+        <v>35016837000</v>
+      </c>
+      <c r="G66">
+        <v>259958000</v>
+      </c>
+      <c r="H66">
+        <v>3832700</v>
+      </c>
+      <c r="I66">
+        <v>71663097000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-19T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>6263628690000</v>
+      </c>
+      <c r="L66">
+        <v>355766500</v>
+      </c>
+      <c r="M66">
+        <v>-313700</v>
+      </c>
+      <c r="N66">
+        <v>-1369465000</v>
+      </c>
+      <c r="O66">
+        <v>48247000</v>
+      </c>
+      <c r="P66">
+        <v>733497423000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1671449040000</v>
+      </c>
+      <c r="B67">
+        <v>1536400</v>
+      </c>
+      <c r="C67">
+        <v>1703600</v>
+      </c>
+      <c r="D67">
+        <v>14600</v>
+      </c>
+      <c r="E67">
+        <v>28606188000</v>
+      </c>
+      <c r="F67">
+        <v>32981945000</v>
+      </c>
+      <c r="G67">
+        <v>313052000</v>
+      </c>
+      <c r="H67">
+        <v>3254600</v>
+      </c>
+      <c r="I67">
+        <v>61901185000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-19T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>6325529875000</v>
+      </c>
+      <c r="L67">
+        <v>359021100</v>
+      </c>
+      <c r="M67">
+        <v>167200</v>
+      </c>
+      <c r="N67">
+        <v>4375757000</v>
+      </c>
+      <c r="O67">
+        <v>48414200</v>
+      </c>
+      <c r="P67">
+        <v>737873180000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1671449160000</v>
+      </c>
+      <c r="B68">
+        <v>2064300</v>
+      </c>
+      <c r="C68">
+        <v>1245400</v>
+      </c>
+      <c r="D68">
+        <v>1500</v>
+      </c>
+      <c r="E68">
+        <v>38982547000</v>
+      </c>
+      <c r="F68">
+        <v>21807485000</v>
+      </c>
+      <c r="G68">
+        <v>77738000</v>
+      </c>
+      <c r="H68">
+        <v>3311200</v>
+      </c>
+      <c r="I68">
+        <v>60867770000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-19T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>6386397645000</v>
+      </c>
+      <c r="L68">
+        <v>362332300</v>
+      </c>
+      <c r="M68">
+        <v>-818900</v>
+      </c>
+      <c r="N68">
+        <v>-17175062000</v>
+      </c>
+      <c r="O68">
+        <v>47595300</v>
+      </c>
+      <c r="P68">
+        <v>720698118000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1671449280000</v>
+      </c>
+      <c r="B69">
+        <v>1372800</v>
+      </c>
+      <c r="C69">
+        <v>1056700</v>
+      </c>
+      <c r="D69">
+        <v>17000</v>
+      </c>
+      <c r="E69">
+        <v>24228098000</v>
+      </c>
+      <c r="F69">
+        <v>22918983000</v>
+      </c>
+      <c r="G69">
+        <v>339640000</v>
+      </c>
+      <c r="H69">
+        <v>2446500</v>
+      </c>
+      <c r="I69">
+        <v>47486721000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-19T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>6433884366000</v>
+      </c>
+      <c r="L69">
+        <v>364778800</v>
+      </c>
+      <c r="M69">
+        <v>-316100</v>
+      </c>
+      <c r="N69">
+        <v>-1309115000</v>
+      </c>
+      <c r="O69">
+        <v>47279200</v>
+      </c>
+      <c r="P69">
+        <v>719389003000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1671449400000</v>
+      </c>
+      <c r="B70">
+        <v>11400</v>
+      </c>
+      <c r="C70">
+        <v>21600</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>170070000</v>
+      </c>
+      <c r="F70">
+        <v>426440000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>33000</v>
+      </c>
+      <c r="I70">
+        <v>596510000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-19T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>6434480876000</v>
+      </c>
+      <c r="L70">
+        <v>364811800</v>
+      </c>
+      <c r="M70">
+        <v>10200</v>
+      </c>
+      <c r="N70">
+        <v>256370000</v>
+      </c>
+      <c r="O70">
+        <v>47289400</v>
+      </c>
+      <c r="P70">
+        <v>719645373000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1671454800000</v>
+      </c>
+      <c r="B71">
+        <v>8178600</v>
+      </c>
+      <c r="C71">
+        <v>4512800</v>
+      </c>
+      <c r="D71">
+        <v>764600</v>
+      </c>
+      <c r="E71">
+        <v>148326749000</v>
+      </c>
+      <c r="F71">
+        <v>73969849000</v>
+      </c>
+      <c r="G71">
+        <v>7930758000</v>
+      </c>
+      <c r="H71">
+        <v>13456000</v>
+      </c>
+      <c r="I71">
+        <v>230227356000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-19T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>6664708232000</v>
+      </c>
+      <c r="L71">
+        <v>378267800</v>
+      </c>
+      <c r="M71">
+        <v>-3665800</v>
+      </c>
+      <c r="N71">
+        <v>-74356900000</v>
+      </c>
+      <c r="O71">
+        <v>43623600</v>
+      </c>
+      <c r="P71">
+        <v>645288473000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1671454920000</v>
+      </c>
+      <c r="B72">
+        <v>6702600</v>
+      </c>
+      <c r="C72">
+        <v>1862300</v>
+      </c>
+      <c r="D72">
+        <v>32500</v>
+      </c>
+      <c r="E72">
+        <v>117518128000</v>
+      </c>
+      <c r="F72">
+        <v>31719061000</v>
+      </c>
+      <c r="G72">
+        <v>552639000</v>
+      </c>
+      <c r="H72">
+        <v>8597400</v>
+      </c>
+      <c r="I72">
+        <v>149789828000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-19T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>6814498060000</v>
+      </c>
+      <c r="L72">
+        <v>386865200</v>
+      </c>
+      <c r="M72">
+        <v>-4840300</v>
+      </c>
+      <c r="N72">
+        <v>-85799067000</v>
+      </c>
+      <c r="O72">
+        <v>38783300</v>
+      </c>
+      <c r="P72">
+        <v>559489406000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1671455040000</v>
+      </c>
+      <c r="B73">
+        <v>5758900</v>
+      </c>
+      <c r="C73">
+        <v>1685500</v>
+      </c>
+      <c r="D73">
+        <v>26300</v>
+      </c>
+      <c r="E73">
+        <v>109857792000</v>
+      </c>
+      <c r="F73">
+        <v>30513126000</v>
+      </c>
+      <c r="G73">
+        <v>461937000</v>
+      </c>
+      <c r="H73">
+        <v>7470700</v>
+      </c>
+      <c r="I73">
+        <v>140832855000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-19T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>6955330915000</v>
+      </c>
+      <c r="L73">
+        <v>394335900</v>
+      </c>
+      <c r="M73">
+        <v>-4073400</v>
+      </c>
+      <c r="N73">
+        <v>-79344666000</v>
+      </c>
+      <c r="O73">
+        <v>34709900</v>
+      </c>
+      <c r="P73">
+        <v>480144740000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1671455160000</v>
+      </c>
+      <c r="B74">
+        <v>6049300</v>
+      </c>
+      <c r="C74">
+        <v>2429800</v>
+      </c>
+      <c r="D74">
+        <v>76600</v>
+      </c>
+      <c r="E74">
+        <v>110928218000</v>
+      </c>
+      <c r="F74">
+        <v>42775866000</v>
+      </c>
+      <c r="G74">
+        <v>861952000</v>
+      </c>
+      <c r="H74">
+        <v>8555700</v>
+      </c>
+      <c r="I74">
+        <v>154566036000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-19T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>7109896951000</v>
+      </c>
+      <c r="L74">
+        <v>402891600</v>
+      </c>
+      <c r="M74">
+        <v>-3619500</v>
+      </c>
+      <c r="N74">
+        <v>-68152352000</v>
+      </c>
+      <c r="O74">
+        <v>31090400</v>
+      </c>
+      <c r="P74">
+        <v>411992388000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1671455280000</v>
+      </c>
+      <c r="B75">
+        <v>5761600</v>
+      </c>
+      <c r="C75">
+        <v>2287400</v>
+      </c>
+      <c r="D75">
+        <v>19100</v>
+      </c>
+      <c r="E75">
+        <v>106253843000</v>
+      </c>
+      <c r="F75">
+        <v>40009279000</v>
+      </c>
+      <c r="G75">
+        <v>407508000</v>
+      </c>
+      <c r="H75">
+        <v>8068100</v>
+      </c>
+      <c r="I75">
+        <v>146670630000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-19T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>7256567581000</v>
+      </c>
+      <c r="L75">
+        <v>410959700</v>
+      </c>
+      <c r="M75">
+        <v>-3474200</v>
+      </c>
+      <c r="N75">
+        <v>-66244564000</v>
+      </c>
+      <c r="O75">
+        <v>27616200</v>
+      </c>
+      <c r="P75">
+        <v>345747824000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1671455400000</v>
+      </c>
+      <c r="B76">
+        <v>4864700</v>
+      </c>
+      <c r="C76">
+        <v>2720200</v>
+      </c>
+      <c r="D76">
+        <v>24700</v>
+      </c>
+      <c r="E76">
+        <v>87661627000</v>
+      </c>
+      <c r="F76">
+        <v>50389405000</v>
+      </c>
+      <c r="G76">
+        <v>302791000</v>
+      </c>
+      <c r="H76">
+        <v>7609600</v>
+      </c>
+      <c r="I76">
+        <v>138353823000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-19T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>7394921404000</v>
+      </c>
+      <c r="L76">
+        <v>418569300</v>
+      </c>
+      <c r="M76">
+        <v>-2144500</v>
+      </c>
+      <c r="N76">
+        <v>-37272222000</v>
+      </c>
+      <c r="O76">
+        <v>25471700</v>
+      </c>
+      <c r="P76">
+        <v>308475602000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1671455520000</v>
+      </c>
+      <c r="B77">
+        <v>4174500</v>
+      </c>
+      <c r="C77">
+        <v>2366100</v>
+      </c>
+      <c r="D77">
+        <v>10300</v>
+      </c>
+      <c r="E77">
+        <v>76121119000</v>
+      </c>
+      <c r="F77">
+        <v>40716523000</v>
+      </c>
+      <c r="G77">
+        <v>170357000</v>
+      </c>
+      <c r="H77">
+        <v>6550900</v>
+      </c>
+      <c r="I77">
+        <v>117007999000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-19T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>7511929403000</v>
+      </c>
+      <c r="L77">
+        <v>425120200</v>
+      </c>
+      <c r="M77">
+        <v>-1808400</v>
+      </c>
+      <c r="N77">
+        <v>-35404596000</v>
+      </c>
+      <c r="O77">
+        <v>23663300</v>
+      </c>
+      <c r="P77">
+        <v>273071006000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1671455640000</v>
+      </c>
+      <c r="B78">
+        <v>4086000</v>
+      </c>
+      <c r="C78">
+        <v>3546700</v>
+      </c>
+      <c r="D78">
+        <v>24800</v>
+      </c>
+      <c r="E78">
+        <v>72311028000</v>
+      </c>
+      <c r="F78">
+        <v>55596287000</v>
+      </c>
+      <c r="G78">
+        <v>217566000</v>
+      </c>
+      <c r="H78">
+        <v>7657500</v>
+      </c>
+      <c r="I78">
+        <v>128124881000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-19T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>7640054284000</v>
+      </c>
+      <c r="L78">
+        <v>432777700</v>
+      </c>
+      <c r="M78">
+        <v>-539300</v>
+      </c>
+      <c r="N78">
+        <v>-16714741000</v>
+      </c>
+      <c r="O78">
+        <v>23124000</v>
+      </c>
+      <c r="P78">
+        <v>256356265000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1671455760000</v>
+      </c>
+      <c r="B79">
+        <v>1618700</v>
+      </c>
+      <c r="C79">
+        <v>4539500</v>
+      </c>
+      <c r="D79">
+        <v>17200</v>
+      </c>
+      <c r="E79">
+        <v>27994881000</v>
+      </c>
+      <c r="F79">
+        <v>73868919000</v>
+      </c>
+      <c r="G79">
+        <v>234776000</v>
+      </c>
+      <c r="H79">
+        <v>6175400</v>
+      </c>
+      <c r="I79">
+        <v>102098576000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-19T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>7742152860000</v>
+      </c>
+      <c r="L79">
+        <v>438953100</v>
+      </c>
+      <c r="M79">
+        <v>2920800</v>
+      </c>
+      <c r="N79">
+        <v>45874038000</v>
+      </c>
+      <c r="O79">
+        <v>26044800</v>
+      </c>
+      <c r="P79">
+        <v>302230303000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1671455880000</v>
+      </c>
+      <c r="B80">
+        <v>1933800</v>
+      </c>
+      <c r="C80">
+        <v>3642600</v>
+      </c>
+      <c r="D80">
+        <v>47200</v>
+      </c>
+      <c r="E80">
+        <v>29849899000</v>
+      </c>
+      <c r="F80">
+        <v>58042452000</v>
+      </c>
+      <c r="G80">
+        <v>691788000</v>
+      </c>
+      <c r="H80">
+        <v>5623600</v>
+      </c>
+      <c r="I80">
+        <v>88584139000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-19T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>7830736999000</v>
+      </c>
+      <c r="L80">
+        <v>444576700</v>
+      </c>
+      <c r="M80">
+        <v>1708800</v>
+      </c>
+      <c r="N80">
+        <v>28192553000</v>
+      </c>
+      <c r="O80">
+        <v>27753600</v>
+      </c>
+      <c r="P80">
+        <v>330422856000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1671456000000</v>
+      </c>
+      <c r="B81">
+        <v>3599900</v>
+      </c>
+      <c r="C81">
+        <v>2242500</v>
+      </c>
+      <c r="D81">
+        <v>700</v>
+      </c>
+      <c r="E81">
+        <v>68922232000</v>
+      </c>
+      <c r="F81">
+        <v>35312022000</v>
+      </c>
+      <c r="G81">
+        <v>20630000</v>
+      </c>
+      <c r="H81">
+        <v>5843100</v>
+      </c>
+      <c r="I81">
+        <v>104254884000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-19T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>7934991883000</v>
+      </c>
+      <c r="L81">
+        <v>450419800</v>
+      </c>
+      <c r="M81">
+        <v>-1357400</v>
+      </c>
+      <c r="N81">
+        <v>-33610210000</v>
+      </c>
+      <c r="O81">
+        <v>26396200</v>
+      </c>
+      <c r="P81">
+        <v>296812646000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1671456120000</v>
+      </c>
+      <c r="B82">
+        <v>3578300</v>
+      </c>
+      <c r="C82">
+        <v>1444000</v>
+      </c>
+      <c r="D82">
+        <v>26500</v>
+      </c>
+      <c r="E82">
+        <v>63894862000</v>
+      </c>
+      <c r="F82">
+        <v>22801385000</v>
+      </c>
+      <c r="G82">
+        <v>497392000</v>
+      </c>
+      <c r="H82">
+        <v>5048800</v>
+      </c>
+      <c r="I82">
+        <v>87193639000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-19T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>8022185522000</v>
+      </c>
+      <c r="L82">
+        <v>455468600</v>
+      </c>
+      <c r="M82">
+        <v>-2134300</v>
+      </c>
+      <c r="N82">
+        <v>-41093477000</v>
+      </c>
+      <c r="O82">
+        <v>24261900</v>
+      </c>
+      <c r="P82">
+        <v>255719169000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1671456240000</v>
+      </c>
+      <c r="B83">
+        <v>2624800</v>
+      </c>
+      <c r="C83">
+        <v>1020800</v>
+      </c>
+      <c r="D83">
+        <v>16300</v>
+      </c>
+      <c r="E83">
+        <v>45396655000</v>
+      </c>
+      <c r="F83">
+        <v>17419769000</v>
+      </c>
+      <c r="G83">
+        <v>176700000</v>
+      </c>
+      <c r="H83">
+        <v>3661900</v>
+      </c>
+      <c r="I83">
+        <v>62993124000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-19T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>8085178646000</v>
+      </c>
+      <c r="L83">
+        <v>459130500</v>
+      </c>
+      <c r="M83">
+        <v>-1604000</v>
+      </c>
+      <c r="N83">
+        <v>-27976886000</v>
+      </c>
+      <c r="O83">
+        <v>22657900</v>
+      </c>
+      <c r="P83">
+        <v>227742283000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1671456360000</v>
+      </c>
+      <c r="B84">
+        <v>3253700</v>
+      </c>
+      <c r="C84">
+        <v>1334000</v>
+      </c>
+      <c r="D84">
+        <v>15900</v>
+      </c>
+      <c r="E84">
+        <v>52547631000</v>
+      </c>
+      <c r="F84">
+        <v>22474255000</v>
+      </c>
+      <c r="G84">
+        <v>314888000</v>
+      </c>
+      <c r="H84">
+        <v>4603600</v>
+      </c>
+      <c r="I84">
+        <v>75336774000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-19T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>8160515420000</v>
+      </c>
+      <c r="L84">
+        <v>463734100</v>
+      </c>
+      <c r="M84">
+        <v>-1919700</v>
+      </c>
+      <c r="N84">
+        <v>-30073376000</v>
+      </c>
+      <c r="O84">
+        <v>20738200</v>
+      </c>
+      <c r="P84">
+        <v>197668907000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1671456480000</v>
+      </c>
+      <c r="B85">
+        <v>3340900</v>
+      </c>
+      <c r="C85">
+        <v>1479700</v>
+      </c>
+      <c r="D85">
+        <v>7200</v>
+      </c>
+      <c r="E85">
+        <v>54467348000</v>
+      </c>
+      <c r="F85">
+        <v>27484500000</v>
+      </c>
+      <c r="G85">
+        <v>175909000</v>
+      </c>
+      <c r="H85">
+        <v>4827800</v>
+      </c>
+      <c r="I85">
+        <v>82127757000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-19T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>8242643177000</v>
+      </c>
+      <c r="L85">
+        <v>468561900</v>
+      </c>
+      <c r="M85">
+        <v>-1861200</v>
+      </c>
+      <c r="N85">
+        <v>-26982848000</v>
+      </c>
+      <c r="O85">
+        <v>18877000</v>
+      </c>
+      <c r="P85">
+        <v>170686059000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1671456600000</v>
+      </c>
+      <c r="B86">
+        <v>3254500</v>
+      </c>
+      <c r="C86">
+        <v>1821400</v>
+      </c>
+      <c r="D86">
+        <v>91800</v>
+      </c>
+      <c r="E86">
+        <v>51655871000</v>
+      </c>
+      <c r="F86">
+        <v>32188949000</v>
+      </c>
+      <c r="G86">
+        <v>1118965000</v>
+      </c>
+      <c r="H86">
+        <v>5167700</v>
+      </c>
+      <c r="I86">
+        <v>84963785000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-19T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>8327606962000</v>
+      </c>
+      <c r="L86">
+        <v>473729600</v>
+      </c>
+      <c r="M86">
+        <v>-1433100</v>
+      </c>
+      <c r="N86">
+        <v>-19466922000</v>
+      </c>
+      <c r="O86">
+        <v>17443900</v>
+      </c>
+      <c r="P86">
+        <v>151219137000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1671456720000</v>
+      </c>
+      <c r="B87">
+        <v>2072700</v>
+      </c>
+      <c r="C87">
+        <v>2065700</v>
+      </c>
+      <c r="D87">
+        <v>2300</v>
+      </c>
+      <c r="E87">
+        <v>31299456000</v>
+      </c>
+      <c r="F87">
+        <v>39760554000</v>
+      </c>
+      <c r="G87">
+        <v>41800000</v>
+      </c>
+      <c r="H87">
+        <v>4140700</v>
+      </c>
+      <c r="I87">
+        <v>71101810000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-19T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>8398708772000</v>
+      </c>
+      <c r="L87">
+        <v>477870300</v>
+      </c>
+      <c r="M87">
+        <v>-7000</v>
+      </c>
+      <c r="N87">
+        <v>8461098000</v>
+      </c>
+      <c r="O87">
+        <v>17436900</v>
+      </c>
+      <c r="P87">
+        <v>159680235000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1671456840000</v>
+      </c>
+      <c r="B88">
+        <v>1285400</v>
+      </c>
+      <c r="C88">
+        <v>3232200</v>
+      </c>
+      <c r="D88">
+        <v>2500</v>
+      </c>
+      <c r="E88">
+        <v>22252872000</v>
+      </c>
+      <c r="F88">
+        <v>64492171000</v>
+      </c>
+      <c r="G88">
+        <v>104237000</v>
+      </c>
+      <c r="H88">
+        <v>4520100</v>
+      </c>
+      <c r="I88">
+        <v>86849280000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-19T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>8485558052000</v>
+      </c>
+      <c r="L88">
+        <v>482390400</v>
+      </c>
+      <c r="M88">
+        <v>1946800</v>
+      </c>
+      <c r="N88">
+        <v>42239299000</v>
+      </c>
+      <c r="O88">
+        <v>19383700</v>
+      </c>
+      <c r="P88">
+        <v>201919534000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1671456960000</v>
+      </c>
+      <c r="B89">
+        <v>1575100</v>
+      </c>
+      <c r="C89">
+        <v>3873700</v>
+      </c>
+      <c r="D89">
+        <v>11200</v>
+      </c>
+      <c r="E89">
+        <v>27104623000</v>
+      </c>
+      <c r="F89">
+        <v>68265530000</v>
+      </c>
+      <c r="G89">
+        <v>83693000</v>
+      </c>
+      <c r="H89">
+        <v>5460000</v>
+      </c>
+      <c r="I89">
+        <v>95453846000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-19T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>8581011898000</v>
+      </c>
+      <c r="L89">
+        <v>487850400</v>
+      </c>
+      <c r="M89">
+        <v>2298600</v>
+      </c>
+      <c r="N89">
+        <v>41160907000</v>
+      </c>
+      <c r="O89">
+        <v>21682300</v>
+      </c>
+      <c r="P89">
+        <v>243080441000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1671457080000</v>
+      </c>
+      <c r="B90">
+        <v>1406400</v>
+      </c>
+      <c r="C90">
+        <v>2239800</v>
+      </c>
+      <c r="D90">
+        <v>2800</v>
+      </c>
+      <c r="E90">
+        <v>27943575000</v>
+      </c>
+      <c r="F90">
+        <v>40776319000</v>
+      </c>
+      <c r="G90">
+        <v>62577000</v>
+      </c>
+      <c r="H90">
+        <v>3649000</v>
+      </c>
+      <c r="I90">
+        <v>68782471000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-19T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>8649794369000</v>
+      </c>
+      <c r="L90">
+        <v>491499400</v>
+      </c>
+      <c r="M90">
+        <v>833400</v>
+      </c>
+      <c r="N90">
+        <v>12832744000</v>
+      </c>
+      <c r="O90">
+        <v>22515700</v>
+      </c>
+      <c r="P90">
+        <v>255913185000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1671457200000</v>
+      </c>
+      <c r="B91">
+        <v>2242300</v>
+      </c>
+      <c r="C91">
+        <v>1767900</v>
+      </c>
+      <c r="D91">
+        <v>3900</v>
+      </c>
+      <c r="E91">
+        <v>36964239000</v>
+      </c>
+      <c r="F91">
+        <v>30196716000</v>
+      </c>
+      <c r="G91">
+        <v>73910000</v>
+      </c>
+      <c r="H91">
+        <v>4014100</v>
+      </c>
+      <c r="I91">
+        <v>67234865000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-19T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>8717029234000</v>
+      </c>
+      <c r="L91">
+        <v>495513500</v>
+      </c>
+      <c r="M91">
+        <v>-474400</v>
+      </c>
+      <c r="N91">
+        <v>-6767523000</v>
+      </c>
+      <c r="O91">
+        <v>22041300</v>
+      </c>
+      <c r="P91">
+        <v>249145662000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1671457320000</v>
+      </c>
+      <c r="B92">
+        <v>3685000</v>
+      </c>
+      <c r="C92">
+        <v>3451000</v>
+      </c>
+      <c r="D92">
+        <v>33300</v>
+      </c>
+      <c r="E92">
+        <v>64130260000</v>
+      </c>
+      <c r="F92">
+        <v>51871474000</v>
+      </c>
+      <c r="G92">
+        <v>663555000</v>
+      </c>
+      <c r="H92">
+        <v>7169300</v>
+      </c>
+      <c r="I92">
+        <v>116665289000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-19T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>8833694523000</v>
+      </c>
+      <c r="L92">
+        <v>502682800</v>
+      </c>
+      <c r="M92">
+        <v>-234000</v>
+      </c>
+      <c r="N92">
+        <v>-12258786000</v>
+      </c>
+      <c r="O92">
+        <v>21807300</v>
+      </c>
+      <c r="P92">
+        <v>236886876000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1671457440000</v>
+      </c>
+      <c r="B93">
+        <v>3339300</v>
+      </c>
+      <c r="C93">
+        <v>3262200</v>
+      </c>
+      <c r="D93">
+        <v>2300</v>
+      </c>
+      <c r="E93">
+        <v>60637144000</v>
+      </c>
+      <c r="F93">
+        <v>47965389000</v>
+      </c>
+      <c r="G93">
+        <v>22397000</v>
+      </c>
+      <c r="H93">
+        <v>6603800</v>
+      </c>
+      <c r="I93">
+        <v>108624930000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-19T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>8942319453000</v>
+      </c>
+      <c r="L93">
+        <v>509286600</v>
+      </c>
+      <c r="M93">
+        <v>-77100</v>
+      </c>
+      <c r="N93">
+        <v>-12671755000</v>
+      </c>
+      <c r="O93">
+        <v>21730200</v>
+      </c>
+      <c r="P93">
+        <v>224215121000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1671457560000</v>
+      </c>
+      <c r="B94">
+        <v>4631400</v>
+      </c>
+      <c r="C94">
+        <v>1696700</v>
+      </c>
+      <c r="D94">
+        <v>156300</v>
+      </c>
+      <c r="E94">
+        <v>81398247000</v>
+      </c>
+      <c r="F94">
+        <v>29265020000</v>
+      </c>
+      <c r="G94">
+        <v>538989000</v>
+      </c>
+      <c r="H94">
+        <v>6484400</v>
+      </c>
+      <c r="I94">
+        <v>111202256000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-19T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>9053521709000</v>
+      </c>
+      <c r="L94">
+        <v>515771000</v>
+      </c>
+      <c r="M94">
+        <v>-2934700</v>
+      </c>
+      <c r="N94">
+        <v>-52133227000</v>
+      </c>
+      <c r="O94">
+        <v>18795500</v>
+      </c>
+      <c r="P94">
+        <v>172081894000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1671457680000</v>
+      </c>
+      <c r="B95">
+        <v>5927600</v>
+      </c>
+      <c r="C95">
+        <v>1675600</v>
+      </c>
+      <c r="D95">
+        <v>13800</v>
+      </c>
+      <c r="E95">
+        <v>100250473000</v>
+      </c>
+      <c r="F95">
+        <v>25775783000</v>
+      </c>
+      <c r="G95">
+        <v>275795000</v>
+      </c>
+      <c r="H95">
+        <v>7617000</v>
+      </c>
+      <c r="I95">
+        <v>126302051000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-19T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>9179823760000</v>
+      </c>
+      <c r="L95">
+        <v>523388000</v>
+      </c>
+      <c r="M95">
+        <v>-4252000</v>
+      </c>
+      <c r="N95">
+        <v>-74474690000</v>
+      </c>
+      <c r="O95">
+        <v>14543500</v>
+      </c>
+      <c r="P95">
+        <v>97607204000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1671457800000</v>
+      </c>
+      <c r="B96">
+        <v>9112700</v>
+      </c>
+      <c r="C96">
+        <v>1453900</v>
+      </c>
+      <c r="D96">
+        <v>30100</v>
+      </c>
+      <c r="E96">
+        <v>142972993000</v>
+      </c>
+      <c r="F96">
+        <v>23834094000</v>
+      </c>
+      <c r="G96">
+        <v>580989000</v>
+      </c>
+      <c r="H96">
+        <v>10596700</v>
+      </c>
+      <c r="I96">
+        <v>167388076000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-19T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>9347211836000</v>
+      </c>
+      <c r="L96">
+        <v>533984700</v>
+      </c>
+      <c r="M96">
+        <v>-7658800</v>
+      </c>
+      <c r="N96">
+        <v>-119138899000</v>
+      </c>
+      <c r="O96">
+        <v>6884700</v>
+      </c>
+      <c r="P96">
+        <v>-21531695000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1671457920000</v>
+      </c>
+      <c r="B97">
+        <v>11417900</v>
+      </c>
+      <c r="C97">
+        <v>1594100</v>
+      </c>
+      <c r="D97">
+        <v>24900</v>
+      </c>
+      <c r="E97">
+        <v>195015986000</v>
+      </c>
+      <c r="F97">
+        <v>29816129000</v>
+      </c>
+      <c r="G97">
+        <v>532762000</v>
+      </c>
+      <c r="H97">
+        <v>13036900</v>
+      </c>
+      <c r="I97">
+        <v>225364877000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-19T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>9572576713000</v>
+      </c>
+      <c r="L97">
+        <v>547021600</v>
+      </c>
+      <c r="M97">
+        <v>-9823800</v>
+      </c>
+      <c r="N97">
+        <v>-165199857000</v>
+      </c>
+      <c r="O97">
+        <v>-2939100</v>
+      </c>
+      <c r="P97">
+        <v>-186731552000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1671458040000</v>
+      </c>
+      <c r="B98">
+        <v>7802400</v>
+      </c>
+      <c r="C98">
+        <v>2526500</v>
+      </c>
+      <c r="D98">
+        <v>105600</v>
+      </c>
+      <c r="E98">
+        <v>127871420000</v>
+      </c>
+      <c r="F98">
+        <v>44546893000</v>
+      </c>
+      <c r="G98">
+        <v>1378273000</v>
+      </c>
+      <c r="H98">
+        <v>10434500</v>
+      </c>
+      <c r="I98">
+        <v>173796586000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-19T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>9746373299000</v>
+      </c>
+      <c r="L98">
+        <v>557456100</v>
+      </c>
+      <c r="M98">
+        <v>-5275900</v>
+      </c>
+      <c r="N98">
+        <v>-83324527000</v>
+      </c>
+      <c r="O98">
+        <v>-8215000</v>
+      </c>
+      <c r="P98">
+        <v>-270056079000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1671458160000</v>
+      </c>
+      <c r="B99">
+        <v>5368400</v>
+      </c>
+      <c r="C99">
+        <v>2121300</v>
+      </c>
+      <c r="D99">
+        <v>57700</v>
+      </c>
+      <c r="E99">
+        <v>92431115000</v>
+      </c>
+      <c r="F99">
+        <v>34189725000</v>
+      </c>
+      <c r="G99">
+        <v>992837000</v>
+      </c>
+      <c r="H99">
+        <v>7547400</v>
+      </c>
+      <c r="I99">
+        <v>127613677000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-19T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>9873986976000</v>
+      </c>
+      <c r="L99">
+        <v>565003500</v>
+      </c>
+      <c r="M99">
+        <v>-3247100</v>
+      </c>
+      <c r="N99">
+        <v>-58241390000</v>
+      </c>
+      <c r="O99">
+        <v>-11462100</v>
+      </c>
+      <c r="P99">
+        <v>-328297469000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1671458280000</v>
+      </c>
+      <c r="B100">
+        <v>3642900</v>
+      </c>
+      <c r="C100">
+        <v>3243000</v>
+      </c>
+      <c r="D100">
+        <v>47800</v>
+      </c>
+      <c r="E100">
+        <v>64867061000</v>
+      </c>
+      <c r="F100">
+        <v>53468265000</v>
+      </c>
+      <c r="G100">
+        <v>815291000</v>
+      </c>
+      <c r="H100">
+        <v>6933700</v>
+      </c>
+      <c r="I100">
+        <v>119150617000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-19T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>9993137593000</v>
+      </c>
+      <c r="L100">
+        <v>571937200</v>
+      </c>
+      <c r="M100">
+        <v>-399900</v>
+      </c>
+      <c r="N100">
+        <v>-11398796000</v>
+      </c>
+      <c r="O100">
+        <v>-11862000</v>
+      </c>
+      <c r="P100">
+        <v>-339696265000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1671458400000</v>
+      </c>
+      <c r="B101">
+        <v>1942100</v>
+      </c>
+      <c r="C101">
+        <v>3948200</v>
+      </c>
+      <c r="D101">
+        <v>21100</v>
+      </c>
+      <c r="E101">
+        <v>37457327000</v>
+      </c>
+      <c r="F101">
+        <v>66892728000</v>
+      </c>
+      <c r="G101">
+        <v>300314000</v>
+      </c>
+      <c r="H101">
+        <v>5911400</v>
+      </c>
+      <c r="I101">
+        <v>104650369000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-19T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>10097787962000</v>
+      </c>
+      <c r="L101">
+        <v>577848600</v>
+      </c>
+      <c r="M101">
+        <v>2006100</v>
+      </c>
+      <c r="N101">
+        <v>29435401000</v>
+      </c>
+      <c r="O101">
+        <v>-9855900</v>
+      </c>
+      <c r="P101">
+        <v>-310260864000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1671458520000</v>
+      </c>
+      <c r="B102">
+        <v>1478800</v>
+      </c>
+      <c r="C102">
+        <v>3135600</v>
+      </c>
+      <c r="D102">
+        <v>10700</v>
+      </c>
+      <c r="E102">
+        <v>29705221000</v>
+      </c>
+      <c r="F102">
+        <v>50815347000</v>
+      </c>
+      <c r="G102">
+        <v>289541000</v>
+      </c>
+      <c r="H102">
+        <v>4625100</v>
+      </c>
+      <c r="I102">
+        <v>80810109000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-19T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>10178598071000</v>
+      </c>
+      <c r="L102">
+        <v>582473700</v>
+      </c>
+      <c r="M102">
+        <v>1656800</v>
+      </c>
+      <c r="N102">
+        <v>21110126000</v>
+      </c>
+      <c r="O102">
+        <v>-8199100</v>
+      </c>
+      <c r="P102">
+        <v>-289150738000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1671458640000</v>
+      </c>
+      <c r="B103">
+        <v>4912900</v>
+      </c>
+      <c r="C103">
+        <v>1193100</v>
+      </c>
+      <c r="D103">
+        <v>21900</v>
+      </c>
+      <c r="E103">
+        <v>93881232000</v>
+      </c>
+      <c r="F103">
+        <v>23334792000</v>
+      </c>
+      <c r="G103">
+        <v>500820000</v>
+      </c>
+      <c r="H103">
+        <v>6127900</v>
+      </c>
+      <c r="I103">
+        <v>117716844000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-19T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>10296314915000</v>
+      </c>
+      <c r="L103">
+        <v>588601600</v>
+      </c>
+      <c r="M103">
+        <v>-3719800</v>
+      </c>
+      <c r="N103">
+        <v>-70546440000</v>
+      </c>
+      <c r="O103">
+        <v>-11918900</v>
+      </c>
+      <c r="P103">
+        <v>-359697178000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1671458760000</v>
+      </c>
+      <c r="B104">
+        <v>7687300</v>
+      </c>
+      <c r="C104">
+        <v>1293800</v>
+      </c>
+      <c r="D104">
+        <v>80800</v>
+      </c>
+      <c r="E104">
+        <v>132642882000</v>
+      </c>
+      <c r="F104">
+        <v>25506612000</v>
+      </c>
+      <c r="G104">
+        <v>1414276000</v>
+      </c>
+      <c r="H104">
+        <v>9061900</v>
+      </c>
+      <c r="I104">
+        <v>159563770000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-19T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>10455878685000</v>
+      </c>
+      <c r="L104">
+        <v>597663500</v>
+      </c>
+      <c r="M104">
+        <v>-6393500</v>
+      </c>
+      <c r="N104">
+        <v>-107136270000</v>
+      </c>
+      <c r="O104">
+        <v>-18312400</v>
+      </c>
+      <c r="P104">
+        <v>-466833448000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1671458880000</v>
+      </c>
+      <c r="B105">
+        <v>10418100</v>
+      </c>
+      <c r="C105">
+        <v>1811000</v>
+      </c>
+      <c r="D105">
+        <v>27600</v>
+      </c>
+      <c r="E105">
+        <v>176335879000</v>
+      </c>
+      <c r="F105">
+        <v>31393013000</v>
+      </c>
+      <c r="G105">
+        <v>690749000</v>
+      </c>
+      <c r="H105">
+        <v>12256700</v>
+      </c>
+      <c r="I105">
+        <v>208419641000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-19T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>10664298326000</v>
+      </c>
+      <c r="L105">
+        <v>609920200</v>
+      </c>
+      <c r="M105">
+        <v>-8607100</v>
+      </c>
+      <c r="N105">
+        <v>-144942866000</v>
+      </c>
+      <c r="O105">
+        <v>-26919500</v>
+      </c>
+      <c r="P105">
+        <v>-611776314000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1671459000000</v>
+      </c>
+      <c r="B106">
+        <v>9253200</v>
+      </c>
+      <c r="C106">
+        <v>3154800</v>
+      </c>
+      <c r="D106">
+        <v>149300</v>
+      </c>
+      <c r="E106">
+        <v>146050119000</v>
+      </c>
+      <c r="F106">
+        <v>59014399000</v>
+      </c>
+      <c r="G106">
+        <v>2208534000</v>
+      </c>
+      <c r="H106">
+        <v>12557300</v>
+      </c>
+      <c r="I106">
+        <v>207273052000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-19T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>10871571378000</v>
+      </c>
+      <c r="L106">
+        <v>622477500</v>
+      </c>
+      <c r="M106">
+        <v>-6098400</v>
+      </c>
+      <c r="N106">
+        <v>-87035720000</v>
+      </c>
+      <c r="O106">
+        <v>-33017900</v>
+      </c>
+      <c r="P106">
+        <v>-698812034000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1671459120000</v>
+      </c>
+      <c r="B107">
+        <v>2584200</v>
+      </c>
+      <c r="C107">
+        <v>5479500</v>
+      </c>
+      <c r="D107">
+        <v>99900</v>
+      </c>
+      <c r="E107">
+        <v>43150417000</v>
+      </c>
+      <c r="F107">
+        <v>91404340000</v>
+      </c>
+      <c r="G107">
+        <v>1264498000</v>
+      </c>
+      <c r="H107">
+        <v>8163600</v>
+      </c>
+      <c r="I107">
+        <v>135819255000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-19T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>11007390633000</v>
+      </c>
+      <c r="L107">
+        <v>630641100</v>
+      </c>
+      <c r="M107">
+        <v>2895300</v>
+      </c>
+      <c r="N107">
+        <v>48253923000</v>
+      </c>
+      <c r="O107">
+        <v>-30122600</v>
+      </c>
+      <c r="P107">
+        <v>-650558111000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1671459240000</v>
+      </c>
+      <c r="B108">
+        <v>1791000</v>
+      </c>
+      <c r="C108">
+        <v>3687500</v>
+      </c>
+      <c r="D108">
+        <v>44400</v>
+      </c>
+      <c r="E108">
+        <v>27080863000</v>
+      </c>
+      <c r="F108">
+        <v>65936698000</v>
+      </c>
+      <c r="G108">
+        <v>345681000</v>
+      </c>
+      <c r="H108">
+        <v>5522900</v>
+      </c>
+      <c r="I108">
+        <v>93363242000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-19T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>11100753875000</v>
+      </c>
+      <c r="L108">
+        <v>636164000</v>
+      </c>
+      <c r="M108">
+        <v>1896500</v>
+      </c>
+      <c r="N108">
+        <v>38855835000</v>
+      </c>
+      <c r="O108">
+        <v>-28226100</v>
+      </c>
+      <c r="P108">
+        <v>-611702276000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1671459360000</v>
+      </c>
+      <c r="B109">
+        <v>2309700</v>
+      </c>
+      <c r="C109">
+        <v>2881600</v>
+      </c>
+      <c r="D109">
+        <v>4800</v>
+      </c>
+      <c r="E109">
+        <v>38338776000</v>
+      </c>
+      <c r="F109">
+        <v>48679505000</v>
+      </c>
+      <c r="G109">
+        <v>222144000</v>
+      </c>
+      <c r="H109">
+        <v>5196100</v>
+      </c>
+      <c r="I109">
+        <v>87240425000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-19T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>11187994300000</v>
+      </c>
+      <c r="L109">
+        <v>641360100</v>
+      </c>
+      <c r="M109">
+        <v>571900</v>
+      </c>
+      <c r="N109">
+        <v>10340729000</v>
+      </c>
+      <c r="O109">
+        <v>-27654200</v>
+      </c>
+      <c r="P109">
+        <v>-601361547000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1671459480000</v>
+      </c>
+      <c r="B110">
+        <v>5432700</v>
+      </c>
+      <c r="C110">
+        <v>1881300</v>
+      </c>
+      <c r="D110">
+        <v>34700</v>
+      </c>
+      <c r="E110">
+        <v>96255988000</v>
+      </c>
+      <c r="F110">
+        <v>35389496000</v>
+      </c>
+      <c r="G110">
+        <v>775019000</v>
+      </c>
+      <c r="H110">
+        <v>7348700</v>
+      </c>
+      <c r="I110">
+        <v>132420503000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-19T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>11320414803000</v>
+      </c>
+      <c r="L110">
+        <v>648708800</v>
+      </c>
+      <c r="M110">
+        <v>-3551400</v>
+      </c>
+      <c r="N110">
+        <v>-60866492000</v>
+      </c>
+      <c r="O110">
+        <v>-31205600</v>
+      </c>
+      <c r="P110">
+        <v>-662228039000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1671459600000</v>
+      </c>
+      <c r="B111">
+        <v>6320600</v>
+      </c>
+      <c r="C111">
+        <v>1997100</v>
+      </c>
+      <c r="D111">
+        <v>75500</v>
+      </c>
+      <c r="E111">
+        <v>107631508000</v>
+      </c>
+      <c r="F111">
+        <v>37227638000</v>
+      </c>
+      <c r="G111">
+        <v>1209260000</v>
+      </c>
+      <c r="H111">
+        <v>8393200</v>
+      </c>
+      <c r="I111">
+        <v>146068406000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-19T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>11466483209000</v>
+      </c>
+      <c r="L111">
+        <v>657102000</v>
+      </c>
+      <c r="M111">
+        <v>-4323500</v>
+      </c>
+      <c r="N111">
+        <v>-70403870000</v>
+      </c>
+      <c r="O111">
+        <v>-35529100</v>
+      </c>
+      <c r="P111">
+        <v>-732631909000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1671459720000</v>
+      </c>
+      <c r="B112">
+        <v>8250200</v>
+      </c>
+      <c r="C112">
+        <v>2430200</v>
+      </c>
+      <c r="D112">
+        <v>64600</v>
+      </c>
+      <c r="E112">
+        <v>140001244000</v>
+      </c>
+      <c r="F112">
+        <v>44760649000</v>
+      </c>
+      <c r="G112">
+        <v>1644771000</v>
+      </c>
+      <c r="H112">
+        <v>10745000</v>
+      </c>
+      <c r="I112">
+        <v>186406664000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-19T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>11652889873000</v>
+      </c>
+      <c r="L112">
+        <v>667847000</v>
+      </c>
+      <c r="M112">
+        <v>-5820000</v>
+      </c>
+      <c r="N112">
+        <v>-95240595000</v>
+      </c>
+      <c r="O112">
+        <v>-41349100</v>
+      </c>
+      <c r="P112">
+        <v>-827872504000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1671459840000</v>
+      </c>
+      <c r="B113">
+        <v>20816800</v>
+      </c>
+      <c r="C113">
+        <v>3547900</v>
+      </c>
+      <c r="D113">
+        <v>156100</v>
+      </c>
+      <c r="E113">
+        <v>340510531000</v>
+      </c>
+      <c r="F113">
+        <v>62707989000</v>
+      </c>
+      <c r="G113">
+        <v>2583091000</v>
+      </c>
+      <c r="H113">
+        <v>24520800</v>
+      </c>
+      <c r="I113">
+        <v>405801611000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-19T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>12058691484000</v>
+      </c>
+      <c r="L113">
+        <v>692367800</v>
+      </c>
+      <c r="M113">
+        <v>-17268900</v>
+      </c>
+      <c r="N113">
+        <v>-277802542000</v>
+      </c>
+      <c r="O113">
+        <v>-58618000</v>
+      </c>
+      <c r="P113">
+        <v>-1105675046000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1671459960000</v>
+      </c>
+      <c r="B114">
+        <v>17117200</v>
+      </c>
+      <c r="C114">
+        <v>5632800</v>
+      </c>
+      <c r="D114">
+        <v>298000</v>
+      </c>
+      <c r="E114">
+        <v>283592962000</v>
+      </c>
+      <c r="F114">
+        <v>98092671000</v>
+      </c>
+      <c r="G114">
+        <v>4709615000</v>
+      </c>
+      <c r="H114">
+        <v>23048000</v>
+      </c>
+      <c r="I114">
+        <v>386395248000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-19T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>12445086732000</v>
+      </c>
+      <c r="L114">
+        <v>715415800</v>
+      </c>
+      <c r="M114">
+        <v>-11484400</v>
+      </c>
+      <c r="N114">
+        <v>-185500291000</v>
+      </c>
+      <c r="O114">
+        <v>-70102400</v>
+      </c>
+      <c r="P114">
+        <v>-1291175337000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1671460080000</v>
+      </c>
+      <c r="B115">
+        <v>8365400</v>
+      </c>
+      <c r="C115">
+        <v>7342000</v>
+      </c>
+      <c r="D115">
+        <v>229600</v>
+      </c>
+      <c r="E115">
+        <v>137706051000</v>
+      </c>
+      <c r="F115">
+        <v>113523828000</v>
+      </c>
+      <c r="G115">
+        <v>3381064000</v>
+      </c>
+      <c r="H115">
+        <v>15937000</v>
+      </c>
+      <c r="I115">
+        <v>254610943000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-19T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>12699697675000</v>
+      </c>
+      <c r="L115">
+        <v>731352800</v>
+      </c>
+      <c r="M115">
+        <v>-1023400</v>
+      </c>
+      <c r="N115">
+        <v>-24182223000</v>
+      </c>
+      <c r="O115">
+        <v>-71125800</v>
+      </c>
+      <c r="P115">
+        <v>-1315357560000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1671460200000</v>
+      </c>
+      <c r="B116">
+        <v>17400</v>
+      </c>
+      <c r="C116">
+        <v>42300</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>214820000</v>
+      </c>
+      <c r="F116">
+        <v>516018000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>59700</v>
+      </c>
+      <c r="I116">
+        <v>730838000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-19T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>12700428513000</v>
+      </c>
+      <c r="L116">
+        <v>731412500</v>
+      </c>
+      <c r="M116">
+        <v>24900</v>
+      </c>
+      <c r="N116">
+        <v>301198000</v>
+      </c>
+      <c r="O116">
+        <v>-71100900</v>
+      </c>
+      <c r="P116">
+        <v>-1315056362000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1671460680000</v>
+      </c>
+      <c r="B117">
+        <v>900</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>9090000</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>900</v>
+      </c>
+      <c r="I117">
+        <v>9090000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-19T14:38:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>12700437603000</v>
+      </c>
+      <c r="L117">
+        <v>731413400</v>
+      </c>
+      <c r="M117">
+        <v>-900</v>
+      </c>
+      <c r="N117">
+        <v>-9090000</v>
+      </c>
+      <c r="O117">
+        <v>-71101800</v>
+      </c>
+      <c r="P117">
+        <v>-1315065452000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1671461040000</v>
+      </c>
+      <c r="B118">
+        <v>23676800</v>
+      </c>
+      <c r="C118">
+        <v>17127100</v>
+      </c>
+      <c r="D118">
+        <v>32330600</v>
+      </c>
+      <c r="E118">
+        <v>424090994000</v>
+      </c>
+      <c r="F118">
+        <v>302783019000</v>
+      </c>
+      <c r="G118">
+        <v>542408630000</v>
+      </c>
+      <c r="H118">
+        <v>73134500</v>
+      </c>
+      <c r="I118">
+        <v>1269282643000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-19T14:44:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>13969720246000</v>
+      </c>
+      <c r="L118">
+        <v>804547900</v>
+      </c>
+      <c r="M118">
+        <v>-6549700</v>
+      </c>
+      <c r="N118">
+        <v>-121307975000</v>
+      </c>
+      <c r="O118">
+        <v>-77651500</v>
+      </c>
+      <c r="P118">
+        <v>-1436373427000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1671461280000</v>
+      </c>
+      <c r="B119">
+        <v>200</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>2020000</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>200</v>
+      </c>
+      <c r="I119">
+        <v>2020000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-19T14:48:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>13969722266000</v>
+      </c>
+      <c r="L119">
+        <v>804548100</v>
+      </c>
+      <c r="M119">
+        <v>-200</v>
+      </c>
+      <c r="N119">
+        <v>-2020000</v>
+      </c>
+      <c r="O119">
+        <v>-77651700</v>
+      </c>
+      <c r="P119">
+        <v>-1436375447000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1671461520000</v>
+      </c>
+      <c r="B120">
+        <v>1000</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>10100000</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1000</v>
+      </c>
+      <c r="I120">
+        <v>10100000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-19T14:52:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>13969732366000</v>
+      </c>
+      <c r="L120">
+        <v>804549100</v>
+      </c>
+      <c r="M120">
+        <v>-1000</v>
+      </c>
+      <c r="N120">
+        <v>-10100000</v>
+      </c>
+      <c r="O120">
+        <v>-77652700</v>
+      </c>
+      <c r="P120">
+        <v>-1436385547000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1671461760000</v>
+      </c>
+      <c r="B121">
         <v>4000</v>
       </c>
-      <c r="C52">
+      <c r="C121">
         <v>0</v>
       </c>
-      <c r="D52">
+      <c r="D121">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E121">
         <v>40400000</v>
       </c>
-      <c r="F52">
+      <c r="F121">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="G121">
         <v>0</v>
       </c>
-      <c r="H52">
+      <c r="H121">
         <v>4000</v>
       </c>
-      <c r="I52">
+      <c r="I121">
         <v>40400000</v>
       </c>
-      <c r="J52" t="str">
-        <v>2022-12-19T14:55:00.000Z</v>
-      </c>
-      <c r="K52">
+      <c r="J121" t="str">
+        <v>2022-12-19T14:56:00.000Z</v>
+      </c>
+      <c r="K121">
         <v>13969772766000</v>
       </c>
-      <c r="L52">
+      <c r="L121">
         <v>804553100</v>
       </c>
-      <c r="M52">
+      <c r="M121">
         <v>-4000</v>
       </c>
-      <c r="N52">
+      <c r="N121">
         <v>-40400000</v>
       </c>
-      <c r="O52">
+      <c r="O121">
         <v>-77656700</v>
       </c>
-      <c r="P52">
+      <c r="P121">
         <v>-1436425947000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P121"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221219/VNINDEX_HOSE_5p_20221219.xlsx
+++ b/name/vnindex/20221219/VNINDEX_HOSE_5p_20221219.xlsx
@@ -466,25 +466,25 @@
         <v>2311100</v>
       </c>
       <c r="E2">
-        <v>79825421000</v>
+        <v>75746504000</v>
       </c>
       <c r="F2">
-        <v>94775767000</v>
+        <v>56170810600</v>
       </c>
       <c r="G2">
-        <v>42606503000</v>
+        <v>40568543000</v>
       </c>
       <c r="H2">
         <v>12486000</v>
       </c>
       <c r="I2">
-        <v>217207691000</v>
+        <v>172485857600</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-19T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>217207691000</v>
+        <v>172485857600</v>
       </c>
       <c r="L2">
         <v>12486000</v>
@@ -493,13 +493,13 @@
         <v>766300</v>
       </c>
       <c r="N2">
-        <v>14950346000</v>
+        <v>-19575693400</v>
       </c>
       <c r="O2">
         <v>766300</v>
       </c>
       <c r="P2">
-        <v>14950346000</v>
+        <v>-19575693400</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>45600</v>
       </c>
       <c r="E3">
-        <v>70748274000</v>
+        <v>65354772900</v>
       </c>
       <c r="F3">
-        <v>60662003000</v>
+        <v>53790881000</v>
       </c>
       <c r="G3">
-        <v>1005401000</v>
+        <v>953453000</v>
       </c>
       <c r="H3">
         <v>7432600</v>
       </c>
       <c r="I3">
-        <v>132415678000</v>
+        <v>120099106900</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-19T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>349623369000</v>
+        <v>292584964500</v>
       </c>
       <c r="L3">
         <v>19918600</v>
@@ -543,13 +543,13 @@
         <v>-125200</v>
       </c>
       <c r="N3">
-        <v>-10086271000</v>
+        <v>-11563891900</v>
       </c>
       <c r="O3">
         <v>641100</v>
       </c>
       <c r="P3">
-        <v>4864075000</v>
+        <v>-31139585300</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>41100</v>
       </c>
       <c r="E4">
-        <v>50981527000</v>
+        <v>46804408300</v>
       </c>
       <c r="F4">
-        <v>49486426000</v>
+        <v>40798722400</v>
       </c>
       <c r="G4">
         <v>534390000</v>
@@ -578,13 +578,13 @@
         <v>5989600</v>
       </c>
       <c r="I4">
-        <v>101002343000</v>
+        <v>88137520700</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-19T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>450625712000</v>
+        <v>380722485200</v>
       </c>
       <c r="L4">
         <v>25908200</v>
@@ -593,13 +593,13 @@
         <v>7700</v>
       </c>
       <c r="N4">
-        <v>-1495101000</v>
+        <v>-6005685900</v>
       </c>
       <c r="O4">
         <v>648800</v>
       </c>
       <c r="P4">
-        <v>3368974000</v>
+        <v>-37145271200</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>47400</v>
       </c>
       <c r="E5">
-        <v>65466775000</v>
+        <v>60152494600</v>
       </c>
       <c r="F5">
-        <v>34897163000</v>
+        <v>32170092800</v>
       </c>
       <c r="G5">
         <v>889080000</v>
@@ -628,13 +628,13 @@
         <v>5767700</v>
       </c>
       <c r="I5">
-        <v>101253018000</v>
+        <v>93211667400</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-19T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>551878730000</v>
+        <v>473934152600</v>
       </c>
       <c r="L5">
         <v>31675900</v>
@@ -643,13 +643,13 @@
         <v>-1267100</v>
       </c>
       <c r="N5">
-        <v>-30569612000</v>
+        <v>-27982401800</v>
       </c>
       <c r="O5">
         <v>-618300</v>
       </c>
       <c r="P5">
-        <v>-27200638000</v>
+        <v>-65127673000</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>41500</v>
       </c>
       <c r="E6">
-        <v>54779143000</v>
+        <v>49662864400</v>
       </c>
       <c r="F6">
-        <v>36373067000</v>
+        <v>32916327200</v>
       </c>
       <c r="G6">
         <v>1019595000</v>
@@ -678,13 +678,13 @@
         <v>5176700</v>
       </c>
       <c r="I6">
-        <v>92171805000</v>
+        <v>83598786600</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-19T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>644050535000</v>
+        <v>557532939200</v>
       </c>
       <c r="L6">
         <v>36852600</v>
@@ -693,13 +693,13 @@
         <v>-1003000</v>
       </c>
       <c r="N6">
-        <v>-18406076000</v>
+        <v>-16746537200</v>
       </c>
       <c r="O6">
         <v>-1621300</v>
       </c>
       <c r="P6">
-        <v>-45606714000</v>
+        <v>-81874210200</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>17800</v>
       </c>
       <c r="E7">
-        <v>43348289000</v>
+        <v>41733205700</v>
       </c>
       <c r="F7">
-        <v>41147935000</v>
+        <v>37520965600</v>
       </c>
       <c r="G7">
         <v>178715000</v>
@@ -728,13 +728,13 @@
         <v>5286400</v>
       </c>
       <c r="I7">
-        <v>84674939000</v>
+        <v>79432886300</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-19T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>728725474000</v>
+        <v>636965825500</v>
       </c>
       <c r="L7">
         <v>42139000</v>
@@ -743,13 +743,13 @@
         <v>-289800</v>
       </c>
       <c r="N7">
-        <v>-2200354000</v>
+        <v>-4212240100</v>
       </c>
       <c r="O7">
         <v>-1911100</v>
       </c>
       <c r="P7">
-        <v>-47807068000</v>
+        <v>-86086450300</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>16400</v>
       </c>
       <c r="E8">
-        <v>31772858000</v>
+        <v>31320710600</v>
       </c>
       <c r="F8">
-        <v>54929846000</v>
+        <v>51597082100</v>
       </c>
       <c r="G8">
-        <v>347934000</v>
+        <v>337344600</v>
       </c>
       <c r="H8">
         <v>5459600</v>
       </c>
       <c r="I8">
-        <v>87050638000</v>
+        <v>83255137300</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-19T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>815776112000</v>
+        <v>720220962800</v>
       </c>
       <c r="L8">
         <v>47598600</v>
@@ -793,13 +793,13 @@
         <v>1479400</v>
       </c>
       <c r="N8">
-        <v>23156988000</v>
+        <v>20276371500</v>
       </c>
       <c r="O8">
         <v>-431700</v>
       </c>
       <c r="P8">
-        <v>-24650080000</v>
+        <v>-65810078800</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>17100</v>
       </c>
       <c r="E9">
-        <v>27226799000</v>
+        <v>25399628000</v>
       </c>
       <c r="F9">
-        <v>70257078000</v>
+        <v>67792545000</v>
       </c>
       <c r="G9">
         <v>312598000</v>
@@ -828,13 +828,13 @@
         <v>5595600</v>
       </c>
       <c r="I9">
-        <v>97796475000</v>
+        <v>93504771000</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-19T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>913572587000</v>
+        <v>813725733800</v>
       </c>
       <c r="L9">
         <v>53194200</v>
@@ -843,13 +843,13 @@
         <v>2693100</v>
       </c>
       <c r="N9">
-        <v>43030279000</v>
+        <v>42392917000</v>
       </c>
       <c r="O9">
         <v>2261400</v>
       </c>
       <c r="P9">
-        <v>18380199000</v>
+        <v>-23417161800</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>16500</v>
       </c>
       <c r="E10">
-        <v>58610907000</v>
+        <v>47755073700</v>
       </c>
       <c r="F10">
-        <v>36767456000</v>
+        <v>34668257300</v>
       </c>
       <c r="G10">
-        <v>188534000</v>
+        <v>160362200</v>
       </c>
       <c r="H10">
         <v>5329800</v>
       </c>
       <c r="I10">
-        <v>95566897000</v>
+        <v>82583693200</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-19T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1009139484000</v>
+        <v>896309427000</v>
       </c>
       <c r="L10">
         <v>58524000</v>
@@ -893,13 +893,13 @@
         <v>-1001900</v>
       </c>
       <c r="N10">
-        <v>-21843451000</v>
+        <v>-13086816400</v>
       </c>
       <c r="O10">
         <v>1259500</v>
       </c>
       <c r="P10">
-        <v>-3463252000</v>
+        <v>-36503978200</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>10800</v>
       </c>
       <c r="E11">
-        <v>50877096000</v>
+        <v>47264712000</v>
       </c>
       <c r="F11">
-        <v>40468670000</v>
+        <v>35364279500</v>
       </c>
       <c r="G11">
         <v>188995000</v>
@@ -928,13 +928,13 @@
         <v>4855100</v>
       </c>
       <c r="I11">
-        <v>91534761000</v>
+        <v>82817986500</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-19T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1100674245000</v>
+        <v>979127413500</v>
       </c>
       <c r="L11">
         <v>63379100</v>
@@ -943,13 +943,13 @@
         <v>-467700</v>
       </c>
       <c r="N11">
-        <v>-10408426000</v>
+        <v>-11900432500</v>
       </c>
       <c r="O11">
         <v>791800</v>
       </c>
       <c r="P11">
-        <v>-13871678000</v>
+        <v>-48404410700</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>19300</v>
       </c>
       <c r="E12">
-        <v>39223470000</v>
+        <v>37696498500</v>
       </c>
       <c r="F12">
-        <v>36956748000</v>
+        <v>34657449600</v>
       </c>
       <c r="G12">
-        <v>625781000</v>
+        <v>600506300</v>
       </c>
       <c r="H12">
         <v>4073000</v>
       </c>
       <c r="I12">
-        <v>76805999000</v>
+        <v>72954454400</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-19T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1177480244000</v>
+        <v>1052081867900</v>
       </c>
       <c r="L12">
         <v>67452100</v>
@@ -993,13 +993,13 @@
         <v>-27700</v>
       </c>
       <c r="N12">
-        <v>-2266722000</v>
+        <v>-3039048900</v>
       </c>
       <c r="O12">
         <v>764100</v>
       </c>
       <c r="P12">
-        <v>-16138400000</v>
+        <v>-51443459600</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>31000</v>
       </c>
       <c r="E13">
-        <v>34738967000</v>
+        <v>33739267700</v>
       </c>
       <c r="F13">
-        <v>35437281000</v>
+        <v>32507713500</v>
       </c>
       <c r="G13">
         <v>273729000</v>
@@ -1028,13 +1028,13 @@
         <v>4364300</v>
       </c>
       <c r="I13">
-        <v>70449977000</v>
+        <v>66520710200</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-19T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1247930221000</v>
+        <v>1118602578100</v>
       </c>
       <c r="L13">
         <v>71816400</v>
@@ -1043,13 +1043,13 @@
         <v>148500</v>
       </c>
       <c r="N13">
-        <v>698314000</v>
+        <v>-1231554200</v>
       </c>
       <c r="O13">
         <v>912600</v>
       </c>
       <c r="P13">
-        <v>-15440086000</v>
+        <v>-52675013800</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>11100</v>
       </c>
       <c r="E14">
-        <v>31034901000</v>
+        <v>26758381800</v>
       </c>
       <c r="F14">
-        <v>33827257000</v>
+        <v>29826361900</v>
       </c>
       <c r="G14">
-        <v>296741000</v>
+        <v>178059800</v>
       </c>
       <c r="H14">
         <v>3559800</v>
       </c>
       <c r="I14">
-        <v>65158899000</v>
+        <v>56762803500</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-19T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1313089120000</v>
+        <v>1175365381600</v>
       </c>
       <c r="L14">
         <v>75376200</v>
@@ -1093,13 +1093,13 @@
         <v>413700</v>
       </c>
       <c r="N14">
-        <v>2792356000</v>
+        <v>3067980100</v>
       </c>
       <c r="O14">
         <v>1326300</v>
       </c>
       <c r="P14">
-        <v>-12647730000</v>
+        <v>-49607033700</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>33700</v>
       </c>
       <c r="E15">
-        <v>32621797000</v>
+        <v>31633386400</v>
       </c>
       <c r="F15">
-        <v>32559228000</v>
+        <v>30239350200</v>
       </c>
       <c r="G15">
         <v>227192000</v>
@@ -1128,13 +1128,13 @@
         <v>3906300</v>
       </c>
       <c r="I15">
-        <v>65408217000</v>
+        <v>62099928600</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-19T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1378497337000</v>
+        <v>1237465310200</v>
       </c>
       <c r="L15">
         <v>79282500</v>
@@ -1143,13 +1143,13 @@
         <v>-14400</v>
       </c>
       <c r="N15">
-        <v>-62569000</v>
+        <v>-1394036200</v>
       </c>
       <c r="O15">
         <v>1311900</v>
       </c>
       <c r="P15">
-        <v>-12710299000</v>
+        <v>-51001069900</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>8400</v>
       </c>
       <c r="E16">
-        <v>28119568000</v>
+        <v>26665123900</v>
       </c>
       <c r="F16">
-        <v>60538292000</v>
+        <v>56770363700</v>
       </c>
       <c r="G16">
         <v>42209000</v>
@@ -1178,13 +1178,13 @@
         <v>4978200</v>
       </c>
       <c r="I16">
-        <v>88700069000</v>
+        <v>83477696600</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-19T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1467197406000</v>
+        <v>1320943006800</v>
       </c>
       <c r="L16">
         <v>84260700</v>
@@ -1193,13 +1193,13 @@
         <v>1555600</v>
       </c>
       <c r="N16">
-        <v>32418724000</v>
+        <v>30105239800</v>
       </c>
       <c r="O16">
         <v>2867500</v>
       </c>
       <c r="P16">
-        <v>19708425000</v>
+        <v>-20895830100</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>58600</v>
       </c>
       <c r="E17">
-        <v>22504691000</v>
+        <v>21566929700</v>
       </c>
       <c r="F17">
-        <v>72160191000</v>
+        <v>69877276200</v>
       </c>
       <c r="G17">
         <v>858129000</v>
@@ -1228,13 +1228,13 @@
         <v>5870500</v>
       </c>
       <c r="I17">
-        <v>95523011000</v>
+        <v>92302334900</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-19T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1562720417000</v>
+        <v>1413245341700</v>
       </c>
       <c r="L17">
         <v>90131200</v>
@@ -1243,13 +1243,13 @@
         <v>3156300</v>
       </c>
       <c r="N17">
-        <v>49655500000</v>
+        <v>48310346500</v>
       </c>
       <c r="O17">
         <v>6023800</v>
       </c>
       <c r="P17">
-        <v>69363925000</v>
+        <v>27414516400</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>5600</v>
       </c>
       <c r="E18">
-        <v>28088407000</v>
+        <v>24165933400</v>
       </c>
       <c r="F18">
-        <v>92642353000</v>
+        <v>73854759400</v>
       </c>
       <c r="G18">
         <v>78290000</v>
@@ -1278,13 +1278,13 @@
         <v>6926000</v>
       </c>
       <c r="I18">
-        <v>120809050000</v>
+        <v>98098982800</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-19T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1683529467000</v>
+        <v>1511344324500</v>
       </c>
       <c r="L18">
         <v>97057200</v>
@@ -1293,13 +1293,13 @@
         <v>4125400</v>
       </c>
       <c r="N18">
-        <v>64553946000</v>
+        <v>49688826000</v>
       </c>
       <c r="O18">
         <v>10149200</v>
       </c>
       <c r="P18">
-        <v>133917871000</v>
+        <v>77103342400</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>63200</v>
       </c>
       <c r="E19">
-        <v>29180224000</v>
+        <v>25188419800</v>
       </c>
       <c r="F19">
-        <v>117107493000</v>
+        <v>94153270200</v>
       </c>
       <c r="G19">
-        <v>792876000</v>
+        <v>297571800</v>
       </c>
       <c r="H19">
         <v>8725500</v>
       </c>
       <c r="I19">
-        <v>147080593000</v>
+        <v>119639261800</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-19T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1830610060000</v>
+        <v>1630983586300</v>
       </c>
       <c r="L19">
         <v>105782700</v>
@@ -1343,13 +1343,13 @@
         <v>5494900</v>
       </c>
       <c r="N19">
-        <v>87927269000</v>
+        <v>68964850400</v>
       </c>
       <c r="O19">
         <v>15644100</v>
       </c>
       <c r="P19">
-        <v>221845140000</v>
+        <v>146068192800</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>21900</v>
       </c>
       <c r="E20">
-        <v>29865890000</v>
+        <v>27593264900</v>
       </c>
       <c r="F20">
-        <v>95179530000</v>
+        <v>88726489500</v>
       </c>
       <c r="G20">
-        <v>414972000</v>
+        <v>410076900</v>
       </c>
       <c r="H20">
         <v>7049400</v>
       </c>
       <c r="I20">
-        <v>125460392000</v>
+        <v>116729831300</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-19T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1956070452000</v>
+        <v>1747713417600</v>
       </c>
       <c r="L20">
         <v>112832100</v>
@@ -1393,13 +1393,13 @@
         <v>3662700</v>
       </c>
       <c r="N20">
-        <v>65313640000</v>
+        <v>61133224600</v>
       </c>
       <c r="O20">
         <v>19306800</v>
       </c>
       <c r="P20">
-        <v>287158780000</v>
+        <v>207201417400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>65600</v>
       </c>
       <c r="E21">
-        <v>55974734000</v>
+        <v>52392819500</v>
       </c>
       <c r="F21">
-        <v>86425506000</v>
+        <v>75146895900</v>
       </c>
       <c r="G21">
-        <v>657213000</v>
+        <v>526743600</v>
       </c>
       <c r="H21">
         <v>8835400</v>
       </c>
       <c r="I21">
-        <v>143057453000</v>
+        <v>128066459000</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-19T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2099127905000</v>
+        <v>1875779876600</v>
       </c>
       <c r="L21">
         <v>121667500</v>
@@ -1443,13 +1443,13 @@
         <v>3159600</v>
       </c>
       <c r="N21">
-        <v>30450772000</v>
+        <v>22754076400</v>
       </c>
       <c r="O21">
         <v>22466400</v>
       </c>
       <c r="P21">
-        <v>317609552000</v>
+        <v>229955493800</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>32900</v>
       </c>
       <c r="E22">
-        <v>51602157000</v>
+        <v>46846317600</v>
       </c>
       <c r="F22">
-        <v>40264239000</v>
+        <v>36978228300</v>
       </c>
       <c r="G22">
         <v>481176000</v>
@@ -1478,13 +1478,13 @@
         <v>5544800</v>
       </c>
       <c r="I22">
-        <v>92347572000</v>
+        <v>84305721900</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-19T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2191475477000</v>
+        <v>1960085598500</v>
       </c>
       <c r="L22">
         <v>127212300</v>
@@ -1493,13 +1493,13 @@
         <v>-354900</v>
       </c>
       <c r="N22">
-        <v>-11337918000</v>
+        <v>-9868089300</v>
       </c>
       <c r="O22">
         <v>22111500</v>
       </c>
       <c r="P22">
-        <v>306271634000</v>
+        <v>220087404500</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>12500</v>
       </c>
       <c r="E23">
-        <v>47852925000</v>
+        <v>45321958500</v>
       </c>
       <c r="F23">
-        <v>44616883000</v>
+        <v>38415890200</v>
       </c>
       <c r="G23">
         <v>165925000</v>
@@ -1528,13 +1528,13 @@
         <v>5532100</v>
       </c>
       <c r="I23">
-        <v>92635733000</v>
+        <v>83903773700</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-19T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2284111210000</v>
+        <v>2043989372200</v>
       </c>
       <c r="L23">
         <v>132744400</v>
@@ -1543,13 +1543,13 @@
         <v>-142400</v>
       </c>
       <c r="N23">
-        <v>-3236042000</v>
+        <v>-6906068300</v>
       </c>
       <c r="O23">
         <v>21969100</v>
       </c>
       <c r="P23">
-        <v>303035592000</v>
+        <v>213181336200</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>40400</v>
       </c>
       <c r="E24">
-        <v>46170111000</v>
+        <v>42544040700</v>
       </c>
       <c r="F24">
-        <v>36269477000</v>
+        <v>33400249100</v>
       </c>
       <c r="G24">
         <v>693995000</v>
@@ -1578,13 +1578,13 @@
         <v>5192000</v>
       </c>
       <c r="I24">
-        <v>83133583000</v>
+        <v>76638284800</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-19T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2367244793000</v>
+        <v>2120627657000</v>
       </c>
       <c r="L24">
         <v>137936400</v>
@@ -1593,13 +1593,13 @@
         <v>-332600</v>
       </c>
       <c r="N24">
-        <v>-9900634000</v>
+        <v>-9143791600</v>
       </c>
       <c r="O24">
         <v>21636500</v>
       </c>
       <c r="P24">
-        <v>293134958000</v>
+        <v>204037544600</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>36600</v>
       </c>
       <c r="E25">
-        <v>51542427000</v>
+        <v>44543233200</v>
       </c>
       <c r="F25">
-        <v>31844530000</v>
+        <v>29297979100</v>
       </c>
       <c r="G25">
         <v>940495000</v>
@@ -1628,13 +1628,13 @@
         <v>5116000</v>
       </c>
       <c r="I25">
-        <v>84327452000</v>
+        <v>74781707300</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-19T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2451572245000</v>
+        <v>2195409364300</v>
       </c>
       <c r="L25">
         <v>143052400</v>
@@ -1643,13 +1643,13 @@
         <v>-640400</v>
       </c>
       <c r="N25">
-        <v>-19697897000</v>
+        <v>-15245254100</v>
       </c>
       <c r="O25">
         <v>20996100</v>
       </c>
       <c r="P25">
-        <v>273437061000</v>
+        <v>188792290500</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>500</v>
       </c>
       <c r="E26">
-        <v>50644893000</v>
+        <v>40748998800</v>
       </c>
       <c r="F26">
-        <v>26983198000</v>
+        <v>20955631600</v>
       </c>
       <c r="G26">
         <v>10500000</v>
@@ -1678,13 +1678,13 @@
         <v>4696900</v>
       </c>
       <c r="I26">
-        <v>77638591000</v>
+        <v>61715130400</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-19T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2529210836000</v>
+        <v>2257124494700</v>
       </c>
       <c r="L26">
         <v>147749300</v>
@@ -1693,13 +1693,13 @@
         <v>-1129800</v>
       </c>
       <c r="N26">
-        <v>-23661695000</v>
+        <v>-19793367200</v>
       </c>
       <c r="O26">
         <v>19866300</v>
       </c>
       <c r="P26">
-        <v>249775366000</v>
+        <v>168998923300</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>3000</v>
       </c>
       <c r="E27">
-        <v>38270751000</v>
+        <v>35824399800</v>
       </c>
       <c r="F27">
-        <v>32733238000</v>
+        <v>27313063600</v>
       </c>
       <c r="G27">
         <v>43282000</v>
@@ -1728,13 +1728,13 @@
         <v>4562500</v>
       </c>
       <c r="I27">
-        <v>71047271000</v>
+        <v>63180745400</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-19T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2600258107000</v>
+        <v>2320305240100</v>
       </c>
       <c r="L27">
         <v>152311800</v>
@@ -1743,13 +1743,13 @@
         <v>-561300</v>
       </c>
       <c r="N27">
-        <v>-5537513000</v>
+        <v>-8511336200</v>
       </c>
       <c r="O27">
         <v>19305000</v>
       </c>
       <c r="P27">
-        <v>244237853000</v>
+        <v>160487587100</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>46700</v>
       </c>
       <c r="E28">
-        <v>41793141000</v>
+        <v>38379558000</v>
       </c>
       <c r="F28">
-        <v>22704509000</v>
+        <v>20884930400</v>
       </c>
       <c r="G28">
         <v>984605000</v>
@@ -1778,13 +1778,13 @@
         <v>3711900</v>
       </c>
       <c r="I28">
-        <v>65482255000</v>
+        <v>60249093400</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-19T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2665740362000</v>
+        <v>2380554333500</v>
       </c>
       <c r="L28">
         <v>156023700</v>
@@ -1793,13 +1793,13 @@
         <v>-1015400</v>
       </c>
       <c r="N28">
-        <v>-19088632000</v>
+        <v>-17494627600</v>
       </c>
       <c r="O28">
         <v>18289600</v>
       </c>
       <c r="P28">
-        <v>225149221000</v>
+        <v>142992959500</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>100</v>
       </c>
       <c r="E29">
-        <v>41143544000</v>
+        <v>32654841200</v>
       </c>
       <c r="F29">
-        <v>25469892000</v>
+        <v>18992176200</v>
       </c>
       <c r="G29">
         <v>788000</v>
@@ -1828,13 +1828,13 @@
         <v>3204500</v>
       </c>
       <c r="I29">
-        <v>66614224000</v>
+        <v>51647805400</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-19T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2732354586000</v>
+        <v>2432202138900</v>
       </c>
       <c r="L29">
         <v>159228200</v>
@@ -1843,13 +1843,13 @@
         <v>-657600</v>
       </c>
       <c r="N29">
-        <v>-15673652000</v>
+        <v>-13662665000</v>
       </c>
       <c r="O29">
         <v>17632000</v>
       </c>
       <c r="P29">
-        <v>209475569000</v>
+        <v>129330294500</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>19700</v>
       </c>
       <c r="E30">
-        <v>35025778000</v>
+        <v>33213192400</v>
       </c>
       <c r="F30">
-        <v>29128845000</v>
+        <v>25003474500</v>
       </c>
       <c r="G30">
         <v>256074000</v>
@@ -1878,13 +1878,13 @@
         <v>3533200</v>
       </c>
       <c r="I30">
-        <v>64410697000</v>
+        <v>58472740900</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-19T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2796765283000</v>
+        <v>2490674879800</v>
       </c>
       <c r="L30">
         <v>162761400</v>
@@ -1893,13 +1893,13 @@
         <v>-232500</v>
       </c>
       <c r="N30">
-        <v>-5896933000</v>
+        <v>-8209717900</v>
       </c>
       <c r="O30">
         <v>17399500</v>
       </c>
       <c r="P30">
-        <v>203578636000</v>
+        <v>121120576600</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>14600</v>
       </c>
       <c r="E31">
-        <v>28894274000</v>
+        <v>25046126000</v>
       </c>
       <c r="F31">
-        <v>32806775000</v>
+        <v>22303488800</v>
       </c>
       <c r="G31">
         <v>247410000.00000003</v>
@@ -1928,13 +1928,13 @@
         <v>3330400</v>
       </c>
       <c r="I31">
-        <v>61948459000</v>
+        <v>47597024800</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-19T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2858713742000</v>
+        <v>2538271904600</v>
       </c>
       <c r="L31">
         <v>166091800</v>
@@ -1943,13 +1943,13 @@
         <v>-400</v>
       </c>
       <c r="N31">
-        <v>3912501000</v>
+        <v>-2742637200</v>
       </c>
       <c r="O31">
         <v>17399100</v>
       </c>
       <c r="P31">
-        <v>207491137000</v>
+        <v>118377939400</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>2300</v>
       </c>
       <c r="E32">
-        <v>24456666000</v>
+        <v>22414710000</v>
       </c>
       <c r="F32">
-        <v>47522250000</v>
+        <v>38822658300</v>
       </c>
       <c r="G32">
         <v>48480000</v>
@@ -1978,13 +1978,13 @@
         <v>3898300</v>
       </c>
       <c r="I32">
-        <v>72027396000</v>
+        <v>61285848300</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-19T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2930741138000</v>
+        <v>2599557752900</v>
       </c>
       <c r="L32">
         <v>169990100</v>
@@ -1993,13 +1993,13 @@
         <v>1378400</v>
       </c>
       <c r="N32">
-        <v>23065584000</v>
+        <v>16407948300</v>
       </c>
       <c r="O32">
         <v>18777500</v>
       </c>
       <c r="P32">
-        <v>230556721000</v>
+        <v>134785887700</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>4100</v>
       </c>
       <c r="E33">
-        <v>19621772000</v>
+        <v>14920078400</v>
       </c>
       <c r="F33">
-        <v>91224730000</v>
+        <v>78845921200</v>
       </c>
       <c r="G33">
         <v>104983000</v>
@@ -2028,13 +2028,13 @@
         <v>6124700</v>
       </c>
       <c r="I33">
-        <v>110951485000</v>
+        <v>93870982600</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-19T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3041692623000</v>
+        <v>2693428735500</v>
       </c>
       <c r="L33">
         <v>176114800</v>
@@ -2043,13 +2043,13 @@
         <v>3660000</v>
       </c>
       <c r="N33">
-        <v>71602958000</v>
+        <v>63925842800</v>
       </c>
       <c r="O33">
         <v>22437500</v>
       </c>
       <c r="P33">
-        <v>302159679000</v>
+        <v>198711730500</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>67500</v>
       </c>
       <c r="E34">
-        <v>23924798000</v>
+        <v>21400524800</v>
       </c>
       <c r="F34">
-        <v>155884887000</v>
+        <v>134189404200</v>
       </c>
       <c r="G34">
         <v>679109000</v>
@@ -2078,13 +2078,13 @@
         <v>10873300</v>
       </c>
       <c r="I34">
-        <v>180488794000</v>
+        <v>156269038000</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-19T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3222181417000</v>
+        <v>2849697773500</v>
       </c>
       <c r="L34">
         <v>186988100</v>
@@ -2093,13 +2093,13 @@
         <v>8186000</v>
       </c>
       <c r="N34">
-        <v>131960089000</v>
+        <v>112788879400</v>
       </c>
       <c r="O34">
         <v>30623500</v>
       </c>
       <c r="P34">
-        <v>434119768000</v>
+        <v>311500609900</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>3600</v>
       </c>
       <c r="E35">
-        <v>45854363000</v>
+        <v>42841279100</v>
       </c>
       <c r="F35">
-        <v>106150390000</v>
+        <v>87678979900</v>
       </c>
       <c r="G35">
         <v>156588000</v>
@@ -2128,13 +2128,13 @@
         <v>9337100</v>
       </c>
       <c r="I35">
-        <v>152161341000</v>
+        <v>130676847000</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-19T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3374342758000</v>
+        <v>2980374620500</v>
       </c>
       <c r="L35">
         <v>196325200</v>
@@ -2143,13 +2143,13 @@
         <v>3755500</v>
       </c>
       <c r="N35">
-        <v>60296027000</v>
+        <v>44837700800</v>
       </c>
       <c r="O35">
         <v>34379000</v>
       </c>
       <c r="P35">
-        <v>494415795000</v>
+        <v>356338310700</v>
       </c>
     </row>
     <row r="36">
@@ -2166,25 +2166,25 @@
         <v>27600</v>
       </c>
       <c r="E36">
-        <v>38711429000</v>
+        <v>35624319200</v>
       </c>
       <c r="F36">
-        <v>63967991000</v>
+        <v>55616351000</v>
       </c>
       <c r="G36">
-        <v>326126000</v>
+        <v>313538600</v>
       </c>
       <c r="H36">
         <v>6031100</v>
       </c>
       <c r="I36">
-        <v>103005546000</v>
+        <v>91554208800</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-19T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3477348304000</v>
+        <v>3071928829300</v>
       </c>
       <c r="L36">
         <v>202356300</v>
@@ -2193,13 +2193,13 @@
         <v>1634300</v>
       </c>
       <c r="N36">
-        <v>25256562000</v>
+        <v>19992031800</v>
       </c>
       <c r="O36">
         <v>36013300</v>
       </c>
       <c r="P36">
-        <v>519672357000</v>
+        <v>376330342500</v>
       </c>
     </row>
     <row r="37">
@@ -2216,25 +2216,25 @@
         <v>2500</v>
       </c>
       <c r="E37">
-        <v>35163025000</v>
+        <v>30106087000</v>
       </c>
       <c r="F37">
-        <v>41258238000</v>
+        <v>38077821600</v>
       </c>
       <c r="G37">
-        <v>27760000</v>
+        <v>22065700</v>
       </c>
       <c r="H37">
         <v>4724500</v>
       </c>
       <c r="I37">
-        <v>76449023000</v>
+        <v>68205974300</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-19T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3553797327000</v>
+        <v>3140134803600</v>
       </c>
       <c r="L37">
         <v>207080800</v>
@@ -2243,13 +2243,13 @@
         <v>365400</v>
       </c>
       <c r="N37">
-        <v>6095213000</v>
+        <v>7971734600</v>
       </c>
       <c r="O37">
         <v>36378700</v>
       </c>
       <c r="P37">
-        <v>525767570000</v>
+        <v>384302077100</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>9800</v>
       </c>
       <c r="E38">
-        <v>56570685000</v>
+        <v>47292672300</v>
       </c>
       <c r="F38">
-        <v>39691677000</v>
+        <v>36065307000</v>
       </c>
       <c r="G38">
         <v>170085000</v>
@@ -2278,13 +2278,13 @@
         <v>5368400</v>
       </c>
       <c r="I38">
-        <v>96432447000</v>
+        <v>83528064300</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-19T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3650229774000</v>
+        <v>3223662867900</v>
       </c>
       <c r="L38">
         <v>212449200</v>
@@ -2293,13 +2293,13 @@
         <v>-879200</v>
       </c>
       <c r="N38">
-        <v>-16879008000</v>
+        <v>-11227365300</v>
       </c>
       <c r="O38">
         <v>35499500</v>
       </c>
       <c r="P38">
-        <v>508888562000</v>
+        <v>373074711800</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>16400</v>
       </c>
       <c r="E39">
-        <v>51427458000</v>
+        <v>45881010000</v>
       </c>
       <c r="F39">
-        <v>42795820000</v>
+        <v>35835687100</v>
       </c>
       <c r="G39">
         <v>583499000</v>
@@ -2328,13 +2328,13 @@
         <v>5403200</v>
       </c>
       <c r="I39">
-        <v>94806777000</v>
+        <v>82300196100</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-19T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3745036551000</v>
+        <v>3305963064000</v>
       </c>
       <c r="L39">
         <v>217852400</v>
@@ -2343,13 +2343,13 @@
         <v>-405800</v>
       </c>
       <c r="N39">
-        <v>-8631638000</v>
+        <v>-10045322900</v>
       </c>
       <c r="O39">
         <v>35093700</v>
       </c>
       <c r="P39">
-        <v>500256924000</v>
+        <v>363029388900</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>2500</v>
       </c>
       <c r="E40">
-        <v>40058915000</v>
+        <v>38236039700</v>
       </c>
       <c r="F40">
-        <v>26689130000</v>
+        <v>24311010500</v>
       </c>
       <c r="G40">
         <v>85903000</v>
@@ -2378,13 +2378,13 @@
         <v>3932000</v>
       </c>
       <c r="I40">
-        <v>66833948000</v>
+        <v>62632953200</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-19T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3811870499000</v>
+        <v>3368596017200</v>
       </c>
       <c r="L40">
         <v>221784400</v>
@@ -2393,13 +2393,13 @@
         <v>-228500</v>
       </c>
       <c r="N40">
-        <v>-13369785000</v>
+        <v>-13925029200</v>
       </c>
       <c r="O40">
         <v>34865200</v>
       </c>
       <c r="P40">
-        <v>486887139000</v>
+        <v>349104359700</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>7600</v>
       </c>
       <c r="E41">
-        <v>32542490000</v>
+        <v>29275560200</v>
       </c>
       <c r="F41">
-        <v>45302779000</v>
+        <v>40522164400</v>
       </c>
       <c r="G41">
         <v>82108000</v>
@@ -2428,13 +2428,13 @@
         <v>4078300</v>
       </c>
       <c r="I41">
-        <v>77927377000</v>
+        <v>69879832600</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-19T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3889797876000</v>
+        <v>3438475849800</v>
       </c>
       <c r="L41">
         <v>225862700</v>
@@ -2443,13 +2443,13 @@
         <v>426300</v>
       </c>
       <c r="N41">
-        <v>12760289000</v>
+        <v>11246604200</v>
       </c>
       <c r="O41">
         <v>35291500</v>
       </c>
       <c r="P41">
-        <v>499647428000</v>
+        <v>360350963900</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>15000</v>
       </c>
       <c r="E42">
-        <v>43581785000</v>
+        <v>41330638400</v>
       </c>
       <c r="F42">
-        <v>31072001000</v>
+        <v>26568409100</v>
       </c>
       <c r="G42">
         <v>456504000</v>
@@ -2478,13 +2478,13 @@
         <v>3567900</v>
       </c>
       <c r="I42">
-        <v>75110290000</v>
+        <v>68355551500</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-19T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3964908166000</v>
+        <v>3506831401300</v>
       </c>
       <c r="L42">
         <v>229430600</v>
@@ -2493,13 +2493,13 @@
         <v>-249300</v>
       </c>
       <c r="N42">
-        <v>-12509784000</v>
+        <v>-14762229300</v>
       </c>
       <c r="O42">
         <v>35042200</v>
       </c>
       <c r="P42">
-        <v>487137644000</v>
+        <v>345588734600</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>38900</v>
       </c>
       <c r="E43">
-        <v>54353413000</v>
+        <v>51720748300</v>
       </c>
       <c r="F43">
-        <v>23580398000</v>
+        <v>22883595500</v>
       </c>
       <c r="G43">
         <v>968390000</v>
@@ -2528,13 +2528,13 @@
         <v>4034100</v>
       </c>
       <c r="I43">
-        <v>78902201000</v>
+        <v>75572733800</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-19T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>4043810367000</v>
+        <v>3582404135100</v>
       </c>
       <c r="L43">
         <v>233464700</v>
@@ -2543,13 +2543,13 @@
         <v>-1133600</v>
       </c>
       <c r="N43">
-        <v>-30773015000</v>
+        <v>-28837152800</v>
       </c>
       <c r="O43">
         <v>33908600</v>
       </c>
       <c r="P43">
-        <v>456364629000</v>
+        <v>316751581800</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>55300</v>
       </c>
       <c r="E44">
-        <v>38856637000</v>
+        <v>37107787600</v>
       </c>
       <c r="F44">
-        <v>37895114000</v>
+        <v>37298211500</v>
       </c>
       <c r="G44">
         <v>1025926000</v>
@@ -2578,13 +2578,13 @@
         <v>3976200</v>
       </c>
       <c r="I44">
-        <v>77777677000</v>
+        <v>75431925100</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-19T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>4121588044000</v>
+        <v>3657836060200</v>
       </c>
       <c r="L44">
         <v>237440900</v>
@@ -2593,13 +2593,13 @@
         <v>157300</v>
       </c>
       <c r="N44">
-        <v>-961523000</v>
+        <v>190423900</v>
       </c>
       <c r="O44">
         <v>34065900</v>
       </c>
       <c r="P44">
-        <v>455403106000</v>
+        <v>316942005700</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>5900</v>
       </c>
       <c r="E45">
-        <v>30521060000</v>
+        <v>26099885600</v>
       </c>
       <c r="F45">
-        <v>24198722000</v>
+        <v>23228293400</v>
       </c>
       <c r="G45">
-        <v>124986000</v>
+        <v>116594400</v>
       </c>
       <c r="H45">
         <v>3247000</v>
       </c>
       <c r="I45">
-        <v>54844768000</v>
+        <v>49444773400</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-19T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>4176432812000</v>
+        <v>3707280833600</v>
       </c>
       <c r="L45">
         <v>240687900</v>
@@ -2643,13 +2643,13 @@
         <v>-418900</v>
       </c>
       <c r="N45">
-        <v>-6322338000</v>
+        <v>-2871592200</v>
       </c>
       <c r="O45">
         <v>33647000</v>
       </c>
       <c r="P45">
-        <v>449080768000</v>
+        <v>314070413500</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>18800</v>
       </c>
       <c r="E46">
-        <v>25933973000</v>
+        <v>21025286600</v>
       </c>
       <c r="F46">
-        <v>67149348000</v>
+        <v>50664649200</v>
       </c>
       <c r="G46">
         <v>185025000</v>
@@ -2678,13 +2678,13 @@
         <v>4457100</v>
       </c>
       <c r="I46">
-        <v>93268346000</v>
+        <v>71874960800</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-19T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4269701158000</v>
+        <v>3779155794400</v>
       </c>
       <c r="L46">
         <v>245145000</v>
@@ -2693,13 +2693,13 @@
         <v>1426500</v>
       </c>
       <c r="N46">
-        <v>41215375000</v>
+        <v>29639362600</v>
       </c>
       <c r="O46">
         <v>35073500</v>
       </c>
       <c r="P46">
-        <v>490296143000</v>
+        <v>343709776100</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>6300</v>
       </c>
       <c r="E47">
-        <v>21639353000</v>
+        <v>20212481300</v>
       </c>
       <c r="F47">
-        <v>62478632000</v>
+        <v>50833888400</v>
       </c>
       <c r="G47">
         <v>67816000</v>
@@ -2728,13 +2728,13 @@
         <v>4307400</v>
       </c>
       <c r="I47">
-        <v>84185801000</v>
+        <v>71114185700</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-19T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4353886959000</v>
+        <v>3850269980100</v>
       </c>
       <c r="L47">
         <v>249452400</v>
@@ -2743,13 +2743,13 @@
         <v>2043900</v>
       </c>
       <c r="N47">
-        <v>40839279000</v>
+        <v>30621407100</v>
       </c>
       <c r="O47">
         <v>37117400</v>
       </c>
       <c r="P47">
-        <v>531135422000</v>
+        <v>374331183200</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>96300</v>
       </c>
       <c r="E48">
-        <v>21451919000</v>
+        <v>19865706800</v>
       </c>
       <c r="F48">
-        <v>151289621000</v>
+        <v>149477934500</v>
       </c>
       <c r="G48">
         <v>1801775000</v>
@@ -2778,13 +2778,13 @@
         <v>9508700</v>
       </c>
       <c r="I48">
-        <v>174543315000</v>
+        <v>171145416300</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-19T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4528430274000</v>
+        <v>4021415396400</v>
       </c>
       <c r="L48">
         <v>258961100</v>
@@ -2793,13 +2793,13 @@
         <v>7086600</v>
       </c>
       <c r="N48">
-        <v>129837702000</v>
+        <v>129612227700</v>
       </c>
       <c r="O48">
         <v>44204000</v>
       </c>
       <c r="P48">
-        <v>660973124000</v>
+        <v>503943410900</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>294100</v>
       </c>
       <c r="E49">
-        <v>33938842000</v>
+        <v>31474808500</v>
       </c>
       <c r="F49">
-        <v>175236628000</v>
+        <v>166776196900</v>
       </c>
       <c r="G49">
         <v>6126649000</v>
@@ -2828,13 +2828,13 @@
         <v>11149900</v>
       </c>
       <c r="I49">
-        <v>215302119000</v>
+        <v>204377654400</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-19T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4743732393000</v>
+        <v>4225793050800</v>
       </c>
       <c r="L49">
         <v>270111000</v>
@@ -2843,13 +2843,13 @@
         <v>7425800</v>
       </c>
       <c r="N49">
-        <v>141297786000</v>
+        <v>135301388400</v>
       </c>
       <c r="O49">
         <v>51629800</v>
       </c>
       <c r="P49">
-        <v>802270910000</v>
+        <v>639244799300</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>59100</v>
       </c>
       <c r="E50">
-        <v>33331341000</v>
+        <v>32826146700</v>
       </c>
       <c r="F50">
-        <v>161267344000</v>
+        <v>148304220100</v>
       </c>
       <c r="G50">
         <v>1943193000</v>
@@ -2878,13 +2878,13 @@
         <v>11012600</v>
       </c>
       <c r="I50">
-        <v>196541878000</v>
+        <v>183073559800</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-19T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4940274271000</v>
+        <v>4408866610600</v>
       </c>
       <c r="L50">
         <v>281123600</v>
@@ -2893,13 +2893,13 @@
         <v>6867500</v>
       </c>
       <c r="N50">
-        <v>127936003000</v>
+        <v>115478073400</v>
       </c>
       <c r="O50">
         <v>58497300</v>
       </c>
       <c r="P50">
-        <v>930206913000</v>
+        <v>754722872700</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>42900</v>
       </c>
       <c r="E51">
-        <v>56549254000</v>
+        <v>54098607100</v>
       </c>
       <c r="F51">
-        <v>107340231000</v>
+        <v>104379195000</v>
       </c>
       <c r="G51">
         <v>677695000</v>
@@ -2928,13 +2928,13 @@
         <v>9441500</v>
       </c>
       <c r="I51">
-        <v>164567180000</v>
+        <v>159155497100</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-19T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>5104841451000</v>
+        <v>4568022107700</v>
       </c>
       <c r="L51">
         <v>290565100</v>
@@ -2943,13 +2943,13 @@
         <v>3620800</v>
       </c>
       <c r="N51">
-        <v>50790977000</v>
+        <v>50280587900</v>
       </c>
       <c r="O51">
         <v>62118100</v>
       </c>
       <c r="P51">
-        <v>980997890000</v>
+        <v>805003460600</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>118600</v>
       </c>
       <c r="E52">
-        <v>69732634000</v>
+        <v>65122648600</v>
       </c>
       <c r="F52">
-        <v>57072864000</v>
+        <v>51964877100</v>
       </c>
       <c r="G52">
         <v>2215265000</v>
@@ -2978,13 +2978,13 @@
         <v>7444100</v>
       </c>
       <c r="I52">
-        <v>129020763000</v>
+        <v>119302790700</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-19T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>5233862214000</v>
+        <v>4687324898400</v>
       </c>
       <c r="L52">
         <v>298009200</v>
@@ -2993,13 +2993,13 @@
         <v>-306300</v>
       </c>
       <c r="N52">
-        <v>-12659770000</v>
+        <v>-13157771500</v>
       </c>
       <c r="O52">
         <v>61811800</v>
       </c>
       <c r="P52">
-        <v>968338120000</v>
+        <v>791845689100</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>6900</v>
       </c>
       <c r="E53">
-        <v>61815322000</v>
+        <v>57843497800</v>
       </c>
       <c r="F53">
-        <v>39573633000</v>
+        <v>38402605200</v>
       </c>
       <c r="G53">
         <v>226120000</v>
@@ -3028,13 +3028,13 @@
         <v>5910600</v>
       </c>
       <c r="I53">
-        <v>101615075000</v>
+        <v>96472223000</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-19T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>5335477289000</v>
+        <v>4783797121400</v>
       </c>
       <c r="L53">
         <v>303919800</v>
@@ -3043,13 +3043,13 @@
         <v>-1103500</v>
       </c>
       <c r="N53">
-        <v>-22241689000</v>
+        <v>-19440892600</v>
       </c>
       <c r="O53">
         <v>60708300</v>
       </c>
       <c r="P53">
-        <v>946096431000</v>
+        <v>772404796500</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>37900</v>
       </c>
       <c r="E54">
-        <v>54007659000</v>
+        <v>51958310400</v>
       </c>
       <c r="F54">
-        <v>36562389000</v>
+        <v>36120631200</v>
       </c>
       <c r="G54">
         <v>370430000</v>
@@ -3078,13 +3078,13 @@
         <v>5316900</v>
       </c>
       <c r="I54">
-        <v>90940478000</v>
+        <v>88449371600</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-19T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>5426417767000</v>
+        <v>4872246493000</v>
       </c>
       <c r="L54">
         <v>309236700</v>
@@ -3093,13 +3093,13 @@
         <v>-945200</v>
       </c>
       <c r="N54">
-        <v>-17445270000</v>
+        <v>-15837679200</v>
       </c>
       <c r="O54">
         <v>59763100</v>
       </c>
       <c r="P54">
-        <v>928651161000</v>
+        <v>756567117300</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>21500</v>
       </c>
       <c r="E55">
-        <v>40972728000</v>
+        <v>39354847500</v>
       </c>
       <c r="F55">
-        <v>32647295000</v>
+        <v>31108335500</v>
       </c>
       <c r="G55">
         <v>573801000</v>
@@ -3128,13 +3128,13 @@
         <v>4228600</v>
       </c>
       <c r="I55">
-        <v>74193824000</v>
+        <v>71036984000</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-19T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>5500611591000</v>
+        <v>4943283477000</v>
       </c>
       <c r="L55">
         <v>313465300</v>
@@ -3143,13 +3143,13 @@
         <v>-433900</v>
       </c>
       <c r="N55">
-        <v>-8325433000</v>
+        <v>-8246512000</v>
       </c>
       <c r="O55">
         <v>59329200</v>
       </c>
       <c r="P55">
-        <v>920325728000</v>
+        <v>748320605300</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>13700</v>
       </c>
       <c r="E56">
-        <v>38843481000</v>
+        <v>37227498600</v>
       </c>
       <c r="F56">
-        <v>48213019000</v>
+        <v>46682750800</v>
       </c>
       <c r="G56">
-        <v>338558000</v>
+        <v>329067500</v>
       </c>
       <c r="H56">
         <v>4581200</v>
       </c>
       <c r="I56">
-        <v>87395058000</v>
+        <v>84239316900</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-19T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>5588006649000</v>
+        <v>5027522793900</v>
       </c>
       <c r="L56">
         <v>318046500</v>
@@ -3193,13 +3193,13 @@
         <v>333900</v>
       </c>
       <c r="N56">
-        <v>9369538000</v>
+        <v>9455252200</v>
       </c>
       <c r="O56">
         <v>59663100</v>
       </c>
       <c r="P56">
-        <v>929695266000</v>
+        <v>757775857500</v>
       </c>
     </row>
     <row r="57">
@@ -3216,25 +3216,25 @@
         <v>1000</v>
       </c>
       <c r="E57">
-        <v>29181479000</v>
+        <v>27814847000</v>
       </c>
       <c r="F57">
-        <v>33189084000</v>
+        <v>31992781500</v>
       </c>
       <c r="G57">
-        <v>19250000</v>
+        <v>11757500</v>
       </c>
       <c r="H57">
         <v>3579100</v>
       </c>
       <c r="I57">
-        <v>62389813000</v>
+        <v>59819386000</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-19T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>5650396462000</v>
+        <v>5087342179900</v>
       </c>
       <c r="L57">
         <v>321625600</v>
@@ -3243,13 +3243,13 @@
         <v>627500</v>
       </c>
       <c r="N57">
-        <v>4007605000</v>
+        <v>4177934500</v>
       </c>
       <c r="O57">
         <v>60290600</v>
       </c>
       <c r="P57">
-        <v>933702871000</v>
+        <v>761953792000</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>16200</v>
       </c>
       <c r="E58">
-        <v>33324306000</v>
+        <v>32744686200</v>
       </c>
       <c r="F58">
-        <v>28246201000</v>
+        <v>27424423600</v>
       </c>
       <c r="G58">
         <v>150770000</v>
@@ -3278,13 +3278,13 @@
         <v>3526100</v>
       </c>
       <c r="I58">
-        <v>61721277000</v>
+        <v>60319879800</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-19T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>5712117739000</v>
+        <v>5147662059700</v>
       </c>
       <c r="L58">
         <v>325151700</v>
@@ -3293,13 +3293,13 @@
         <v>-38100</v>
       </c>
       <c r="N58">
-        <v>-5078105000</v>
+        <v>-5320262600</v>
       </c>
       <c r="O58">
         <v>60252500</v>
       </c>
       <c r="P58">
-        <v>928624766000</v>
+        <v>756633529400</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>2500</v>
       </c>
       <c r="E59">
-        <v>51808051000</v>
+        <v>50064196600</v>
       </c>
       <c r="F59">
-        <v>24169133000</v>
+        <v>23447255600</v>
       </c>
       <c r="G59">
         <v>26834000</v>
@@ -3328,13 +3328,13 @@
         <v>4502400</v>
       </c>
       <c r="I59">
-        <v>76004018000</v>
+        <v>73538286200</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-19T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>5788121757000</v>
+        <v>5221200345900</v>
       </c>
       <c r="L59">
         <v>329654100</v>
@@ -3343,13 +3343,13 @@
         <v>-1761500</v>
       </c>
       <c r="N59">
-        <v>-27638918000</v>
+        <v>-26616941000</v>
       </c>
       <c r="O59">
         <v>58491000</v>
       </c>
       <c r="P59">
-        <v>900985848000</v>
+        <v>730016588400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>11100</v>
       </c>
       <c r="E60">
-        <v>45612376000</v>
+        <v>36618878500</v>
       </c>
       <c r="F60">
-        <v>18611561000</v>
+        <v>18018754400</v>
       </c>
       <c r="G60">
         <v>217578000</v>
@@ -3378,13 +3378,13 @@
         <v>3617700</v>
       </c>
       <c r="I60">
-        <v>64441515000</v>
+        <v>54855210900</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-19T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>5852563272000</v>
+        <v>5276055556800</v>
       </c>
       <c r="L60">
         <v>333271800</v>
@@ -3393,13 +3393,13 @@
         <v>-1645000</v>
       </c>
       <c r="N60">
-        <v>-27000815000</v>
+        <v>-18600124100</v>
       </c>
       <c r="O60">
         <v>56846000</v>
       </c>
       <c r="P60">
-        <v>873985033000</v>
+        <v>711416464300</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>1200</v>
       </c>
       <c r="E61">
-        <v>49546388000</v>
+        <v>39182861900</v>
       </c>
       <c r="F61">
-        <v>19710185000</v>
+        <v>18316580000</v>
       </c>
       <c r="G61">
         <v>40420000</v>
@@ -3428,13 +3428,13 @@
         <v>3364100</v>
       </c>
       <c r="I61">
-        <v>69296993000</v>
+        <v>57539861900</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-19T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>5921860265000</v>
+        <v>5333595418700</v>
       </c>
       <c r="L61">
         <v>336635900</v>
@@ -3443,13 +3443,13 @@
         <v>-1537700</v>
       </c>
       <c r="N61">
-        <v>-29836203000</v>
+        <v>-20866281900</v>
       </c>
       <c r="O61">
         <v>55308300</v>
       </c>
       <c r="P61">
-        <v>844148830000</v>
+        <v>690550182400</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>4200</v>
       </c>
       <c r="E62">
-        <v>38846201000</v>
+        <v>36984564500</v>
       </c>
       <c r="F62">
-        <v>19452511000</v>
+        <v>16711854400</v>
       </c>
       <c r="G62">
         <v>102175000</v>
@@ -3478,13 +3478,13 @@
         <v>3275100</v>
       </c>
       <c r="I62">
-        <v>58400887000</v>
+        <v>53798593900</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-19T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>5980261152000</v>
+        <v>5387394012600</v>
       </c>
       <c r="L62">
         <v>339911000</v>
@@ -3493,13 +3493,13 @@
         <v>-1067300</v>
       </c>
       <c r="N62">
-        <v>-19393690000</v>
+        <v>-20272710100</v>
       </c>
       <c r="O62">
         <v>54241000</v>
       </c>
       <c r="P62">
-        <v>824755140000</v>
+        <v>670277472300</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>21400</v>
       </c>
       <c r="E63">
-        <v>44026479000</v>
+        <v>42123084300</v>
       </c>
       <c r="F63">
-        <v>18033280000</v>
+        <v>16228686400</v>
       </c>
       <c r="G63">
         <v>148530000</v>
@@ -3528,13 +3528,13 @@
         <v>3427500</v>
       </c>
       <c r="I63">
-        <v>62208289000</v>
+        <v>58500300700</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-19T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>6042469441000</v>
+        <v>5445894313300</v>
       </c>
       <c r="L63">
         <v>343338500</v>
@@ -3543,13 +3543,13 @@
         <v>-1529700</v>
       </c>
       <c r="N63">
-        <v>-25993199000</v>
+        <v>-25894397900</v>
       </c>
       <c r="O63">
         <v>52711300</v>
       </c>
       <c r="P63">
-        <v>798761941000</v>
+        <v>644383074400</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>3900</v>
       </c>
       <c r="E64">
-        <v>56021157000</v>
+        <v>52447434300</v>
       </c>
       <c r="F64">
-        <v>15480939000</v>
+        <v>13677144600</v>
       </c>
       <c r="G64">
         <v>167700000</v>
@@ -3578,13 +3578,13 @@
         <v>4215600</v>
       </c>
       <c r="I64">
-        <v>71669796000</v>
+        <v>66292278900</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-19T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>6114139237000</v>
+        <v>5512186592200</v>
       </c>
       <c r="L64">
         <v>347554100</v>
@@ -3593,13 +3593,13 @@
         <v>-2447900</v>
       </c>
       <c r="N64">
-        <v>-40540218000</v>
+        <v>-38770289700</v>
       </c>
       <c r="O64">
         <v>50263400</v>
       </c>
       <c r="P64">
-        <v>758221723000</v>
+        <v>605612784700</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>6400</v>
       </c>
       <c r="E65">
-        <v>50556284000</v>
+        <v>50040200600</v>
       </c>
       <c r="F65">
-        <v>27201449000</v>
+        <v>25095956600</v>
       </c>
       <c r="G65">
         <v>68623000</v>
@@ -3628,13 +3628,13 @@
         <v>4379700</v>
       </c>
       <c r="I65">
-        <v>77826356000</v>
+        <v>75204780200</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-19T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>6191965593000</v>
+        <v>5587391372400</v>
       </c>
       <c r="L65">
         <v>351933800</v>
@@ -3643,13 +3643,13 @@
         <v>-1702700</v>
       </c>
       <c r="N65">
-        <v>-23354835000</v>
+        <v>-24944244000</v>
       </c>
       <c r="O65">
         <v>48560700</v>
       </c>
       <c r="P65">
-        <v>734866888000</v>
+        <v>580668540700</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>18000</v>
       </c>
       <c r="E66">
-        <v>36386302000</v>
+        <v>33699691300</v>
       </c>
       <c r="F66">
-        <v>35016837000</v>
+        <v>31698558600</v>
       </c>
       <c r="G66">
         <v>259958000</v>
@@ -3678,13 +3678,13 @@
         <v>3832700</v>
       </c>
       <c r="I66">
-        <v>71663097000</v>
+        <v>65658207900</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-19T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>6263628690000</v>
+        <v>5653049580300</v>
       </c>
       <c r="L66">
         <v>355766500</v>
@@ -3693,13 +3693,13 @@
         <v>-313700</v>
       </c>
       <c r="N66">
-        <v>-1369465000</v>
+        <v>-2001132700</v>
       </c>
       <c r="O66">
         <v>48247000</v>
       </c>
       <c r="P66">
-        <v>733497423000</v>
+        <v>578667408000</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>14600</v>
       </c>
       <c r="E67">
-        <v>28606188000</v>
+        <v>22600699500</v>
       </c>
       <c r="F67">
-        <v>32981945000</v>
+        <v>30545184200</v>
       </c>
       <c r="G67">
         <v>313052000</v>
@@ -3728,13 +3728,13 @@
         <v>3254600</v>
       </c>
       <c r="I67">
-        <v>61901185000</v>
+        <v>53458935700</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-19T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>6325529875000</v>
+        <v>5706508516000</v>
       </c>
       <c r="L67">
         <v>359021100</v>
@@ -3743,13 +3743,13 @@
         <v>167200</v>
       </c>
       <c r="N67">
-        <v>4375757000</v>
+        <v>7944484700</v>
       </c>
       <c r="O67">
         <v>48414200</v>
       </c>
       <c r="P67">
-        <v>737873180000</v>
+        <v>586611892700</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>1500</v>
       </c>
       <c r="E68">
-        <v>38982547000</v>
+        <v>36454377700</v>
       </c>
       <c r="F68">
-        <v>21807485000</v>
+        <v>20116477700</v>
       </c>
       <c r="G68">
-        <v>77738000</v>
+        <v>6809000</v>
       </c>
       <c r="H68">
         <v>3311200</v>
       </c>
       <c r="I68">
-        <v>60867770000</v>
+        <v>56577664400</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-19T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>6386397645000</v>
+        <v>5763086180400</v>
       </c>
       <c r="L68">
         <v>362332300</v>
@@ -3793,13 +3793,13 @@
         <v>-818900</v>
       </c>
       <c r="N68">
-        <v>-17175062000</v>
+        <v>-16337900000</v>
       </c>
       <c r="O68">
         <v>47595300</v>
       </c>
       <c r="P68">
-        <v>720698118000</v>
+        <v>570273992700</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>17000</v>
       </c>
       <c r="E69">
-        <v>24228098000</v>
+        <v>21952575800</v>
       </c>
       <c r="F69">
-        <v>22918983000</v>
+        <v>19063342500</v>
       </c>
       <c r="G69">
         <v>339640000</v>
@@ -3828,13 +3828,13 @@
         <v>2446500</v>
       </c>
       <c r="I69">
-        <v>47486721000</v>
+        <v>41355558300</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-19T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>6433884366000</v>
+        <v>5804441738700</v>
       </c>
       <c r="L69">
         <v>364778800</v>
@@ -3843,13 +3843,13 @@
         <v>-316100</v>
       </c>
       <c r="N69">
-        <v>-1309115000</v>
+        <v>-2889233300</v>
       </c>
       <c r="O69">
         <v>47279200</v>
       </c>
       <c r="P69">
-        <v>719389003000</v>
+        <v>567384759400</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2022-12-19T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>6434480876000</v>
+        <v>5805038248700</v>
       </c>
       <c r="L70">
         <v>364811800</v>
@@ -3899,7 +3899,7 @@
         <v>47289400</v>
       </c>
       <c r="P70">
-        <v>719645373000</v>
+        <v>567641129400</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>764600</v>
       </c>
       <c r="E71">
-        <v>148326749000</v>
+        <v>137214872000</v>
       </c>
       <c r="F71">
-        <v>73969849000</v>
+        <v>70184837800</v>
       </c>
       <c r="G71">
-        <v>7930758000</v>
+        <v>7909279500</v>
       </c>
       <c r="H71">
         <v>13456000</v>
       </c>
       <c r="I71">
-        <v>230227356000</v>
+        <v>215308989300</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-19T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>6664708232000</v>
+        <v>6020347238000</v>
       </c>
       <c r="L71">
         <v>378267800</v>
@@ -3943,13 +3943,13 @@
         <v>-3665800</v>
       </c>
       <c r="N71">
-        <v>-74356900000</v>
+        <v>-67030034200</v>
       </c>
       <c r="O71">
         <v>43623600</v>
       </c>
       <c r="P71">
-        <v>645288473000</v>
+        <v>500611095200</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>32500</v>
       </c>
       <c r="E72">
-        <v>117518128000</v>
+        <v>108653201800</v>
       </c>
       <c r="F72">
-        <v>31719061000</v>
+        <v>30008473300</v>
       </c>
       <c r="G72">
-        <v>552639000</v>
+        <v>523867800</v>
       </c>
       <c r="H72">
         <v>8597400</v>
       </c>
       <c r="I72">
-        <v>149789828000</v>
+        <v>139185542900</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-19T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>6814498060000</v>
+        <v>6159532780900</v>
       </c>
       <c r="L72">
         <v>386865200</v>
@@ -3993,13 +3993,13 @@
         <v>-4840300</v>
       </c>
       <c r="N72">
-        <v>-85799067000</v>
+        <v>-78644728500</v>
       </c>
       <c r="O72">
         <v>38783300</v>
       </c>
       <c r="P72">
-        <v>559489406000</v>
+        <v>421966366700</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>26300</v>
       </c>
       <c r="E73">
-        <v>109857792000</v>
+        <v>96964897800</v>
       </c>
       <c r="F73">
-        <v>30513126000</v>
+        <v>28320321000</v>
       </c>
       <c r="G73">
-        <v>461937000</v>
+        <v>438760200</v>
       </c>
       <c r="H73">
         <v>7470700</v>
       </c>
       <c r="I73">
-        <v>140832855000</v>
+        <v>125723979000</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-19T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>6955330915000</v>
+        <v>6285256759900</v>
       </c>
       <c r="L73">
         <v>394335900</v>
@@ -4043,13 +4043,13 @@
         <v>-4073400</v>
       </c>
       <c r="N73">
-        <v>-79344666000</v>
+        <v>-68644576800</v>
       </c>
       <c r="O73">
         <v>34709900</v>
       </c>
       <c r="P73">
-        <v>480144740000</v>
+        <v>353321789900</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>76600</v>
       </c>
       <c r="E74">
-        <v>110928218000</v>
+        <v>105832718600</v>
       </c>
       <c r="F74">
-        <v>42775866000</v>
+        <v>40443300900</v>
       </c>
       <c r="G74">
-        <v>861952000</v>
+        <v>814599400</v>
       </c>
       <c r="H74">
         <v>8555700</v>
       </c>
       <c r="I74">
-        <v>154566036000</v>
+        <v>147090618900</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-19T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>7109896951000</v>
+        <v>6432347378800</v>
       </c>
       <c r="L74">
         <v>402891600</v>
@@ -4093,13 +4093,13 @@
         <v>-3619500</v>
       </c>
       <c r="N74">
-        <v>-68152352000</v>
+        <v>-65389417700</v>
       </c>
       <c r="O74">
         <v>31090400</v>
       </c>
       <c r="P74">
-        <v>411992388000</v>
+        <v>287932372200</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>19100</v>
       </c>
       <c r="E75">
-        <v>106253843000</v>
+        <v>100880721500</v>
       </c>
       <c r="F75">
-        <v>40009279000</v>
+        <v>39614374300</v>
       </c>
       <c r="G75">
-        <v>407508000</v>
+        <v>404511000</v>
       </c>
       <c r="H75">
         <v>8068100</v>
       </c>
       <c r="I75">
-        <v>146670630000</v>
+        <v>140899606800</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-19T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>7256567581000</v>
+        <v>6573246985600</v>
       </c>
       <c r="L75">
         <v>410959700</v>
@@ -4143,13 +4143,13 @@
         <v>-3474200</v>
       </c>
       <c r="N75">
-        <v>-66244564000</v>
+        <v>-61266347200</v>
       </c>
       <c r="O75">
         <v>27616200</v>
       </c>
       <c r="P75">
-        <v>345747824000</v>
+        <v>226666025000</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>24700</v>
       </c>
       <c r="E76">
-        <v>87661627000</v>
+        <v>80598197500</v>
       </c>
       <c r="F76">
-        <v>50389405000</v>
+        <v>49502293000</v>
       </c>
       <c r="G76">
         <v>302791000</v>
@@ -4178,13 +4178,13 @@
         <v>7609600</v>
       </c>
       <c r="I76">
-        <v>138353823000</v>
+        <v>130403281500</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-19T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>7394921404000</v>
+        <v>6703650267100</v>
       </c>
       <c r="L76">
         <v>418569300</v>
@@ -4193,13 +4193,13 @@
         <v>-2144500</v>
       </c>
       <c r="N76">
-        <v>-37272222000</v>
+        <v>-31095904500</v>
       </c>
       <c r="O76">
         <v>25471700</v>
       </c>
       <c r="P76">
-        <v>308475602000</v>
+        <v>195570120500</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>10300</v>
       </c>
       <c r="E77">
-        <v>76121119000</v>
+        <v>72174070000</v>
       </c>
       <c r="F77">
-        <v>40716523000</v>
+        <v>39267473500</v>
       </c>
       <c r="G77">
         <v>170357000</v>
@@ -4228,13 +4228,13 @@
         <v>6550900</v>
       </c>
       <c r="I77">
-        <v>117007999000</v>
+        <v>111611900500</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-19T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>7511929403000</v>
+        <v>6815262167600</v>
       </c>
       <c r="L77">
         <v>425120200</v>
@@ -4243,13 +4243,13 @@
         <v>-1808400</v>
       </c>
       <c r="N77">
-        <v>-35404596000</v>
+        <v>-32906596500</v>
       </c>
       <c r="O77">
         <v>23663300</v>
       </c>
       <c r="P77">
-        <v>273071006000</v>
+        <v>162663524000</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>24800</v>
       </c>
       <c r="E78">
-        <v>72311028000</v>
+        <v>71378061900</v>
       </c>
       <c r="F78">
-        <v>55596287000</v>
+        <v>53575509800</v>
       </c>
       <c r="G78">
         <v>217566000</v>
@@ -4278,13 +4278,13 @@
         <v>7657500</v>
       </c>
       <c r="I78">
-        <v>128124881000</v>
+        <v>125171137700</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-19T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>7640054284000</v>
+        <v>6940433305300</v>
       </c>
       <c r="L78">
         <v>432777700</v>
@@ -4293,13 +4293,13 @@
         <v>-539300</v>
       </c>
       <c r="N78">
-        <v>-16714741000</v>
+        <v>-17802552100</v>
       </c>
       <c r="O78">
         <v>23124000</v>
       </c>
       <c r="P78">
-        <v>256356265000</v>
+        <v>144860971900</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>17200</v>
       </c>
       <c r="E79">
-        <v>27994881000</v>
+        <v>27086290500</v>
       </c>
       <c r="F79">
-        <v>73868919000</v>
+        <v>70989601200</v>
       </c>
       <c r="G79">
         <v>234776000</v>
@@ -4328,13 +4328,13 @@
         <v>6175400</v>
       </c>
       <c r="I79">
-        <v>102098576000</v>
+        <v>98310667700</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-19T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>7742152860000</v>
+        <v>7038743973000</v>
       </c>
       <c r="L79">
         <v>438953100</v>
@@ -4343,13 +4343,13 @@
         <v>2920800</v>
       </c>
       <c r="N79">
-        <v>45874038000</v>
+        <v>43903310700</v>
       </c>
       <c r="O79">
         <v>26044800</v>
       </c>
       <c r="P79">
-        <v>302230303000</v>
+        <v>188764282600</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>47200</v>
       </c>
       <c r="E80">
-        <v>29849899000</v>
+        <v>29055494200</v>
       </c>
       <c r="F80">
-        <v>58042452000</v>
+        <v>52284415800</v>
       </c>
       <c r="G80">
         <v>691788000</v>
@@ -4378,13 +4378,13 @@
         <v>5623600</v>
       </c>
       <c r="I80">
-        <v>88584139000</v>
+        <v>82031698000</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-19T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>7830736999000</v>
+        <v>7120775671000</v>
       </c>
       <c r="L80">
         <v>444576700</v>
@@ -4393,13 +4393,13 @@
         <v>1708800</v>
       </c>
       <c r="N80">
-        <v>28192553000</v>
+        <v>23228921600</v>
       </c>
       <c r="O80">
         <v>27753600</v>
       </c>
       <c r="P80">
-        <v>330422856000</v>
+        <v>211993204200</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>700</v>
       </c>
       <c r="E81">
-        <v>68922232000</v>
+        <v>64930028200</v>
       </c>
       <c r="F81">
-        <v>35312022000</v>
+        <v>33931404000</v>
       </c>
       <c r="G81">
-        <v>20630000</v>
+        <v>18831800</v>
       </c>
       <c r="H81">
         <v>5843100</v>
       </c>
       <c r="I81">
-        <v>104254884000</v>
+        <v>98880264000</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-19T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>7934991883000</v>
+        <v>7219655935000</v>
       </c>
       <c r="L81">
         <v>450419800</v>
@@ -4443,13 +4443,13 @@
         <v>-1357400</v>
       </c>
       <c r="N81">
-        <v>-33610210000</v>
+        <v>-30998624200</v>
       </c>
       <c r="O81">
         <v>26396200</v>
       </c>
       <c r="P81">
-        <v>296812646000</v>
+        <v>180994580000</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>26500</v>
       </c>
       <c r="E82">
-        <v>63894862000</v>
+        <v>61663995100</v>
       </c>
       <c r="F82">
-        <v>22801385000</v>
+        <v>22224962000</v>
       </c>
       <c r="G82">
         <v>497392000</v>
@@ -4478,13 +4478,13 @@
         <v>5048800</v>
       </c>
       <c r="I82">
-        <v>87193639000</v>
+        <v>84386349100</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-19T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>8022185522000</v>
+        <v>7304042284100</v>
       </c>
       <c r="L82">
         <v>455468600</v>
@@ -4493,13 +4493,13 @@
         <v>-2134300</v>
       </c>
       <c r="N82">
-        <v>-41093477000</v>
+        <v>-39439033100</v>
       </c>
       <c r="O82">
         <v>24261900</v>
       </c>
       <c r="P82">
-        <v>255719169000</v>
+        <v>141555546900</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>16300</v>
       </c>
       <c r="E83">
-        <v>45396655000</v>
+        <v>43815038200</v>
       </c>
       <c r="F83">
-        <v>17419769000</v>
+        <v>16965823400</v>
       </c>
       <c r="G83">
         <v>176700000</v>
@@ -4528,13 +4528,13 @@
         <v>3661900</v>
       </c>
       <c r="I83">
-        <v>62993124000</v>
+        <v>60957561600</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-19T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>8085178646000</v>
+        <v>7364999845700</v>
       </c>
       <c r="L83">
         <v>459130500</v>
@@ -4543,13 +4543,13 @@
         <v>-1604000</v>
       </c>
       <c r="N83">
-        <v>-27976886000</v>
+        <v>-26849214800</v>
       </c>
       <c r="O83">
         <v>22657900</v>
       </c>
       <c r="P83">
-        <v>227742283000</v>
+        <v>114706332100</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>15900</v>
       </c>
       <c r="E84">
-        <v>52547631000</v>
+        <v>50356923900</v>
       </c>
       <c r="F84">
-        <v>22474255000</v>
+        <v>21599031100</v>
       </c>
       <c r="G84">
         <v>314888000</v>
@@ -4578,13 +4578,13 @@
         <v>4603600</v>
       </c>
       <c r="I84">
-        <v>75336774000</v>
+        <v>72270843000</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-19T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>8160515420000</v>
+        <v>7437270688700</v>
       </c>
       <c r="L84">
         <v>463734100</v>
@@ -4593,13 +4593,13 @@
         <v>-1919700</v>
       </c>
       <c r="N84">
-        <v>-30073376000</v>
+        <v>-28757892800</v>
       </c>
       <c r="O84">
         <v>20738200</v>
       </c>
       <c r="P84">
-        <v>197668907000</v>
+        <v>85948439300</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>7200</v>
       </c>
       <c r="E85">
-        <v>54467348000</v>
+        <v>49806213800</v>
       </c>
       <c r="F85">
-        <v>27484500000</v>
+        <v>25399986600</v>
       </c>
       <c r="G85">
-        <v>175909000</v>
+        <v>172112800</v>
       </c>
       <c r="H85">
         <v>4827800</v>
       </c>
       <c r="I85">
-        <v>82127757000</v>
+        <v>75378313200</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-19T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>8242643177000</v>
+        <v>7512649001900</v>
       </c>
       <c r="L85">
         <v>468561900</v>
@@ -4643,13 +4643,13 @@
         <v>-1861200</v>
       </c>
       <c r="N85">
-        <v>-26982848000</v>
+        <v>-24406227200</v>
       </c>
       <c r="O85">
         <v>18877000</v>
       </c>
       <c r="P85">
-        <v>170686059000</v>
+        <v>61542212100</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>91800</v>
       </c>
       <c r="E86">
-        <v>51655871000</v>
+        <v>48043786700</v>
       </c>
       <c r="F86">
-        <v>32188949000</v>
+        <v>31042596500</v>
       </c>
       <c r="G86">
         <v>1118965000</v>
@@ -4678,13 +4678,13 @@
         <v>5167700</v>
       </c>
       <c r="I86">
-        <v>84963785000</v>
+        <v>80205348200</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-19T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>8327606962000</v>
+        <v>7592854350100</v>
       </c>
       <c r="L86">
         <v>473729600</v>
@@ -4693,13 +4693,13 @@
         <v>-1433100</v>
       </c>
       <c r="N86">
-        <v>-19466922000</v>
+        <v>-17001190200</v>
       </c>
       <c r="O86">
         <v>17443900</v>
       </c>
       <c r="P86">
-        <v>151219137000</v>
+        <v>44541021900</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>2300</v>
       </c>
       <c r="E87">
-        <v>31299456000</v>
+        <v>27843815100</v>
       </c>
       <c r="F87">
-        <v>39760554000</v>
+        <v>36478938900</v>
       </c>
       <c r="G87">
         <v>41800000</v>
@@ -4728,13 +4728,13 @@
         <v>4140700</v>
       </c>
       <c r="I87">
-        <v>71101810000</v>
+        <v>64364554000</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-19T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>8398708772000</v>
+        <v>7657218904100</v>
       </c>
       <c r="L87">
         <v>477870300</v>
@@ -4743,13 +4743,13 @@
         <v>-7000</v>
       </c>
       <c r="N87">
-        <v>8461098000</v>
+        <v>8635123800</v>
       </c>
       <c r="O87">
         <v>17436900</v>
       </c>
       <c r="P87">
-        <v>159680235000</v>
+        <v>53176145700</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>2500</v>
       </c>
       <c r="E88">
-        <v>22252872000</v>
+        <v>18574254300</v>
       </c>
       <c r="F88">
-        <v>64492171000</v>
+        <v>53690683300</v>
       </c>
       <c r="G88">
         <v>104237000</v>
@@ -4778,13 +4778,13 @@
         <v>4520100</v>
       </c>
       <c r="I88">
-        <v>86849280000</v>
+        <v>72369174600</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-19T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>8485558052000</v>
+        <v>7729588078700</v>
       </c>
       <c r="L88">
         <v>482390400</v>
@@ -4793,13 +4793,13 @@
         <v>1946800</v>
       </c>
       <c r="N88">
-        <v>42239299000</v>
+        <v>35116429000</v>
       </c>
       <c r="O88">
         <v>19383700</v>
       </c>
       <c r="P88">
-        <v>201919534000</v>
+        <v>88292574700</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>11200</v>
       </c>
       <c r="E89">
-        <v>27104623000</v>
+        <v>26348080300</v>
       </c>
       <c r="F89">
-        <v>68265530000</v>
+        <v>60371631800</v>
       </c>
       <c r="G89">
         <v>83693000</v>
@@ -4828,13 +4828,13 @@
         <v>5460000</v>
       </c>
       <c r="I89">
-        <v>95453846000</v>
+        <v>86803405100</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-19T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>8581011898000</v>
+        <v>7816391483800</v>
       </c>
       <c r="L89">
         <v>487850400</v>
@@ -4843,13 +4843,13 @@
         <v>2298600</v>
       </c>
       <c r="N89">
-        <v>41160907000</v>
+        <v>34023551500</v>
       </c>
       <c r="O89">
         <v>21682300</v>
       </c>
       <c r="P89">
-        <v>243080441000</v>
+        <v>122316126200</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>2800</v>
       </c>
       <c r="E90">
-        <v>27943575000</v>
+        <v>24128094300</v>
       </c>
       <c r="F90">
-        <v>40776319000</v>
+        <v>39291605200</v>
       </c>
       <c r="G90">
         <v>62577000</v>
@@ -4878,13 +4878,13 @@
         <v>3649000</v>
       </c>
       <c r="I90">
-        <v>68782471000</v>
+        <v>63482276500</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-19T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>8649794369000</v>
+        <v>7879873760300</v>
       </c>
       <c r="L90">
         <v>491499400</v>
@@ -4893,13 +4893,13 @@
         <v>833400</v>
       </c>
       <c r="N90">
-        <v>12832744000</v>
+        <v>15163510900</v>
       </c>
       <c r="O90">
         <v>22515700</v>
       </c>
       <c r="P90">
-        <v>255913185000</v>
+        <v>137479637100</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>3900</v>
       </c>
       <c r="E91">
-        <v>36964239000</v>
+        <v>34399406400</v>
       </c>
       <c r="F91">
-        <v>30196716000</v>
+        <v>27590125200</v>
       </c>
       <c r="G91">
         <v>73910000</v>
@@ -4928,13 +4928,13 @@
         <v>4014100</v>
       </c>
       <c r="I91">
-        <v>67234865000</v>
+        <v>62063441600</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-19T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>8717029234000</v>
+        <v>7941937201900</v>
       </c>
       <c r="L91">
         <v>495513500</v>
@@ -4943,13 +4943,13 @@
         <v>-474400</v>
       </c>
       <c r="N91">
-        <v>-6767523000</v>
+        <v>-6809281200</v>
       </c>
       <c r="O91">
         <v>22041300</v>
       </c>
       <c r="P91">
-        <v>249145662000</v>
+        <v>130670355900</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>33300</v>
       </c>
       <c r="E92">
-        <v>64130260000</v>
+        <v>61652040700</v>
       </c>
       <c r="F92">
-        <v>51871474000</v>
+        <v>49274273800</v>
       </c>
       <c r="G92">
-        <v>663555000</v>
+        <v>650967600</v>
       </c>
       <c r="H92">
         <v>7169300</v>
       </c>
       <c r="I92">
-        <v>116665289000</v>
+        <v>111577282100</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-19T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>8833694523000</v>
+        <v>8053514484000</v>
       </c>
       <c r="L92">
         <v>502682800</v>
@@ -4993,13 +4993,13 @@
         <v>-234000</v>
       </c>
       <c r="N92">
-        <v>-12258786000</v>
+        <v>-12377766900</v>
       </c>
       <c r="O92">
         <v>21807300</v>
       </c>
       <c r="P92">
-        <v>236886876000</v>
+        <v>118292589000</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>2300</v>
       </c>
       <c r="E93">
-        <v>60637144000</v>
+        <v>59759622400</v>
       </c>
       <c r="F93">
-        <v>47965389000</v>
+        <v>45814841700</v>
       </c>
       <c r="G93">
         <v>22397000</v>
@@ -5028,13 +5028,13 @@
         <v>6603800</v>
       </c>
       <c r="I93">
-        <v>108624930000</v>
+        <v>105596861100</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-19T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>8942319453000</v>
+        <v>8159111345100</v>
       </c>
       <c r="L93">
         <v>509286600</v>
@@ -5043,13 +5043,13 @@
         <v>-77100</v>
       </c>
       <c r="N93">
-        <v>-12671755000</v>
+        <v>-13944780700</v>
       </c>
       <c r="O93">
         <v>21730200</v>
       </c>
       <c r="P93">
-        <v>224215121000</v>
+        <v>104347808300</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>156300</v>
       </c>
       <c r="E94">
-        <v>81398247000</v>
+        <v>79672074900</v>
       </c>
       <c r="F94">
-        <v>29265020000</v>
+        <v>26753833700</v>
       </c>
       <c r="G94">
         <v>538989000</v>
@@ -5078,13 +5078,13 @@
         <v>6484400</v>
       </c>
       <c r="I94">
-        <v>111202256000</v>
+        <v>106964897600</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-19T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>9053521709000</v>
+        <v>8266076242700</v>
       </c>
       <c r="L94">
         <v>515771000</v>
@@ -5093,13 +5093,13 @@
         <v>-2934700</v>
       </c>
       <c r="N94">
-        <v>-52133227000</v>
+        <v>-52918241200</v>
       </c>
       <c r="O94">
         <v>18795500</v>
       </c>
       <c r="P94">
-        <v>172081894000</v>
+        <v>51429567100</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>13800</v>
       </c>
       <c r="E95">
-        <v>100250473000</v>
+        <v>89643190900</v>
       </c>
       <c r="F95">
-        <v>25775783000</v>
+        <v>24201758600</v>
       </c>
       <c r="G95">
         <v>275795000</v>
@@ -5128,13 +5128,13 @@
         <v>7617000</v>
       </c>
       <c r="I95">
-        <v>126302051000</v>
+        <v>114120744500</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-19T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>9179823760000</v>
+        <v>8380196987200</v>
       </c>
       <c r="L95">
         <v>523388000</v>
@@ -5143,13 +5143,13 @@
         <v>-4252000</v>
       </c>
       <c r="N95">
-        <v>-74474690000</v>
+        <v>-65441432300</v>
       </c>
       <c r="O95">
         <v>14543500</v>
       </c>
       <c r="P95">
-        <v>97607204000</v>
+        <v>-14011865200</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>30100</v>
       </c>
       <c r="E96">
-        <v>142972993000</v>
+        <v>124312672000</v>
       </c>
       <c r="F96">
-        <v>23834094000</v>
+        <v>18133300500</v>
       </c>
       <c r="G96">
         <v>580989000</v>
@@ -5178,13 +5178,13 @@
         <v>10596700</v>
       </c>
       <c r="I96">
-        <v>167388076000</v>
+        <v>143026961500</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-19T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>9347211836000</v>
+        <v>8523223948700</v>
       </c>
       <c r="L96">
         <v>533984700</v>
@@ -5193,13 +5193,13 @@
         <v>-7658800</v>
       </c>
       <c r="N96">
-        <v>-119138899000</v>
+        <v>-106179371500</v>
       </c>
       <c r="O96">
         <v>6884700</v>
       </c>
       <c r="P96">
-        <v>-21531695000</v>
+        <v>-120191236700</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>24900</v>
       </c>
       <c r="E97">
-        <v>195015986000</v>
+        <v>182427087500</v>
       </c>
       <c r="F97">
-        <v>29816129000</v>
+        <v>27129917900</v>
       </c>
       <c r="G97">
-        <v>532762000</v>
+        <v>364930000</v>
       </c>
       <c r="H97">
         <v>13036900</v>
       </c>
       <c r="I97">
-        <v>225364877000</v>
+        <v>209921935400</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-19T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>9572576713000</v>
+        <v>8733145884100</v>
       </c>
       <c r="L97">
         <v>547021600</v>
@@ -5243,13 +5243,13 @@
         <v>-9823800</v>
       </c>
       <c r="N97">
-        <v>-165199857000</v>
+        <v>-155297169600</v>
       </c>
       <c r="O97">
         <v>-2939100</v>
       </c>
       <c r="P97">
-        <v>-186731552000</v>
+        <v>-275488406300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>105600</v>
       </c>
       <c r="E98">
-        <v>127871420000</v>
+        <v>114566937800</v>
       </c>
       <c r="F98">
-        <v>44546893000</v>
+        <v>42526815100</v>
       </c>
       <c r="G98">
         <v>1378273000</v>
@@ -5278,13 +5278,13 @@
         <v>10434500</v>
       </c>
       <c r="I98">
-        <v>173796586000</v>
+        <v>158472025900</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-19T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>9746373299000</v>
+        <v>8891617910000</v>
       </c>
       <c r="L98">
         <v>557456100</v>
@@ -5293,13 +5293,13 @@
         <v>-5275900</v>
       </c>
       <c r="N98">
-        <v>-83324527000</v>
+        <v>-72040122700</v>
       </c>
       <c r="O98">
         <v>-8215000</v>
       </c>
       <c r="P98">
-        <v>-270056079000</v>
+        <v>-347528529000</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>57700</v>
       </c>
       <c r="E99">
-        <v>92431115000</v>
+        <v>86178374000</v>
       </c>
       <c r="F99">
-        <v>34189725000</v>
+        <v>30727590600</v>
       </c>
       <c r="G99">
         <v>992837000</v>
@@ -5328,13 +5328,13 @@
         <v>7547400</v>
       </c>
       <c r="I99">
-        <v>127613677000</v>
+        <v>117898801600</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-19T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>9873986976000</v>
+        <v>9009516711600</v>
       </c>
       <c r="L99">
         <v>565003500</v>
@@ -5343,13 +5343,13 @@
         <v>-3247100</v>
       </c>
       <c r="N99">
-        <v>-58241390000</v>
+        <v>-55450783400</v>
       </c>
       <c r="O99">
         <v>-11462100</v>
       </c>
       <c r="P99">
-        <v>-328297469000</v>
+        <v>-402979312400</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>47800</v>
       </c>
       <c r="E100">
-        <v>64867061000</v>
+        <v>62286444200</v>
       </c>
       <c r="F100">
-        <v>53468265000</v>
+        <v>49266071400</v>
       </c>
       <c r="G100">
         <v>815291000</v>
@@ -5378,13 +5378,13 @@
         <v>6933700</v>
       </c>
       <c r="I100">
-        <v>119150617000</v>
+        <v>112367806600</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-19T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>9993137593000</v>
+        <v>9121884518200</v>
       </c>
       <c r="L100">
         <v>571937200</v>
@@ -5393,13 +5393,13 @@
         <v>-399900</v>
       </c>
       <c r="N100">
-        <v>-11398796000</v>
+        <v>-13020372800</v>
       </c>
       <c r="O100">
         <v>-11862000</v>
       </c>
       <c r="P100">
-        <v>-339696265000</v>
+        <v>-415999685200</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>21100</v>
       </c>
       <c r="E101">
-        <v>37457327000</v>
+        <v>31699290800</v>
       </c>
       <c r="F101">
-        <v>66892728000</v>
+        <v>56025805800</v>
       </c>
       <c r="G101">
         <v>300314000</v>
@@ -5428,13 +5428,13 @@
         <v>5911400</v>
       </c>
       <c r="I101">
-        <v>104650369000</v>
+        <v>88025410600</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-19T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>10097787962000</v>
+        <v>9209909928800</v>
       </c>
       <c r="L101">
         <v>577848600</v>
@@ -5443,13 +5443,13 @@
         <v>2006100</v>
       </c>
       <c r="N101">
-        <v>29435401000</v>
+        <v>24326515000</v>
       </c>
       <c r="O101">
         <v>-9855900</v>
       </c>
       <c r="P101">
-        <v>-310260864000</v>
+        <v>-391673170200</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>10700</v>
       </c>
       <c r="E102">
-        <v>29705221000</v>
+        <v>23363369200</v>
       </c>
       <c r="F102">
-        <v>50815347000</v>
+        <v>42515355300</v>
       </c>
       <c r="G102">
         <v>289541000</v>
@@ -5478,13 +5478,13 @@
         <v>4625100</v>
       </c>
       <c r="I102">
-        <v>80810109000</v>
+        <v>66168265500</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-19T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>10178598071000</v>
+        <v>9276078194300</v>
       </c>
       <c r="L102">
         <v>582473700</v>
@@ -5493,13 +5493,13 @@
         <v>1656800</v>
       </c>
       <c r="N102">
-        <v>21110126000</v>
+        <v>19151986100</v>
       </c>
       <c r="O102">
         <v>-8199100</v>
       </c>
       <c r="P102">
-        <v>-289150738000</v>
+        <v>-372521184100</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>21900</v>
       </c>
       <c r="E103">
-        <v>93881232000</v>
+        <v>80970255900</v>
       </c>
       <c r="F103">
-        <v>23334792000</v>
+        <v>19901728500</v>
       </c>
       <c r="G103">
-        <v>500820000</v>
+        <v>398322600</v>
       </c>
       <c r="H103">
         <v>6127900</v>
       </c>
       <c r="I103">
-        <v>117716844000</v>
+        <v>101270307000</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-19T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>10296314915000</v>
+        <v>9377348501300</v>
       </c>
       <c r="L103">
         <v>588601600</v>
@@ -5543,13 +5543,13 @@
         <v>-3719800</v>
       </c>
       <c r="N103">
-        <v>-70546440000</v>
+        <v>-61068527400</v>
       </c>
       <c r="O103">
         <v>-11918900</v>
       </c>
       <c r="P103">
-        <v>-359697178000</v>
+        <v>-433589711500</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>80800</v>
       </c>
       <c r="E104">
-        <v>132642882000</v>
+        <v>118252187100</v>
       </c>
       <c r="F104">
-        <v>25506612000</v>
+        <v>21067855200</v>
       </c>
       <c r="G104">
-        <v>1414276000</v>
+        <v>1404086200</v>
       </c>
       <c r="H104">
         <v>9061900</v>
       </c>
       <c r="I104">
-        <v>159563770000</v>
+        <v>140724128500</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-19T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>10455878685000</v>
+        <v>9518072629800</v>
       </c>
       <c r="L104">
         <v>597663500</v>
@@ -5593,13 +5593,13 @@
         <v>-6393500</v>
       </c>
       <c r="N104">
-        <v>-107136270000</v>
+        <v>-97184331900</v>
       </c>
       <c r="O104">
         <v>-18312400</v>
       </c>
       <c r="P104">
-        <v>-466833448000</v>
+        <v>-530774043400</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>27600</v>
       </c>
       <c r="E105">
-        <v>176335879000</v>
+        <v>140393757100</v>
       </c>
       <c r="F105">
-        <v>31393013000</v>
+        <v>25531380500</v>
       </c>
       <c r="G105">
-        <v>690749000</v>
+        <v>661977800</v>
       </c>
       <c r="H105">
         <v>12256700</v>
       </c>
       <c r="I105">
-        <v>208419641000</v>
+        <v>166587115400</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-19T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>10664298326000</v>
+        <v>9684659745200</v>
       </c>
       <c r="L105">
         <v>609920200</v>
@@ -5643,13 +5643,13 @@
         <v>-8607100</v>
       </c>
       <c r="N105">
-        <v>-144942866000</v>
+        <v>-114862376600</v>
       </c>
       <c r="O105">
         <v>-26919500</v>
       </c>
       <c r="P105">
-        <v>-611776314000</v>
+        <v>-645636420000</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>149300</v>
       </c>
       <c r="E106">
-        <v>146050119000</v>
+        <v>134670010500</v>
       </c>
       <c r="F106">
-        <v>59014399000</v>
+        <v>47810614000</v>
       </c>
       <c r="G106">
-        <v>2208534000</v>
+        <v>2152590000</v>
       </c>
       <c r="H106">
         <v>12557300</v>
       </c>
       <c r="I106">
-        <v>207273052000</v>
+        <v>184633214500</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-19T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>10871571378000</v>
+        <v>9869292959700</v>
       </c>
       <c r="L106">
         <v>622477500</v>
@@ -5693,13 +5693,13 @@
         <v>-6098400</v>
       </c>
       <c r="N106">
-        <v>-87035720000</v>
+        <v>-86859396500</v>
       </c>
       <c r="O106">
         <v>-33017900</v>
       </c>
       <c r="P106">
-        <v>-698812034000</v>
+        <v>-732495816500</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>99900</v>
       </c>
       <c r="E107">
-        <v>43150417000</v>
+        <v>39885585100</v>
       </c>
       <c r="F107">
-        <v>91404340000</v>
+        <v>82229823700</v>
       </c>
       <c r="G107">
-        <v>1264498000</v>
+        <v>1256106400</v>
       </c>
       <c r="H107">
         <v>8163600</v>
       </c>
       <c r="I107">
-        <v>135819255000</v>
+        <v>123371515200</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-19T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>11007390633000</v>
+        <v>9992664474900</v>
       </c>
       <c r="L107">
         <v>630641100</v>
@@ -5743,13 +5743,13 @@
         <v>2895300</v>
       </c>
       <c r="N107">
-        <v>48253923000</v>
+        <v>42344238600</v>
       </c>
       <c r="O107">
         <v>-30122600</v>
       </c>
       <c r="P107">
-        <v>-650558111000</v>
+        <v>-690151577900</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>44400</v>
       </c>
       <c r="E108">
-        <v>27080863000</v>
+        <v>25996948000</v>
       </c>
       <c r="F108">
-        <v>65936698000</v>
+        <v>58973368300</v>
       </c>
       <c r="G108">
         <v>345681000</v>
@@ -5778,13 +5778,13 @@
         <v>5522900</v>
       </c>
       <c r="I108">
-        <v>93363242000</v>
+        <v>85315997300</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-19T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>11100753875000</v>
+        <v>10077980472200</v>
       </c>
       <c r="L108">
         <v>636164000</v>
@@ -5793,13 +5793,13 @@
         <v>1896500</v>
       </c>
       <c r="N108">
-        <v>38855835000</v>
+        <v>32976420300</v>
       </c>
       <c r="O108">
         <v>-28226100</v>
       </c>
       <c r="P108">
-        <v>-611702276000</v>
+        <v>-657175157600</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>4800</v>
       </c>
       <c r="E109">
-        <v>38338776000</v>
+        <v>35596720800</v>
       </c>
       <c r="F109">
-        <v>48679505000</v>
+        <v>45494792900</v>
       </c>
       <c r="G109">
-        <v>222144000</v>
+        <v>216549600</v>
       </c>
       <c r="H109">
         <v>5196100</v>
       </c>
       <c r="I109">
-        <v>87240425000</v>
+        <v>81308063300</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-19T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>11187994300000</v>
+        <v>10159288535500</v>
       </c>
       <c r="L109">
         <v>641360100</v>
@@ -5843,13 +5843,13 @@
         <v>571900</v>
       </c>
       <c r="N109">
-        <v>10340729000</v>
+        <v>9898072100</v>
       </c>
       <c r="O109">
         <v>-27654200</v>
       </c>
       <c r="P109">
-        <v>-601361547000</v>
+        <v>-647277085500</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>34700</v>
       </c>
       <c r="E110">
-        <v>96255988000</v>
+        <v>84795559900</v>
       </c>
       <c r="F110">
-        <v>35389496000</v>
+        <v>29990700200</v>
       </c>
       <c r="G110">
-        <v>775019000</v>
+        <v>355439000</v>
       </c>
       <c r="H110">
         <v>7348700</v>
       </c>
       <c r="I110">
-        <v>132420503000</v>
+        <v>115141699100</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-19T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>11320414803000</v>
+        <v>10274430234600</v>
       </c>
       <c r="L110">
         <v>648708800</v>
@@ -5893,13 +5893,13 @@
         <v>-3551400</v>
       </c>
       <c r="N110">
-        <v>-60866492000</v>
+        <v>-54804859700</v>
       </c>
       <c r="O110">
         <v>-31205600</v>
       </c>
       <c r="P110">
-        <v>-662228039000</v>
+        <v>-702081945200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>75500</v>
       </c>
       <c r="E111">
-        <v>107631508000</v>
+        <v>96162888100</v>
       </c>
       <c r="F111">
-        <v>37227638000</v>
+        <v>31507763600</v>
       </c>
       <c r="G111">
-        <v>1209260000</v>
+        <v>1197771500</v>
       </c>
       <c r="H111">
         <v>8393200</v>
       </c>
       <c r="I111">
-        <v>146068406000</v>
+        <v>128868423200</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-19T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>11466483209000</v>
+        <v>10403298657800</v>
       </c>
       <c r="L111">
         <v>657102000</v>
@@ -5943,13 +5943,13 @@
         <v>-4323500</v>
       </c>
       <c r="N111">
-        <v>-70403870000</v>
+        <v>-64655124500</v>
       </c>
       <c r="O111">
         <v>-35529100</v>
       </c>
       <c r="P111">
-        <v>-732631909000</v>
+        <v>-766737069700</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>64600</v>
       </c>
       <c r="E112">
-        <v>140001244000</v>
+        <v>124322938000</v>
       </c>
       <c r="F112">
-        <v>44760649000</v>
+        <v>35878939600</v>
       </c>
       <c r="G112">
-        <v>1644771000</v>
+        <v>1634781000</v>
       </c>
       <c r="H112">
         <v>10745000</v>
       </c>
       <c r="I112">
-        <v>186406664000</v>
+        <v>161836658600</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-19T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>11652889873000</v>
+        <v>10565135316400</v>
       </c>
       <c r="L112">
         <v>667847000</v>
@@ -5993,13 +5993,13 @@
         <v>-5820000</v>
       </c>
       <c r="N112">
-        <v>-95240595000</v>
+        <v>-88443998400</v>
       </c>
       <c r="O112">
         <v>-41349100</v>
       </c>
       <c r="P112">
-        <v>-827872504000</v>
+        <v>-855181068100</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>156100</v>
       </c>
       <c r="E113">
-        <v>340510531000</v>
+        <v>305488987600</v>
       </c>
       <c r="F113">
-        <v>62707989000</v>
+        <v>56616886200</v>
       </c>
       <c r="G113">
         <v>2583091000</v>
@@ -6028,13 +6028,13 @@
         <v>24520800</v>
       </c>
       <c r="I113">
-        <v>405801611000</v>
+        <v>364688964800</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-19T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>12058691484000</v>
+        <v>10929824281200</v>
       </c>
       <c r="L113">
         <v>692367800</v>
@@ -6043,13 +6043,13 @@
         <v>-17268900</v>
       </c>
       <c r="N113">
-        <v>-277802542000</v>
+        <v>-248872101400</v>
       </c>
       <c r="O113">
         <v>-58618000</v>
       </c>
       <c r="P113">
-        <v>-1105675046000</v>
+        <v>-1104053169500</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>298000</v>
       </c>
       <c r="E114">
-        <v>283592962000</v>
+        <v>237731169700</v>
       </c>
       <c r="F114">
-        <v>98092671000</v>
+        <v>93877790100</v>
       </c>
       <c r="G114">
         <v>4709615000</v>
@@ -6078,13 +6078,13 @@
         <v>23048000</v>
       </c>
       <c r="I114">
-        <v>386395248000</v>
+        <v>336318574800</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-19T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>12445086732000</v>
+        <v>11266142856000</v>
       </c>
       <c r="L114">
         <v>715415800</v>
@@ -6093,13 +6093,13 @@
         <v>-11484400</v>
       </c>
       <c r="N114">
-        <v>-185500291000</v>
+        <v>-143853379600</v>
       </c>
       <c r="O114">
         <v>-70102400</v>
       </c>
       <c r="P114">
-        <v>-1291175337000</v>
+        <v>-1247906549100</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>229600</v>
       </c>
       <c r="E115">
-        <v>137706051000</v>
+        <v>127885081800</v>
       </c>
       <c r="F115">
-        <v>113523828000</v>
+        <v>100681982700</v>
       </c>
       <c r="G115">
-        <v>3381064000</v>
+        <v>3342802300</v>
       </c>
       <c r="H115">
         <v>15937000</v>
       </c>
       <c r="I115">
-        <v>254610943000</v>
+        <v>231909866800</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-19T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>12699697675000</v>
+        <v>11498052722800</v>
       </c>
       <c r="L115">
         <v>731352800</v>
@@ -6143,13 +6143,13 @@
         <v>-1023400</v>
       </c>
       <c r="N115">
-        <v>-24182223000</v>
+        <v>-27203099100</v>
       </c>
       <c r="O115">
         <v>-71125800</v>
       </c>
       <c r="P115">
-        <v>-1315357560000</v>
+        <v>-1275109648200</v>
       </c>
     </row>
     <row r="116">
@@ -6169,7 +6169,7 @@
         <v>214820000</v>
       </c>
       <c r="F116">
-        <v>516018000</v>
+        <v>323211000</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>59700</v>
       </c>
       <c r="I116">
-        <v>730838000</v>
+        <v>538031000</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-19T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>12700428513000</v>
+        <v>11498590753800</v>
       </c>
       <c r="L116">
         <v>731412500</v>
@@ -6193,13 +6193,13 @@
         <v>24900</v>
       </c>
       <c r="N116">
-        <v>301198000</v>
+        <v>108391000</v>
       </c>
       <c r="O116">
         <v>-71100900</v>
       </c>
       <c r="P116">
-        <v>-1315056362000</v>
+        <v>-1275001257200</v>
       </c>
     </row>
     <row r="117">
@@ -6234,7 +6234,7 @@
         <v>2022-12-19T14:38:00.000Z</v>
       </c>
       <c r="K117">
-        <v>12700437603000</v>
+        <v>11498599843800</v>
       </c>
       <c r="L117">
         <v>731413400</v>
@@ -6249,7 +6249,7 @@
         <v>-71101800</v>
       </c>
       <c r="P117">
-        <v>-1315065452000</v>
+        <v>-1275010347200</v>
       </c>
     </row>
     <row r="118">
@@ -6266,25 +6266,25 @@
         <v>32330600</v>
       </c>
       <c r="E118">
-        <v>424090994000</v>
+        <v>341482185500</v>
       </c>
       <c r="F118">
-        <v>302783019000</v>
+        <v>278180845800</v>
       </c>
       <c r="G118">
-        <v>542408630000</v>
+        <v>431505943700</v>
       </c>
       <c r="H118">
         <v>73134500</v>
       </c>
       <c r="I118">
-        <v>1269282643000</v>
+        <v>1051168975000</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-19T14:44:00.000Z</v>
       </c>
       <c r="K118">
-        <v>13969720246000</v>
+        <v>12549768818800</v>
       </c>
       <c r="L118">
         <v>804547900</v>
@@ -6293,13 +6293,13 @@
         <v>-6549700</v>
       </c>
       <c r="N118">
-        <v>-121307975000</v>
+        <v>-63301339700</v>
       </c>
       <c r="O118">
         <v>-77651500</v>
       </c>
       <c r="P118">
-        <v>-1436373427000</v>
+        <v>-1338311686900</v>
       </c>
     </row>
     <row r="119">
@@ -6334,7 +6334,7 @@
         <v>2022-12-19T14:48:00.000Z</v>
       </c>
       <c r="K119">
-        <v>13969722266000</v>
+        <v>12549770838800</v>
       </c>
       <c r="L119">
         <v>804548100</v>
@@ -6349,7 +6349,7 @@
         <v>-77651700</v>
       </c>
       <c r="P119">
-        <v>-1436375447000</v>
+        <v>-1338313706900</v>
       </c>
     </row>
     <row r="120">
@@ -6384,7 +6384,7 @@
         <v>2022-12-19T14:52:00.000Z</v>
       </c>
       <c r="K120">
-        <v>13969732366000</v>
+        <v>12549780938800</v>
       </c>
       <c r="L120">
         <v>804549100</v>
@@ -6399,7 +6399,7 @@
         <v>-77652700</v>
       </c>
       <c r="P120">
-        <v>-1436385547000</v>
+        <v>-1338323806900</v>
       </c>
     </row>
     <row r="121">
@@ -6434,7 +6434,7 @@
         <v>2022-12-19T14:56:00.000Z</v>
       </c>
       <c r="K121">
-        <v>13969772766000</v>
+        <v>12549821338800</v>
       </c>
       <c r="L121">
         <v>804553100</v>
@@ -6449,7 +6449,7 @@
         <v>-77656700</v>
       </c>
       <c r="P121">
-        <v>-1436425947000</v>
+        <v>-1338364206900</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221219/VNINDEX_HOSE_5p_20221219.xlsx
+++ b/name/vnindex/20221219/VNINDEX_HOSE_5p_20221219.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-19575693400</v>
       </c>
+      <c r="Q2">
+        <v>56170810600</v>
+      </c>
+      <c r="R2">
+        <v>75746504000</v>
+      </c>
+      <c r="S2">
+        <v>5470600</v>
+      </c>
+      <c r="T2">
+        <v>4704300</v>
+      </c>
+      <c r="U2">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V2">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W2">
+        <v>104581844490</v>
+      </c>
+      <c r="X2">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y2">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z2">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA2">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB2">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC2">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-31139585300</v>
       </c>
+      <c r="Q3">
+        <v>109961691600</v>
+      </c>
+      <c r="R3">
+        <v>141101276900</v>
+      </c>
+      <c r="S3">
+        <v>9101500</v>
+      </c>
+      <c r="T3">
+        <v>8460400</v>
+      </c>
+      <c r="U3">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V3">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W3">
+        <v>104581844490</v>
+      </c>
+      <c r="X3">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y3">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z3">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA3">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB3">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-37145271200</v>
       </c>
+      <c r="Q4">
+        <v>150760414000</v>
+      </c>
+      <c r="R4">
+        <v>187905685200</v>
+      </c>
+      <c r="S4">
+        <v>12079600</v>
+      </c>
+      <c r="T4">
+        <v>11430800</v>
+      </c>
+      <c r="U4">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V4">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W4">
+        <v>104581844490</v>
+      </c>
+      <c r="X4">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y4">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z4">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA4">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB4">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-65127673000</v>
       </c>
+      <c r="Q5">
+        <v>182930506800</v>
+      </c>
+      <c r="R5">
+        <v>248058179800</v>
+      </c>
+      <c r="S5">
+        <v>14306200</v>
+      </c>
+      <c r="T5">
+        <v>14924500</v>
+      </c>
+      <c r="U5">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V5">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W5">
+        <v>104581844490</v>
+      </c>
+      <c r="X5">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y5">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z5">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA5">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB5">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC5">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-81874210200</v>
       </c>
+      <c r="Q6">
+        <v>215846834000</v>
+      </c>
+      <c r="R6">
+        <v>297721044200</v>
+      </c>
+      <c r="S6">
+        <v>16372300</v>
+      </c>
+      <c r="T6">
+        <v>17993600</v>
+      </c>
+      <c r="U6">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V6">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W6">
+        <v>104581844490</v>
+      </c>
+      <c r="X6">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y6">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z6">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA6">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB6">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-86086450300</v>
       </c>
+      <c r="Q7">
+        <v>253367799600</v>
+      </c>
+      <c r="R7">
+        <v>339454249900</v>
+      </c>
+      <c r="S7">
+        <v>18861700</v>
+      </c>
+      <c r="T7">
+        <v>20772800</v>
+      </c>
+      <c r="U7">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V7">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W7">
+        <v>104581844490</v>
+      </c>
+      <c r="X7">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y7">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z7">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA7">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB7">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC7">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-65810078800</v>
       </c>
+      <c r="Q8">
+        <v>304964881700</v>
+      </c>
+      <c r="R8">
+        <v>370774960500</v>
+      </c>
+      <c r="S8">
+        <v>22323000</v>
+      </c>
+      <c r="T8">
+        <v>22754700</v>
+      </c>
+      <c r="U8">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V8">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W8">
+        <v>104581844490</v>
+      </c>
+      <c r="X8">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y8">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z8">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA8">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB8">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC8">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-23417161800</v>
       </c>
+      <c r="Q9">
+        <v>372757426700</v>
+      </c>
+      <c r="R9">
+        <v>396174588500</v>
+      </c>
+      <c r="S9">
+        <v>26458800</v>
+      </c>
+      <c r="T9">
+        <v>24197400</v>
+      </c>
+      <c r="U9">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V9">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W9">
+        <v>104581844490</v>
+      </c>
+      <c r="X9">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y9">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z9">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA9">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB9">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC9">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-36503978200</v>
       </c>
+      <c r="Q10">
+        <v>407425684000</v>
+      </c>
+      <c r="R10">
+        <v>443929662200</v>
+      </c>
+      <c r="S10">
+        <v>28614500</v>
+      </c>
+      <c r="T10">
+        <v>27355000</v>
+      </c>
+      <c r="U10">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V10">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W10">
+        <v>104581844490</v>
+      </c>
+      <c r="X10">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y10">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z10">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA10">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB10">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC10">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-48404410700</v>
       </c>
+      <c r="Q11">
+        <v>442789963500</v>
+      </c>
+      <c r="R11">
+        <v>491194374200</v>
+      </c>
+      <c r="S11">
+        <v>30802800</v>
+      </c>
+      <c r="T11">
+        <v>30011000</v>
+      </c>
+      <c r="U11">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V11">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W11">
+        <v>104581844490</v>
+      </c>
+      <c r="X11">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y11">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z11">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA11">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB11">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC11">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-51443459600</v>
       </c>
+      <c r="Q12">
+        <v>477447413100</v>
+      </c>
+      <c r="R12">
+        <v>528890872700</v>
+      </c>
+      <c r="S12">
+        <v>32815800</v>
+      </c>
+      <c r="T12">
+        <v>32051700</v>
+      </c>
+      <c r="U12">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V12">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W12">
+        <v>104581844490</v>
+      </c>
+      <c r="X12">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y12">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z12">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA12">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB12">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC12">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-52675013800</v>
       </c>
+      <c r="Q13">
+        <v>509955126600</v>
+      </c>
+      <c r="R13">
+        <v>562630140400</v>
+      </c>
+      <c r="S13">
+        <v>35056700</v>
+      </c>
+      <c r="T13">
+        <v>34144100</v>
+      </c>
+      <c r="U13">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V13">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W13">
+        <v>104581844490</v>
+      </c>
+      <c r="X13">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y13">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z13">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA13">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB13">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC13">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-49607033700</v>
       </c>
+      <c r="Q14">
+        <v>539781488500</v>
+      </c>
+      <c r="R14">
+        <v>589388522200</v>
+      </c>
+      <c r="S14">
+        <v>37037900</v>
+      </c>
+      <c r="T14">
+        <v>35711600</v>
+      </c>
+      <c r="U14">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V14">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W14">
+        <v>104581844490</v>
+      </c>
+      <c r="X14">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y14">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z14">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA14">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB14">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-51001069900</v>
       </c>
+      <c r="Q15">
+        <v>570020838700</v>
+      </c>
+      <c r="R15">
+        <v>621021908600</v>
+      </c>
+      <c r="S15">
+        <v>38967000</v>
+      </c>
+      <c r="T15">
+        <v>37655100</v>
+      </c>
+      <c r="U15">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V15">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W15">
+        <v>104581844490</v>
+      </c>
+      <c r="X15">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y15">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z15">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA15">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB15">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC15">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-20895830100</v>
       </c>
+      <c r="Q16">
+        <v>626791202400</v>
+      </c>
+      <c r="R16">
+        <v>647687032500</v>
+      </c>
+      <c r="S16">
+        <v>42229700</v>
+      </c>
+      <c r="T16">
+        <v>39362200</v>
+      </c>
+      <c r="U16">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V16">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W16">
+        <v>104581844490</v>
+      </c>
+      <c r="X16">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y16">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z16">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA16">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB16">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC16">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>27414516400</v>
       </c>
+      <c r="Q17">
+        <v>696668478600</v>
+      </c>
+      <c r="R17">
+        <v>669253962200</v>
+      </c>
+      <c r="S17">
+        <v>46713800</v>
+      </c>
+      <c r="T17">
+        <v>40690000</v>
+      </c>
+      <c r="U17">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V17">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W17">
+        <v>104581844490</v>
+      </c>
+      <c r="X17">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y17">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z17">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA17">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB17">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC17">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>77103342400</v>
       </c>
+      <c r="Q18">
+        <v>770523238000</v>
+      </c>
+      <c r="R18">
+        <v>693419895600</v>
+      </c>
+      <c r="S18">
+        <v>52236700</v>
+      </c>
+      <c r="T18">
+        <v>42087500</v>
+      </c>
+      <c r="U18">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V18">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W18">
+        <v>104581844490</v>
+      </c>
+      <c r="X18">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y18">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z18">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA18">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB18">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC18">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>146068192800</v>
       </c>
+      <c r="Q19">
+        <v>864676508200</v>
+      </c>
+      <c r="R19">
+        <v>718608315400</v>
+      </c>
+      <c r="S19">
+        <v>59315300</v>
+      </c>
+      <c r="T19">
+        <v>43671200</v>
+      </c>
+      <c r="U19">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V19">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W19">
+        <v>104581844490</v>
+      </c>
+      <c r="X19">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y19">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z19">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA19">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB19">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC19">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>207201417400</v>
       </c>
+      <c r="Q20">
+        <v>953402997700</v>
+      </c>
+      <c r="R20">
+        <v>746201580300</v>
+      </c>
+      <c r="S20">
+        <v>64660400</v>
+      </c>
+      <c r="T20">
+        <v>45353600</v>
+      </c>
+      <c r="U20">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V20">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W20">
+        <v>104581844490</v>
+      </c>
+      <c r="X20">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y20">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z20">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA20">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB20">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC20">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>229955493800</v>
       </c>
+      <c r="Q21">
+        <v>1028549893600</v>
+      </c>
+      <c r="R21">
+        <v>798594399800</v>
+      </c>
+      <c r="S21">
+        <v>70625100</v>
+      </c>
+      <c r="T21">
+        <v>48158700</v>
+      </c>
+      <c r="U21">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V21">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W21">
+        <v>104581844490</v>
+      </c>
+      <c r="X21">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y21">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z21">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA21">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB21">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>220087404500</v>
       </c>
+      <c r="Q22">
+        <v>1065528121900</v>
+      </c>
+      <c r="R22">
+        <v>845440717400</v>
+      </c>
+      <c r="S22">
+        <v>73203600</v>
+      </c>
+      <c r="T22">
+        <v>51092100</v>
+      </c>
+      <c r="U22">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V22">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W22">
+        <v>104581844490</v>
+      </c>
+      <c r="X22">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y22">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z22">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA22">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB22">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC22">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>213181336200</v>
       </c>
+      <c r="Q23">
+        <v>1103944012100</v>
+      </c>
+      <c r="R23">
+        <v>890762675900</v>
+      </c>
+      <c r="S23">
+        <v>75892200</v>
+      </c>
+      <c r="T23">
+        <v>53923100</v>
+      </c>
+      <c r="U23">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V23">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W23">
+        <v>104581844490</v>
+      </c>
+      <c r="X23">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y23">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z23">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA23">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB23">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC23">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>204037544600</v>
       </c>
+      <c r="Q24">
+        <v>1137344261200</v>
+      </c>
+      <c r="R24">
+        <v>933306716600</v>
+      </c>
+      <c r="S24">
+        <v>78301700</v>
+      </c>
+      <c r="T24">
+        <v>56665200</v>
+      </c>
+      <c r="U24">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V24">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W24">
+        <v>104581844490</v>
+      </c>
+      <c r="X24">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y24">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z24">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA24">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB24">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC24">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>188792290500</v>
       </c>
+      <c r="Q25">
+        <v>1166642240300</v>
+      </c>
+      <c r="R25">
+        <v>977849949800</v>
+      </c>
+      <c r="S25">
+        <v>80521200</v>
+      </c>
+      <c r="T25">
+        <v>59525100</v>
+      </c>
+      <c r="U25">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V25">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W25">
+        <v>104581844490</v>
+      </c>
+      <c r="X25">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y25">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z25">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA25">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB25">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC25">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>168998923300</v>
       </c>
+      <c r="Q26">
+        <v>1187597871900</v>
+      </c>
+      <c r="R26">
+        <v>1018598948600</v>
+      </c>
+      <c r="S26">
+        <v>82304500</v>
+      </c>
+      <c r="T26">
+        <v>62438200</v>
+      </c>
+      <c r="U26">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V26">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W26">
+        <v>104581844490</v>
+      </c>
+      <c r="X26">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y26">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z26">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA26">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB26">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC26">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>160487587100</v>
       </c>
+      <c r="Q27">
+        <v>1214910935500</v>
+      </c>
+      <c r="R27">
+        <v>1054423348400</v>
+      </c>
+      <c r="S27">
+        <v>84303600</v>
+      </c>
+      <c r="T27">
+        <v>64998600</v>
+      </c>
+      <c r="U27">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V27">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W27">
+        <v>104581844490</v>
+      </c>
+      <c r="X27">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y27">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z27">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA27">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB27">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC27">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>142992959500</v>
       </c>
+      <c r="Q28">
+        <v>1235795865900</v>
+      </c>
+      <c r="R28">
+        <v>1092802906400</v>
+      </c>
+      <c r="S28">
+        <v>85628500</v>
+      </c>
+      <c r="T28">
+        <v>67338900</v>
+      </c>
+      <c r="U28">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V28">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W28">
+        <v>104581844490</v>
+      </c>
+      <c r="X28">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y28">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z28">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA28">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB28">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC28">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>129330294500</v>
       </c>
+      <c r="Q29">
+        <v>1254788042100</v>
+      </c>
+      <c r="R29">
+        <v>1125457747600</v>
+      </c>
+      <c r="S29">
+        <v>86901900</v>
+      </c>
+      <c r="T29">
+        <v>69269900</v>
+      </c>
+      <c r="U29">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V29">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W29">
+        <v>104581844490</v>
+      </c>
+      <c r="X29">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y29">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z29">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA29">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB29">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC29">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>121120576600</v>
       </c>
+      <c r="Q30">
+        <v>1279791516600</v>
+      </c>
+      <c r="R30">
+        <v>1158670940000</v>
+      </c>
+      <c r="S30">
+        <v>88542400</v>
+      </c>
+      <c r="T30">
+        <v>71142900</v>
+      </c>
+      <c r="U30">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V30">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W30">
+        <v>104581844490</v>
+      </c>
+      <c r="X30">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y30">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z30">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA30">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB30">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC30">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>118377939400</v>
       </c>
+      <c r="Q31">
+        <v>1302095005400</v>
+      </c>
+      <c r="R31">
+        <v>1183717066000</v>
+      </c>
+      <c r="S31">
+        <v>90200100</v>
+      </c>
+      <c r="T31">
+        <v>72801000</v>
+      </c>
+      <c r="U31">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V31">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W31">
+        <v>104581844490</v>
+      </c>
+      <c r="X31">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y31">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z31">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA31">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB31">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC31">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>134785887700</v>
       </c>
+      <c r="Q32">
+        <v>1340917663700</v>
+      </c>
+      <c r="R32">
+        <v>1206131776000</v>
+      </c>
+      <c r="S32">
+        <v>92837300</v>
+      </c>
+      <c r="T32">
+        <v>74059800</v>
+      </c>
+      <c r="U32">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V32">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W32">
+        <v>104581844490</v>
+      </c>
+      <c r="X32">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y32">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z32">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA32">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB32">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC32">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>198711730500</v>
       </c>
+      <c r="Q33">
+        <v>1419763584900</v>
+      </c>
+      <c r="R33">
+        <v>1221051854400</v>
+      </c>
+      <c r="S33">
+        <v>97727600</v>
+      </c>
+      <c r="T33">
+        <v>75290100</v>
+      </c>
+      <c r="U33">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V33">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W33">
+        <v>104581844490</v>
+      </c>
+      <c r="X33">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y33">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z33">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA33">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB33">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC33">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>311500609900</v>
       </c>
+      <c r="Q34">
+        <v>1553952989100</v>
+      </c>
+      <c r="R34">
+        <v>1242452379200</v>
+      </c>
+      <c r="S34">
+        <v>107223500</v>
+      </c>
+      <c r="T34">
+        <v>76600000</v>
+      </c>
+      <c r="U34">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V34">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W34">
+        <v>104581844490</v>
+      </c>
+      <c r="X34">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y34">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z34">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA34">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB34">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC34">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>356338310700</v>
       </c>
+      <c r="Q35">
+        <v>1641631969000</v>
+      </c>
+      <c r="R35">
+        <v>1285293658300</v>
+      </c>
+      <c r="S35">
+        <v>113768000</v>
+      </c>
+      <c r="T35">
+        <v>79389000</v>
+      </c>
+      <c r="U35">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V35">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W35">
+        <v>104581844490</v>
+      </c>
+      <c r="X35">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y35">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z35">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA35">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB35">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC35">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>376330342500</v>
       </c>
+      <c r="Q36">
+        <v>1697248320000</v>
+      </c>
+      <c r="R36">
+        <v>1320917977500</v>
+      </c>
+      <c r="S36">
+        <v>117586900</v>
+      </c>
+      <c r="T36">
+        <v>81573600</v>
+      </c>
+      <c r="U36">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V36">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W36">
+        <v>104581844490</v>
+      </c>
+      <c r="X36">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y36">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z36">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA36">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB36">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>384302077100</v>
       </c>
+      <c r="Q37">
+        <v>1735326141600</v>
+      </c>
+      <c r="R37">
+        <v>1351024064500</v>
+      </c>
+      <c r="S37">
+        <v>120130600</v>
+      </c>
+      <c r="T37">
+        <v>83751900</v>
+      </c>
+      <c r="U37">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V37">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W37">
+        <v>104581844490</v>
+      </c>
+      <c r="X37">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y37">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z37">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA37">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB37">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC37">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>373074711800</v>
       </c>
+      <c r="Q38">
+        <v>1771391448600</v>
+      </c>
+      <c r="R38">
+        <v>1398316736800</v>
+      </c>
+      <c r="S38">
+        <v>122370300</v>
+      </c>
+      <c r="T38">
+        <v>86870800</v>
+      </c>
+      <c r="U38">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V38">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W38">
+        <v>104581844490</v>
+      </c>
+      <c r="X38">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y38">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z38">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA38">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB38">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>363029388900</v>
       </c>
+      <c r="Q39">
+        <v>1807227135700</v>
+      </c>
+      <c r="R39">
+        <v>1444197746800</v>
+      </c>
+      <c r="S39">
+        <v>124860800</v>
+      </c>
+      <c r="T39">
+        <v>89767100</v>
+      </c>
+      <c r="U39">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V39">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W39">
+        <v>104581844490</v>
+      </c>
+      <c r="X39">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y39">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z39">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA39">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB39">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC39">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>349104359700</v>
       </c>
+      <c r="Q40">
+        <v>1831538146200</v>
+      </c>
+      <c r="R40">
+        <v>1482433786500</v>
+      </c>
+      <c r="S40">
+        <v>126711300</v>
+      </c>
+      <c r="T40">
+        <v>91846100</v>
+      </c>
+      <c r="U40">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V40">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W40">
+        <v>104581844490</v>
+      </c>
+      <c r="X40">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y40">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z40">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA40">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB40">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC40">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>360350963900</v>
       </c>
+      <c r="Q41">
+        <v>1872060310600</v>
+      </c>
+      <c r="R41">
+        <v>1511709346700</v>
+      </c>
+      <c r="S41">
+        <v>128959800</v>
+      </c>
+      <c r="T41">
+        <v>93668300</v>
+      </c>
+      <c r="U41">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V41">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W41">
+        <v>104581844490</v>
+      </c>
+      <c r="X41">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y41">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z41">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA41">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB41">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>345588734600</v>
       </c>
+      <c r="Q42">
+        <v>1898628719700</v>
+      </c>
+      <c r="R42">
+        <v>1553039985100</v>
+      </c>
+      <c r="S42">
+        <v>130611600</v>
+      </c>
+      <c r="T42">
+        <v>95569400</v>
+      </c>
+      <c r="U42">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V42">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W42">
+        <v>104581844490</v>
+      </c>
+      <c r="X42">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y42">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z42">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA42">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB42">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC42">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>316751581800</v>
       </c>
+      <c r="Q43">
+        <v>1921512315200</v>
+      </c>
+      <c r="R43">
+        <v>1604760733400</v>
+      </c>
+      <c r="S43">
+        <v>132042400</v>
+      </c>
+      <c r="T43">
+        <v>98133800</v>
+      </c>
+      <c r="U43">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V43">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W43">
+        <v>104581844490</v>
+      </c>
+      <c r="X43">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y43">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z43">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA43">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB43">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC43">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>316942005700</v>
       </c>
+      <c r="Q44">
+        <v>1958810526700</v>
+      </c>
+      <c r="R44">
+        <v>1641868521000</v>
+      </c>
+      <c r="S44">
+        <v>134081500</v>
+      </c>
+      <c r="T44">
+        <v>100015600</v>
+      </c>
+      <c r="U44">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V44">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W44">
+        <v>104581844490</v>
+      </c>
+      <c r="X44">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y44">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z44">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA44">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB44">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>314070413500</v>
       </c>
+      <c r="Q45">
+        <v>1982038820100</v>
+      </c>
+      <c r="R45">
+        <v>1667968406600</v>
+      </c>
+      <c r="S45">
+        <v>135492600</v>
+      </c>
+      <c r="T45">
+        <v>101845600</v>
+      </c>
+      <c r="U45">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V45">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W45">
+        <v>104581844490</v>
+      </c>
+      <c r="X45">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y45">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z45">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA45">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB45">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC45">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>343709776100</v>
       </c>
+      <c r="Q46">
+        <v>2032703469300</v>
+      </c>
+      <c r="R46">
+        <v>1688993693200</v>
+      </c>
+      <c r="S46">
+        <v>138425000</v>
+      </c>
+      <c r="T46">
+        <v>103351500</v>
+      </c>
+      <c r="U46">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V46">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W46">
+        <v>104581844490</v>
+      </c>
+      <c r="X46">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y46">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z46">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA46">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB46">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC46">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>374331183200</v>
       </c>
+      <c r="Q47">
+        <v>2083537357700</v>
+      </c>
+      <c r="R47">
+        <v>1709206174500</v>
+      </c>
+      <c r="S47">
+        <v>141597500</v>
+      </c>
+      <c r="T47">
+        <v>104480100</v>
+      </c>
+      <c r="U47">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V47">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W47">
+        <v>104581844490</v>
+      </c>
+      <c r="X47">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y47">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z47">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA47">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB47">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC47">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>503943410900</v>
       </c>
+      <c r="Q48">
+        <v>2233015292200</v>
+      </c>
+      <c r="R48">
+        <v>1729071881300</v>
+      </c>
+      <c r="S48">
+        <v>149847000</v>
+      </c>
+      <c r="T48">
+        <v>105643000</v>
+      </c>
+      <c r="U48">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V48">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W48">
+        <v>104581844490</v>
+      </c>
+      <c r="X48">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y48">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z48">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA48">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB48">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC48">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>639244799300</v>
       </c>
+      <c r="Q49">
+        <v>2399791489100</v>
+      </c>
+      <c r="R49">
+        <v>1760546689800</v>
+      </c>
+      <c r="S49">
+        <v>158987800</v>
+      </c>
+      <c r="T49">
+        <v>107358000</v>
+      </c>
+      <c r="U49">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V49">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W49">
+        <v>104581844490</v>
+      </c>
+      <c r="X49">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y49">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z49">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA49">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB49">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC49">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>754722872700</v>
       </c>
+      <c r="Q50">
+        <v>2548095709200</v>
+      </c>
+      <c r="R50">
+        <v>1793372836500</v>
+      </c>
+      <c r="S50">
+        <v>167898300</v>
+      </c>
+      <c r="T50">
+        <v>109401000</v>
+      </c>
+      <c r="U50">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V50">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W50">
+        <v>104581844490</v>
+      </c>
+      <c r="X50">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y50">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z50">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA50">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB50">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC50">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>805003460600</v>
       </c>
+      <c r="Q51">
+        <v>2652474904200</v>
+      </c>
+      <c r="R51">
+        <v>1847471443600</v>
+      </c>
+      <c r="S51">
+        <v>174408000</v>
+      </c>
+      <c r="T51">
+        <v>112289900</v>
+      </c>
+      <c r="U51">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V51">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W51">
+        <v>104581844490</v>
+      </c>
+      <c r="X51">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y51">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z51">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA51">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB51">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC51">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>791845689100</v>
       </c>
+      <c r="Q52">
+        <v>2704439781300</v>
+      </c>
+      <c r="R52">
+        <v>1912594092200</v>
+      </c>
+      <c r="S52">
+        <v>177917600</v>
+      </c>
+      <c r="T52">
+        <v>116105800</v>
+      </c>
+      <c r="U52">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V52">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W52">
+        <v>104581844490</v>
+      </c>
+      <c r="X52">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y52">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z52">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA52">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB52">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>772404796500</v>
       </c>
+      <c r="Q53">
+        <v>2742842386500</v>
+      </c>
+      <c r="R53">
+        <v>1970437590000</v>
+      </c>
+      <c r="S53">
+        <v>180317700</v>
+      </c>
+      <c r="T53">
+        <v>119609400</v>
+      </c>
+      <c r="U53">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V53">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W53">
+        <v>104581844490</v>
+      </c>
+      <c r="X53">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y53">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z53">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA53">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB53">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC53">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>756567117300</v>
       </c>
+      <c r="Q54">
+        <v>2778963017700</v>
+      </c>
+      <c r="R54">
+        <v>2022395900400</v>
+      </c>
+      <c r="S54">
+        <v>182484600</v>
+      </c>
+      <c r="T54">
+        <v>122721500</v>
+      </c>
+      <c r="U54">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V54">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W54">
+        <v>104581844490</v>
+      </c>
+      <c r="X54">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y54">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z54">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA54">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB54">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC54">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>748320605300</v>
       </c>
+      <c r="Q55">
+        <v>2810071353200</v>
+      </c>
+      <c r="R55">
+        <v>2061750747900</v>
+      </c>
+      <c r="S55">
+        <v>184371200</v>
+      </c>
+      <c r="T55">
+        <v>125042000</v>
+      </c>
+      <c r="U55">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V55">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W55">
+        <v>104581844490</v>
+      </c>
+      <c r="X55">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y55">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z55">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA55">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB55">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC55">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>757775857500</v>
       </c>
+      <c r="Q56">
+        <v>2856754104000</v>
+      </c>
+      <c r="R56">
+        <v>2098978246500</v>
+      </c>
+      <c r="S56">
+        <v>186821900</v>
+      </c>
+      <c r="T56">
+        <v>127158800</v>
+      </c>
+      <c r="U56">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V56">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W56">
+        <v>104581844490</v>
+      </c>
+      <c r="X56">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y56">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z56">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA56">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB56">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC56">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>761953792000</v>
       </c>
+      <c r="Q57">
+        <v>2888746885500</v>
+      </c>
+      <c r="R57">
+        <v>2126793093500</v>
+      </c>
+      <c r="S57">
+        <v>188924700</v>
+      </c>
+      <c r="T57">
+        <v>128634100</v>
+      </c>
+      <c r="U57">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V57">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W57">
+        <v>104581844490</v>
+      </c>
+      <c r="X57">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y57">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z57">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA57">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB57">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC57">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>756633529400</v>
       </c>
+      <c r="Q58">
+        <v>2916171309100</v>
+      </c>
+      <c r="R58">
+        <v>2159537779700</v>
+      </c>
+      <c r="S58">
+        <v>190660600</v>
+      </c>
+      <c r="T58">
+        <v>130408100</v>
+      </c>
+      <c r="U58">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V58">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W58">
+        <v>104581844490</v>
+      </c>
+      <c r="X58">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y58">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z58">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA58">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB58">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC58">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>730016588400</v>
       </c>
+      <c r="Q59">
+        <v>2939618564700</v>
+      </c>
+      <c r="R59">
+        <v>2209601976300</v>
+      </c>
+      <c r="S59">
+        <v>192029800</v>
+      </c>
+      <c r="T59">
+        <v>133538800</v>
+      </c>
+      <c r="U59">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V59">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W59">
+        <v>104581844490</v>
+      </c>
+      <c r="X59">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y59">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z59">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA59">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB59">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC59">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>711416464300</v>
       </c>
+      <c r="Q60">
+        <v>2957637319100</v>
+      </c>
+      <c r="R60">
+        <v>2246220854800</v>
+      </c>
+      <c r="S60">
+        <v>193010600</v>
+      </c>
+      <c r="T60">
+        <v>136164600</v>
+      </c>
+      <c r="U60">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V60">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W60">
+        <v>104581844490</v>
+      </c>
+      <c r="X60">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y60">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z60">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA60">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB60">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC60">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>690550182400</v>
       </c>
+      <c r="Q61">
+        <v>2975953899100</v>
+      </c>
+      <c r="R61">
+        <v>2285403716700</v>
+      </c>
+      <c r="S61">
+        <v>193923200</v>
+      </c>
+      <c r="T61">
+        <v>138614900</v>
+      </c>
+      <c r="U61">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V61">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W61">
+        <v>104581844490</v>
+      </c>
+      <c r="X61">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y61">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z61">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA61">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB61">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC61">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>670277472300</v>
       </c>
+      <c r="Q62">
+        <v>2992665753500</v>
+      </c>
+      <c r="R62">
+        <v>2322388281200</v>
+      </c>
+      <c r="S62">
+        <v>195025000</v>
+      </c>
+      <c r="T62">
+        <v>140784000</v>
+      </c>
+      <c r="U62">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V62">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W62">
+        <v>104581844490</v>
+      </c>
+      <c r="X62">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y62">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z62">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA62">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB62">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC62">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>644383074400</v>
       </c>
+      <c r="Q63">
+        <v>3008894439900</v>
+      </c>
+      <c r="R63">
+        <v>2364511365500</v>
+      </c>
+      <c r="S63">
+        <v>195963200</v>
+      </c>
+      <c r="T63">
+        <v>143251900</v>
+      </c>
+      <c r="U63">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V63">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W63">
+        <v>104581844490</v>
+      </c>
+      <c r="X63">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y63">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z63">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA63">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB63">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC63">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>605612784700</v>
       </c>
+      <c r="Q64">
+        <v>3022571584500</v>
+      </c>
+      <c r="R64">
+        <v>2416958799800</v>
+      </c>
+      <c r="S64">
+        <v>196845100</v>
+      </c>
+      <c r="T64">
+        <v>146581700</v>
+      </c>
+      <c r="U64">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V64">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W64">
+        <v>104581844490</v>
+      </c>
+      <c r="X64">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y64">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z64">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA64">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB64">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC64">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>580668540700</v>
       </c>
+      <c r="Q65">
+        <v>3047667541100</v>
+      </c>
+      <c r="R65">
+        <v>2466999000400</v>
+      </c>
+      <c r="S65">
+        <v>198180400</v>
+      </c>
+      <c r="T65">
+        <v>149619700</v>
+      </c>
+      <c r="U65">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V65">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W65">
+        <v>104581844490</v>
+      </c>
+      <c r="X65">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y65">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z65">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA65">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB65">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC65">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>578667408000</v>
       </c>
+      <c r="Q66">
+        <v>3079366099700</v>
+      </c>
+      <c r="R66">
+        <v>2500698691700</v>
+      </c>
+      <c r="S66">
+        <v>199930900</v>
+      </c>
+      <c r="T66">
+        <v>151683900</v>
+      </c>
+      <c r="U66">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V66">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W66">
+        <v>104581844490</v>
+      </c>
+      <c r="X66">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y66">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z66">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA66">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB66">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC66">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>586611892700</v>
       </c>
+      <c r="Q67">
+        <v>3109911283900</v>
+      </c>
+      <c r="R67">
+        <v>2523299391200</v>
+      </c>
+      <c r="S67">
+        <v>201634500</v>
+      </c>
+      <c r="T67">
+        <v>153220300</v>
+      </c>
+      <c r="U67">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V67">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W67">
+        <v>104581844490</v>
+      </c>
+      <c r="X67">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y67">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z67">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA67">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB67">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC67">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>570273992700</v>
       </c>
+      <c r="Q68">
+        <v>3130027761600</v>
+      </c>
+      <c r="R68">
+        <v>2559753768900</v>
+      </c>
+      <c r="S68">
+        <v>202879900</v>
+      </c>
+      <c r="T68">
+        <v>155284600</v>
+      </c>
+      <c r="U68">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V68">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W68">
+        <v>104581844490</v>
+      </c>
+      <c r="X68">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y68">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z68">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA68">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB68">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>567384759400</v>
       </c>
+      <c r="Q69">
+        <v>3149091104100</v>
+      </c>
+      <c r="R69">
+        <v>2581706344700</v>
+      </c>
+      <c r="S69">
+        <v>203936600</v>
+      </c>
+      <c r="T69">
+        <v>156657400</v>
+      </c>
+      <c r="U69">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V69">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W69">
+        <v>104581844490</v>
+      </c>
+      <c r="X69">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y69">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z69">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA69">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB69">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC69">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>567641129400</v>
       </c>
+      <c r="Q70">
+        <v>3149517544100</v>
+      </c>
+      <c r="R70">
+        <v>2581876414700</v>
+      </c>
+      <c r="S70">
+        <v>203958200</v>
+      </c>
+      <c r="T70">
+        <v>156668800</v>
+      </c>
+      <c r="U70">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V70">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W70">
+        <v>104581844490</v>
+      </c>
+      <c r="X70">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y70">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z70">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA70">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB70">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>500611095200</v>
       </c>
+      <c r="Q71">
+        <v>3219702381900</v>
+      </c>
+      <c r="R71">
+        <v>2719091286700</v>
+      </c>
+      <c r="S71">
+        <v>208471000</v>
+      </c>
+      <c r="T71">
+        <v>164847400</v>
+      </c>
+      <c r="U71">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V71">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W71">
+        <v>104581844490</v>
+      </c>
+      <c r="X71">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y71">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z71">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA71">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB71">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC71">
+        <v>6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>421966366700</v>
       </c>
+      <c r="Q72">
+        <v>3249710855200</v>
+      </c>
+      <c r="R72">
+        <v>2827744488500</v>
+      </c>
+      <c r="S72">
+        <v>210333300</v>
+      </c>
+      <c r="T72">
+        <v>171550000</v>
+      </c>
+      <c r="U72">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V72">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W72">
+        <v>104581844490</v>
+      </c>
+      <c r="X72">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y72">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z72">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA72">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB72">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC72">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>353321789900</v>
       </c>
+      <c r="Q73">
+        <v>3278031176200</v>
+      </c>
+      <c r="R73">
+        <v>2924709386300</v>
+      </c>
+      <c r="S73">
+        <v>212018800</v>
+      </c>
+      <c r="T73">
+        <v>177308900</v>
+      </c>
+      <c r="U73">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V73">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W73">
+        <v>104581844490</v>
+      </c>
+      <c r="X73">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y73">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z73">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA73">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB73">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC73">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>287932372200</v>
       </c>
+      <c r="Q74">
+        <v>3318474477100</v>
+      </c>
+      <c r="R74">
+        <v>3030542104900</v>
+      </c>
+      <c r="S74">
+        <v>214448600</v>
+      </c>
+      <c r="T74">
+        <v>183358200</v>
+      </c>
+      <c r="U74">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V74">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W74">
+        <v>104581844490</v>
+      </c>
+      <c r="X74">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y74">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z74">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA74">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB74">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC74">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>226666025000</v>
       </c>
+      <c r="Q75">
+        <v>3358088851400</v>
+      </c>
+      <c r="R75">
+        <v>3131422826400</v>
+      </c>
+      <c r="S75">
+        <v>216736000</v>
+      </c>
+      <c r="T75">
+        <v>189119800</v>
+      </c>
+      <c r="U75">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V75">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W75">
+        <v>104581844490</v>
+      </c>
+      <c r="X75">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y75">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z75">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA75">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB75">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC75">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>195570120500</v>
       </c>
+      <c r="Q76">
+        <v>3407591144400</v>
+      </c>
+      <c r="R76">
+        <v>3212021023900</v>
+      </c>
+      <c r="S76">
+        <v>219456200</v>
+      </c>
+      <c r="T76">
+        <v>193984500</v>
+      </c>
+      <c r="U76">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V76">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W76">
+        <v>104581844490</v>
+      </c>
+      <c r="X76">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y76">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z76">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA76">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB76">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC76">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>162663524000</v>
       </c>
+      <c r="Q77">
+        <v>3446858617900</v>
+      </c>
+      <c r="R77">
+        <v>3284195093900</v>
+      </c>
+      <c r="S77">
+        <v>221822300</v>
+      </c>
+      <c r="T77">
+        <v>198159000</v>
+      </c>
+      <c r="U77">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V77">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W77">
+        <v>104581844490</v>
+      </c>
+      <c r="X77">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y77">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z77">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA77">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB77">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC77">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>144860971900</v>
       </c>
+      <c r="Q78">
+        <v>3500434127700</v>
+      </c>
+      <c r="R78">
+        <v>3355573155800</v>
+      </c>
+      <c r="S78">
+        <v>225369000</v>
+      </c>
+      <c r="T78">
+        <v>202245000</v>
+      </c>
+      <c r="U78">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V78">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W78">
+        <v>104581844490</v>
+      </c>
+      <c r="X78">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y78">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z78">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA78">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB78">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC78">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>188764282600</v>
       </c>
+      <c r="Q79">
+        <v>3571423728900</v>
+      </c>
+      <c r="R79">
+        <v>3382659446300</v>
+      </c>
+      <c r="S79">
+        <v>229908500</v>
+      </c>
+      <c r="T79">
+        <v>203863700</v>
+      </c>
+      <c r="U79">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V79">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W79">
+        <v>104581844490</v>
+      </c>
+      <c r="X79">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y79">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z79">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA79">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB79">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC79">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>211993204200</v>
       </c>
+      <c r="Q80">
+        <v>3623708144700</v>
+      </c>
+      <c r="R80">
+        <v>3411714940500</v>
+      </c>
+      <c r="S80">
+        <v>233551100</v>
+      </c>
+      <c r="T80">
+        <v>205797500</v>
+      </c>
+      <c r="U80">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V80">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W80">
+        <v>104581844490</v>
+      </c>
+      <c r="X80">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y80">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z80">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA80">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB80">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC80">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>180994580000</v>
       </c>
+      <c r="Q81">
+        <v>3657639548700</v>
+      </c>
+      <c r="R81">
+        <v>3476644968700</v>
+      </c>
+      <c r="S81">
+        <v>235793600</v>
+      </c>
+      <c r="T81">
+        <v>209397400</v>
+      </c>
+      <c r="U81">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V81">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W81">
+        <v>104581844490</v>
+      </c>
+      <c r="X81">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y81">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z81">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA81">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB81">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC81">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>141555546900</v>
       </c>
+      <c r="Q82">
+        <v>3679864510700</v>
+      </c>
+      <c r="R82">
+        <v>3538308963800</v>
+      </c>
+      <c r="S82">
+        <v>237237600</v>
+      </c>
+      <c r="T82">
+        <v>212975700</v>
+      </c>
+      <c r="U82">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V82">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W82">
+        <v>104581844490</v>
+      </c>
+      <c r="X82">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y82">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z82">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA82">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB82">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC82">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>114706332100</v>
       </c>
+      <c r="Q83">
+        <v>3696830334100</v>
+      </c>
+      <c r="R83">
+        <v>3582124002000</v>
+      </c>
+      <c r="S83">
+        <v>238258400</v>
+      </c>
+      <c r="T83">
+        <v>215600500</v>
+      </c>
+      <c r="U83">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V83">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W83">
+        <v>104581844490</v>
+      </c>
+      <c r="X83">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y83">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z83">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA83">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB83">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC83">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>85948439300</v>
       </c>
+      <c r="Q84">
+        <v>3718429365200</v>
+      </c>
+      <c r="R84">
+        <v>3632480925900</v>
+      </c>
+      <c r="S84">
+        <v>239592400</v>
+      </c>
+      <c r="T84">
+        <v>218854200</v>
+      </c>
+      <c r="U84">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V84">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W84">
+        <v>104581844490</v>
+      </c>
+      <c r="X84">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y84">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z84">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA84">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB84">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC84">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>61542212100</v>
       </c>
+      <c r="Q85">
+        <v>3743829351800</v>
+      </c>
+      <c r="R85">
+        <v>3682287139700</v>
+      </c>
+      <c r="S85">
+        <v>241072100</v>
+      </c>
+      <c r="T85">
+        <v>222195100</v>
+      </c>
+      <c r="U85">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V85">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W85">
+        <v>104581844490</v>
+      </c>
+      <c r="X85">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y85">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z85">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA85">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB85">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC85">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>44541021900</v>
       </c>
+      <c r="Q86">
+        <v>3774871948300</v>
+      </c>
+      <c r="R86">
+        <v>3730330926400</v>
+      </c>
+      <c r="S86">
+        <v>242893500</v>
+      </c>
+      <c r="T86">
+        <v>225449600</v>
+      </c>
+      <c r="U86">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V86">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W86">
+        <v>104581844490</v>
+      </c>
+      <c r="X86">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y86">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z86">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA86">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB86">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC86">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>53176145700</v>
       </c>
+      <c r="Q87">
+        <v>3811350887200</v>
+      </c>
+      <c r="R87">
+        <v>3758174741500</v>
+      </c>
+      <c r="S87">
+        <v>244959200</v>
+      </c>
+      <c r="T87">
+        <v>227522300</v>
+      </c>
+      <c r="U87">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V87">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W87">
+        <v>104581844490</v>
+      </c>
+      <c r="X87">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y87">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z87">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA87">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB87">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC87">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>88292574700</v>
       </c>
+      <c r="Q88">
+        <v>3865041570500</v>
+      </c>
+      <c r="R88">
+        <v>3776748995800</v>
+      </c>
+      <c r="S88">
+        <v>248191400</v>
+      </c>
+      <c r="T88">
+        <v>228807700</v>
+      </c>
+      <c r="U88">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V88">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W88">
+        <v>104581844490</v>
+      </c>
+      <c r="X88">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y88">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z88">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA88">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB88">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC88">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>122316126200</v>
       </c>
+      <c r="Q89">
+        <v>3925413202300</v>
+      </c>
+      <c r="R89">
+        <v>3803097076100</v>
+      </c>
+      <c r="S89">
+        <v>252065100</v>
+      </c>
+      <c r="T89">
+        <v>230382800</v>
+      </c>
+      <c r="U89">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V89">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W89">
+        <v>104581844490</v>
+      </c>
+      <c r="X89">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y89">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z89">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA89">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB89">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC89">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>137479637100</v>
       </c>
+      <c r="Q90">
+        <v>3964704807500</v>
+      </c>
+      <c r="R90">
+        <v>3827225170400</v>
+      </c>
+      <c r="S90">
+        <v>254304900</v>
+      </c>
+      <c r="T90">
+        <v>231789200</v>
+      </c>
+      <c r="U90">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V90">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W90">
+        <v>104581844490</v>
+      </c>
+      <c r="X90">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y90">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z90">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA90">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB90">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>130670355900</v>
       </c>
+      <c r="Q91">
+        <v>3992294932700</v>
+      </c>
+      <c r="R91">
+        <v>3861624576800</v>
+      </c>
+      <c r="S91">
+        <v>256072800</v>
+      </c>
+      <c r="T91">
+        <v>234031500</v>
+      </c>
+      <c r="U91">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V91">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W91">
+        <v>104581844490</v>
+      </c>
+      <c r="X91">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y91">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z91">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA91">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB91">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC91">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>118292589000</v>
       </c>
+      <c r="Q92">
+        <v>4041569206500</v>
+      </c>
+      <c r="R92">
+        <v>3923276617500</v>
+      </c>
+      <c r="S92">
+        <v>259523800</v>
+      </c>
+      <c r="T92">
+        <v>237716500</v>
+      </c>
+      <c r="U92">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V92">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W92">
+        <v>104581844490</v>
+      </c>
+      <c r="X92">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y92">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z92">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA92">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB92">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC92">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>104347808300</v>
       </c>
+      <c r="Q93">
+        <v>4087384048200</v>
+      </c>
+      <c r="R93">
+        <v>3983036239900</v>
+      </c>
+      <c r="S93">
+        <v>262786000</v>
+      </c>
+      <c r="T93">
+        <v>241055800</v>
+      </c>
+      <c r="U93">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V93">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W93">
+        <v>104581844490</v>
+      </c>
+      <c r="X93">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y93">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z93">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA93">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB93">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC93">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>51429567100</v>
       </c>
+      <c r="Q94">
+        <v>4114137881900</v>
+      </c>
+      <c r="R94">
+        <v>4062708314800</v>
+      </c>
+      <c r="S94">
+        <v>264482700</v>
+      </c>
+      <c r="T94">
+        <v>245687200</v>
+      </c>
+      <c r="U94">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V94">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W94">
+        <v>104581844490</v>
+      </c>
+      <c r="X94">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y94">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z94">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA94">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB94">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC94">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-14011865200</v>
       </c>
+      <c r="Q95">
+        <v>4138339640500</v>
+      </c>
+      <c r="R95">
+        <v>4152351505700</v>
+      </c>
+      <c r="S95">
+        <v>266158300</v>
+      </c>
+      <c r="T95">
+        <v>251614800</v>
+      </c>
+      <c r="U95">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V95">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W95">
+        <v>104581844490</v>
+      </c>
+      <c r="X95">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y95">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z95">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA95">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB95">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC95">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-120191236700</v>
       </c>
+      <c r="Q96">
+        <v>4156472941000</v>
+      </c>
+      <c r="R96">
+        <v>4276664177700</v>
+      </c>
+      <c r="S96">
+        <v>267612200</v>
+      </c>
+      <c r="T96">
+        <v>260727500</v>
+      </c>
+      <c r="U96">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V96">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W96">
+        <v>104581844490</v>
+      </c>
+      <c r="X96">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y96">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z96">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA96">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB96">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC96">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-275488406300</v>
       </c>
+      <c r="Q97">
+        <v>4183602858900</v>
+      </c>
+      <c r="R97">
+        <v>4459091265200</v>
+      </c>
+      <c r="S97">
+        <v>269206300</v>
+      </c>
+      <c r="T97">
+        <v>272145400</v>
+      </c>
+      <c r="U97">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V97">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W97">
+        <v>104581844490</v>
+      </c>
+      <c r="X97">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y97">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z97">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA97">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB97">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC97">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-347528529000</v>
       </c>
+      <c r="Q98">
+        <v>4226129674000</v>
+      </c>
+      <c r="R98">
+        <v>4573658203000</v>
+      </c>
+      <c r="S98">
+        <v>271732800</v>
+      </c>
+      <c r="T98">
+        <v>279947800</v>
+      </c>
+      <c r="U98">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V98">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W98">
+        <v>104581844490</v>
+      </c>
+      <c r="X98">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y98">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z98">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA98">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB98">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC98">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-402979312400</v>
       </c>
+      <c r="Q99">
+        <v>4256857264600</v>
+      </c>
+      <c r="R99">
+        <v>4659836577000</v>
+      </c>
+      <c r="S99">
+        <v>273854100</v>
+      </c>
+      <c r="T99">
+        <v>285316200</v>
+      </c>
+      <c r="U99">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V99">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W99">
+        <v>104581844490</v>
+      </c>
+      <c r="X99">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y99">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z99">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA99">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB99">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC99">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-415999685200</v>
       </c>
+      <c r="Q100">
+        <v>4306123336000</v>
+      </c>
+      <c r="R100">
+        <v>4722123021200</v>
+      </c>
+      <c r="S100">
+        <v>277097100</v>
+      </c>
+      <c r="T100">
+        <v>288959100</v>
+      </c>
+      <c r="U100">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V100">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W100">
+        <v>104581844490</v>
+      </c>
+      <c r="X100">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y100">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z100">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA100">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB100">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC100">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-391673170200</v>
       </c>
+      <c r="Q101">
+        <v>4362149141800</v>
+      </c>
+      <c r="R101">
+        <v>4753822312000</v>
+      </c>
+      <c r="S101">
+        <v>281045300</v>
+      </c>
+      <c r="T101">
+        <v>290901200</v>
+      </c>
+      <c r="U101">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V101">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W101">
+        <v>104581844490</v>
+      </c>
+      <c r="X101">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y101">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z101">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA101">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB101">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC101">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-372521184100</v>
       </c>
+      <c r="Q102">
+        <v>4404664497100</v>
+      </c>
+      <c r="R102">
+        <v>4777185681200</v>
+      </c>
+      <c r="S102">
+        <v>284180900</v>
+      </c>
+      <c r="T102">
+        <v>292380000</v>
+      </c>
+      <c r="U102">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V102">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W102">
+        <v>104581844490</v>
+      </c>
+      <c r="X102">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y102">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z102">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA102">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB102">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC102">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-433589711500</v>
       </c>
+      <c r="Q103">
+        <v>4424566225600</v>
+      </c>
+      <c r="R103">
+        <v>4858155937100</v>
+      </c>
+      <c r="S103">
+        <v>285374000</v>
+      </c>
+      <c r="T103">
+        <v>297292900</v>
+      </c>
+      <c r="U103">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V103">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W103">
+        <v>104581844490</v>
+      </c>
+      <c r="X103">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y103">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z103">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA103">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB103">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC103">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-530774043400</v>
       </c>
+      <c r="Q104">
+        <v>4445634080800</v>
+      </c>
+      <c r="R104">
+        <v>4976408124200</v>
+      </c>
+      <c r="S104">
+        <v>286667800</v>
+      </c>
+      <c r="T104">
+        <v>304980200</v>
+      </c>
+      <c r="U104">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V104">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W104">
+        <v>104581844490</v>
+      </c>
+      <c r="X104">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y104">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z104">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA104">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB104">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC104">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-645636420000</v>
       </c>
+      <c r="Q105">
+        <v>4471165461300</v>
+      </c>
+      <c r="R105">
+        <v>5116801881300</v>
+      </c>
+      <c r="S105">
+        <v>288478800</v>
+      </c>
+      <c r="T105">
+        <v>315398300</v>
+      </c>
+      <c r="U105">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V105">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W105">
+        <v>104581844490</v>
+      </c>
+      <c r="X105">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y105">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z105">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA105">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB105">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC105">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-732495816500</v>
       </c>
+      <c r="Q106">
+        <v>4518976075300</v>
+      </c>
+      <c r="R106">
+        <v>5251471891800</v>
+      </c>
+      <c r="S106">
+        <v>291633600</v>
+      </c>
+      <c r="T106">
+        <v>324651500</v>
+      </c>
+      <c r="U106">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V106">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W106">
+        <v>104581844490</v>
+      </c>
+      <c r="X106">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y106">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z106">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA106">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB106">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC106">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-690151577900</v>
       </c>
+      <c r="Q107">
+        <v>4601205899000</v>
+      </c>
+      <c r="R107">
+        <v>5291357476900</v>
+      </c>
+      <c r="S107">
+        <v>297113100</v>
+      </c>
+      <c r="T107">
+        <v>327235700</v>
+      </c>
+      <c r="U107">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V107">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W107">
+        <v>104581844490</v>
+      </c>
+      <c r="X107">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y107">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z107">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA107">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB107">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC107">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-657175157600</v>
       </c>
+      <c r="Q108">
+        <v>4660179267300</v>
+      </c>
+      <c r="R108">
+        <v>5317354424900</v>
+      </c>
+      <c r="S108">
+        <v>300800600</v>
+      </c>
+      <c r="T108">
+        <v>329026700</v>
+      </c>
+      <c r="U108">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V108">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W108">
+        <v>104581844490</v>
+      </c>
+      <c r="X108">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y108">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z108">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA108">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB108">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC108">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-647277085500</v>
       </c>
+      <c r="Q109">
+        <v>4705674060200</v>
+      </c>
+      <c r="R109">
+        <v>5352951145700</v>
+      </c>
+      <c r="S109">
+        <v>303682200</v>
+      </c>
+      <c r="T109">
+        <v>331336400</v>
+      </c>
+      <c r="U109">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V109">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W109">
+        <v>104581844490</v>
+      </c>
+      <c r="X109">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y109">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z109">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA109">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB109">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC109">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-702081945200</v>
       </c>
+      <c r="Q110">
+        <v>4735664760400</v>
+      </c>
+      <c r="R110">
+        <v>5437746705600</v>
+      </c>
+      <c r="S110">
+        <v>305563500</v>
+      </c>
+      <c r="T110">
+        <v>336769100</v>
+      </c>
+      <c r="U110">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V110">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W110">
+        <v>104581844490</v>
+      </c>
+      <c r="X110">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y110">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z110">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA110">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB110">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC110">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-766737069700</v>
       </c>
+      <c r="Q111">
+        <v>4767172524000</v>
+      </c>
+      <c r="R111">
+        <v>5533909593700</v>
+      </c>
+      <c r="S111">
+        <v>307560600</v>
+      </c>
+      <c r="T111">
+        <v>343089700</v>
+      </c>
+      <c r="U111">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V111">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W111">
+        <v>104581844490</v>
+      </c>
+      <c r="X111">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y111">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z111">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA111">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB111">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC111">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-855181068100</v>
       </c>
+      <c r="Q112">
+        <v>4803051463600</v>
+      </c>
+      <c r="R112">
+        <v>5658232531700</v>
+      </c>
+      <c r="S112">
+        <v>309990800</v>
+      </c>
+      <c r="T112">
+        <v>351339900</v>
+      </c>
+      <c r="U112">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V112">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W112">
+        <v>104581844490</v>
+      </c>
+      <c r="X112">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y112">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z112">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA112">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB112">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC112">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-1104053169500</v>
       </c>
+      <c r="Q113">
+        <v>4859668349800</v>
+      </c>
+      <c r="R113">
+        <v>5963721519300</v>
+      </c>
+      <c r="S113">
+        <v>313538700</v>
+      </c>
+      <c r="T113">
+        <v>372156700</v>
+      </c>
+      <c r="U113">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V113">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W113">
+        <v>104581844490</v>
+      </c>
+      <c r="X113">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y113">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z113">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA113">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB113">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC113">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-1247906549100</v>
       </c>
+      <c r="Q114">
+        <v>4953546139900</v>
+      </c>
+      <c r="R114">
+        <v>6201452689000</v>
+      </c>
+      <c r="S114">
+        <v>319171500</v>
+      </c>
+      <c r="T114">
+        <v>389273900</v>
+      </c>
+      <c r="U114">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V114">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W114">
+        <v>104581844490</v>
+      </c>
+      <c r="X114">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y114">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z114">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA114">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB114">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC114">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-1275109648200</v>
       </c>
+      <c r="Q115">
+        <v>5054228122600</v>
+      </c>
+      <c r="R115">
+        <v>6329337770800</v>
+      </c>
+      <c r="S115">
+        <v>326513500</v>
+      </c>
+      <c r="T115">
+        <v>397639300</v>
+      </c>
+      <c r="U115">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V115">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W115">
+        <v>104581844490</v>
+      </c>
+      <c r="X115">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y115">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z115">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA115">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB115">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC115">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-1275001257200</v>
       </c>
+      <c r="Q116">
+        <v>5054551333600</v>
+      </c>
+      <c r="R116">
+        <v>6329552590800</v>
+      </c>
+      <c r="S116">
+        <v>326555800</v>
+      </c>
+      <c r="T116">
+        <v>397656700</v>
+      </c>
+      <c r="U116">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V116">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W116">
+        <v>104581844490</v>
+      </c>
+      <c r="X116">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y116">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z116">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA116">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB116">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-1275010347200</v>
       </c>
+      <c r="Q117">
+        <v>5054551333600</v>
+      </c>
+      <c r="R117">
+        <v>6329561680800</v>
+      </c>
+      <c r="S117">
+        <v>326555800</v>
+      </c>
+      <c r="T117">
+        <v>397657600</v>
+      </c>
+      <c r="U117">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V117">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W117">
+        <v>104581844490</v>
+      </c>
+      <c r="X117">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y117">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z117">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA117">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB117">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-1338311686900</v>
       </c>
+      <c r="Q118">
+        <v>5332732179400</v>
+      </c>
+      <c r="R118">
+        <v>6671043866300</v>
+      </c>
+      <c r="S118">
+        <v>343682900</v>
+      </c>
+      <c r="T118">
+        <v>421334400</v>
+      </c>
+      <c r="U118">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V118">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W118">
+        <v>104581844490</v>
+      </c>
+      <c r="X118">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y118">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z118">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA118">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB118">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC118">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-1338313706900</v>
       </c>
+      <c r="Q119">
+        <v>5332732179400</v>
+      </c>
+      <c r="R119">
+        <v>6671045886300</v>
+      </c>
+      <c r="S119">
+        <v>343682900</v>
+      </c>
+      <c r="T119">
+        <v>421334600</v>
+      </c>
+      <c r="U119">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V119">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W119">
+        <v>104581844490</v>
+      </c>
+      <c r="X119">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y119">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z119">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA119">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB119">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-1338323806900</v>
       </c>
+      <c r="Q120">
+        <v>5332732179400</v>
+      </c>
+      <c r="R120">
+        <v>6671055986300</v>
+      </c>
+      <c r="S120">
+        <v>343682900</v>
+      </c>
+      <c r="T120">
+        <v>421335600</v>
+      </c>
+      <c r="U120">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V120">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W120">
+        <v>104581844490</v>
+      </c>
+      <c r="X120">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y120">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z120">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA120">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB120">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,10 +11131,49 @@
       <c r="P121">
         <v>-1338364206900</v>
       </c>
+      <c r="Q121">
+        <v>5332732179400</v>
+      </c>
+      <c r="R121">
+        <v>6671096386300</v>
+      </c>
+      <c r="S121">
+        <v>343682900</v>
+      </c>
+      <c r="T121">
+        <v>421339600</v>
+      </c>
+      <c r="U121">
+        <v>44439434828.3</v>
+      </c>
+      <c r="V121">
+        <v>55592469885.8</v>
+      </c>
+      <c r="W121">
+        <v>104581844490</v>
+      </c>
+      <c r="X121">
+        <v>6704609.2</v>
+      </c>
+      <c r="Y121">
+        <v>2864024.2</v>
+      </c>
+      <c r="Z121">
+        <v>3511163.3</v>
+      </c>
+      <c r="AA121">
+        <v>-647139.2</v>
+      </c>
+      <c r="AB121">
+        <v>-11153035057.5</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC121"/>
   </ignoredErrors>
 </worksheet>
 </file>